--- a/SCADA_DOC/План_разработки_SCADA_Квинта8.xlsx
+++ b/SCADA_DOC/План_разработки_SCADA_Квинта8.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Общий план разработки SCADA" sheetId="1" r:id="rId1"/>
     <sheet name="1. Подсистема архивирования." sheetId="2" r:id="rId2"/>
     <sheet name="2. Подсистема представления инф" sheetId="3" r:id="rId3"/>
     <sheet name="3. Математическое ядро" sheetId="4" r:id="rId4"/>
-    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
-    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
+    <sheet name="4. Подсистема обмена" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Подсистема разработки граф. " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
   <si>
     <t>2016 год</t>
   </si>
@@ -315,7 +315,111 @@
   </si>
   <si>
     <r>
-      <t>4.</t>
+      <t>4.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Модуль подключения внешних источников (общепринятые открытые и специализированные промышленные протоколы).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Модуль генерации данных для сторонних систем.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Библиотека шаблонов.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Менеджер библиотеки шаблонов.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
     </r>
     <r>
       <rPr>
@@ -338,12 +442,179 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Подсистема обмена данными.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.1.</t>
+      <t>Среда разработки графической части HMI.</t>
+    </r>
+  </si>
+  <si>
+    <t>Сентябрь</t>
+  </si>
+  <si>
+    <t>Перечень сокращений</t>
+  </si>
+  <si>
+    <r>
+      <t>DAQ (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>англ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Data Acquisition) — сбор данных.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DB (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>англ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Data Base) — см. БД.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GUI (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>англ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Graphical User Interface) — графический интерфейс пользователя.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UI (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>англ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> User Interface) — интерфейс пользователя.</t>
+    </r>
+  </si>
+  <si>
+    <t>БД — база данных.</t>
+  </si>
+  <si>
+    <t>ОС — операционная система.</t>
+  </si>
+  <si>
+    <t>ПЛК — программируемый логический контроллер.</t>
+  </si>
+  <si>
+    <t>ПО — программное обеспечение.</t>
+  </si>
+  <si>
+    <t>СО — объект сигнализации (литеры в аббревиатуре переставлены, видимо, чтобы не путать с сокращением ОС (см. выше)).</t>
+  </si>
+  <si>
+    <t>СВУ — среда визуализации и управления.</t>
+  </si>
+  <si>
+    <t>ФС — файловая система.</t>
+  </si>
+  <si>
+    <t>Основной компонент (скомпилированный исполняемый модуль *.exe, *.dll)</t>
+  </si>
+  <si>
+    <t>Связующий код (Logic - Control)</t>
+  </si>
+  <si>
+    <t>Фундаментальный код (Core - Model)</t>
+  </si>
+  <si>
+    <t>Файл БД (структурная схема объектов IDEF1x), управляющий код (тригеры, хранимые процедуры), API доступа (классы, функции), USER FORMS доступа</t>
+  </si>
+  <si>
+    <t>Соотношение типа кода по модели MVC - Model View Control</t>
+  </si>
+  <si>
+    <t>API управления данными (классы, функции)</t>
+  </si>
+  <si>
+    <t>3 программсита (2 программиста - 1 ведущий программист)</t>
+  </si>
+  <si>
+    <t>API управления данными (классы, функции), Основополагающий алгоритм исполнения системы, с учетом режима работы системы</t>
+  </si>
+  <si>
+    <t>Код формирования интерфейса (User forms, Programm interface - View)</t>
+  </si>
+  <si>
+    <t>XML - шаблоны проектов (классы), управляющий объектный код (методы, функции, серилизация объектов)</t>
+  </si>
+  <si>
+    <t>XML - шаблоны мнемосхем (классы), управляющий объектный код (методы, функции, серилизация объектов, функции экспорта импорта)</t>
+  </si>
+  <si>
+    <t>Библиотека типов событий (классы), элементы управления потоком событий (функции обработки очередей данных)</t>
+  </si>
+  <si>
+    <r>
+      <t>2.2.</t>
     </r>
     <r>
       <rPr>
@@ -364,15 +635,25 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Модуль подключения внешних источников (общепринятые открытые и специализированные промышленные протоколы).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.2.</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Модуль построения трендов</t>
+    </r>
+  </si>
+  <si>
+    <t>Элементы визуализации (USER FORMS), API функции управления (извлечение, обработка, визуализация оперативных данных из КЭША).</t>
+  </si>
+  <si>
+    <t>Основной компонент (скомпилированный исполняемый модуль)</t>
+  </si>
+  <si>
+    <t>Первая декомпозиция (единица работы, выход)</t>
+  </si>
+  <si>
+    <r>
+      <t>2.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -383,22 +664,27 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Модуль генерации данных для сторонних систем.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.3.</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Модуль интерфейсов пользователей.</t>
+    </r>
+  </si>
+  <si>
+    <t>Библиотека типов тегов (классы), функции работы с тегом (функции обработки всех возможных операций над тегом</t>
+  </si>
+  <si>
+    <r>
+      <t>3.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -409,22 +695,27 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Библиотека шаблонов.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.4.</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Конфигурирование тэгов.</t>
+    </r>
+  </si>
+  <si>
+    <t>Библиотека шаблонов типов фильтров (классы), API - функции генерации фильтров (все вохзможные операции над фильтрами)</t>
+  </si>
+  <si>
+    <r>
+      <t>3.3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -435,19 +726,131 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Менеджер библиотеки шаблонов.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Редактор скриптов.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Библиотека вариантов использования системы (USE CASES), шаблоны типовых действий с реализацией делегирования прав доступа (классы, функции, XML - шаблоны) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">API функции управления, создания  сложных типов в режиме "надстройка" (функции), специализированный редактор собственных типов(USER FORMS), классы задач программирования (классы промежуточной програмной оболочки) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">API функции управления, создания программ управления сложных типов в режиме "надстройка" (функции), специализированный редактор скриптов (USER FORMS), классы задач программирования (классы промежуточной програмной оболочки) </t>
+  </si>
+  <si>
+    <t>3 программсита (2 ведущих программиста - 1 программист)</t>
+  </si>
+  <si>
+    <t>API функций расширения на каждый протокол обмена (функции получения - парсинга данных в ТЛВС), классы типов транзакций (перечень шаблонов типов данных в соотсвествии со спецификацией проткола), реализация сосбвенной системы взаимодействия (API серверной компоненты)</t>
+  </si>
+  <si>
+    <t>API функций расширения на каждый протокол обмена (функции получения - парсинга данных в ТЛВС), классы типов транзакций (перечень шаблонов типов данных в соотсвествии со спецификацией проткола), реализация сосбвенной системы взаимодействия (API клиентской компоненты)</t>
+  </si>
+  <si>
+    <r>
+      <t>4.3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Система единого времени.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Модуль управления, распределения и параллельного доступа к разделяемой области оперативных данных.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Модуль резервирования сетевых соединений.</t>
+    </r>
+  </si>
+  <si>
+    <t>API функций синхронизации внутрисистемного единого времени (функции)</t>
+  </si>
+  <si>
+    <t>3 программиста (1 ведущий программист - 2 сетевых (низкоуровневых) программиста)</t>
+  </si>
+  <si>
+    <t>API  функций управления и идентификации потоков доступа, распределния нагрузки на аппаратные средства (функции, классы)</t>
+  </si>
+  <si>
+    <t>API функций управления сетевыми протоколами доступа, верхний уровень ТЛВС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Библиотека типов примитивов и типов базовых операций над ними (классы), функции работы с примитивами (функции обработки всех возможных операций над графическими примитивами), Компоновщик мнемосхем (API функции генерации мнемосхем в режимы исполнения и редактирования), </t>
+  </si>
+  <si>
+    <r>
+      <t>5.1.</t>
     </r>
     <r>
       <rPr>
@@ -458,7 +861,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
@@ -470,18 +873,21 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Среда разработки графической части HMI.</t>
-    </r>
-  </si>
-  <si>
-    <t>Сентябрь</t>
-  </si>
-  <si>
-    <t>Перечень сокращений</t>
-  </si>
-  <si>
-    <r>
-      <t>DAQ (</t>
+      <t>Редактор графических примитивов, виртуальных блоков управления, мнемосхем.</t>
+    </r>
+  </si>
+  <si>
+    <t>Количество исполнителей (обобщение)</t>
+  </si>
+  <si>
+    <t>XML - шаблоны типовых мнемосхем (классы), управляющий объектный код (методы, функции, серилизация объектов, функции экспорта импорта, функции поддержки проектирования мнемосхем в редакторе)</t>
+  </si>
+  <si>
+    <t>Управляющий код над простейшими единицами формирования графических компонентов мнемосхем (классы, функции)</t>
+  </si>
+  <si>
+    <r>
+      <t>API (</t>
     </r>
     <r>
       <rPr>
@@ -502,182 +908,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Data Acquisition) — сбор данных.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DB (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>англ.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Data Base) — см. БД.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GUI (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>англ.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Graphical User Interface) — графический интерфейс пользователя.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>UI (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>англ.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> User Interface) — интерфейс пользователя.</t>
-    </r>
-  </si>
-  <si>
-    <t>БД — база данных.</t>
-  </si>
-  <si>
-    <t>ОС — операционная система.</t>
-  </si>
-  <si>
-    <t>ПЛК — программируемый логический контроллер.</t>
-  </si>
-  <si>
-    <t>ПО — программное обеспечение.</t>
-  </si>
-  <si>
-    <t>СО — объект сигнализации (литеры в аббревиатуре переставлены, видимо, чтобы не путать с сокращением ОС (см. выше)).</t>
-  </si>
-  <si>
-    <t>СВУ — среда визуализации и управления.</t>
-  </si>
-  <si>
-    <t>ФС — файловая система.</t>
-  </si>
-  <si>
-    <t>Основной компонент (скомпилированный исполняемый модуль *.exe, *.dll)</t>
-  </si>
-  <si>
-    <t>Связующий код (Logic - Control)</t>
-  </si>
-  <si>
-    <t>Фундаментальный код (Core - Model)</t>
-  </si>
-  <si>
-    <t>Файл БД (структурная схема объектов IDEF1x), управляющий код (тригеры, хранимые процедуры), API доступа (классы, функции), USER FORMS доступа</t>
-  </si>
-  <si>
-    <t>Соотношение типа кода по модели MVC - Model View Control</t>
-  </si>
-  <si>
-    <t>API управления данными (классы, функции)</t>
-  </si>
-  <si>
-    <t>3 программсита (2 программиста - 1 ведущий программист)</t>
-  </si>
-  <si>
-    <t>API управления данными (классы, функции), Основополагающий алгоритм исполнения системы, с учетом режима работы системы</t>
-  </si>
-  <si>
-    <t>Код формирования интерфейса (User forms, Programm interface - View)</t>
-  </si>
-  <si>
-    <t>XML - шаблоны проектов (классы), управляющий объектный код (методы, функции, серилизация объектов)</t>
-  </si>
-  <si>
-    <t>XML - шаблоны мнемосхем (классы), управляющий объектный код (методы, функции, серилизация объектов, функции экспорта импорта)</t>
-  </si>
-  <si>
-    <t>Библиотека типов событий (классы), элементы управления потоком событий (функции обработки очередей данных)</t>
-  </si>
-  <si>
-    <r>
-      <t>2.2.</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> Application Programming Interface) — интерфейс программирования приложений (модулей Квинт 8).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Модуль построения трендов</t>
-    </r>
-  </si>
-  <si>
-    <t>Элементы визуализации (USER FORMS), API функции управления (извлечение, обработка, визуализация оперативных данных из КЭША).</t>
-  </si>
-  <si>
-    <t>Основной компонент (скомпилированный исполняемый модуль)</t>
-  </si>
-  <si>
-    <t>Первая декомпозиция (единица работы, выход)</t>
-  </si>
-  <si>
-    <r>
-      <t>2.1.</t>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Подсистема архивирования. (около 150 функций)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
     </r>
     <r>
       <rPr>
@@ -688,7 +952,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">    </t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -700,15 +964,15 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Модуль интерфейсов пользователей.</t>
-    </r>
-  </si>
-  <si>
-    <t>Библиотека типов тегов (классы), функции работы с тегом (функции обработки всех возможных операций над тегом</t>
-  </si>
-  <si>
-    <r>
-      <t>3.1.</t>
+      <t>Подсистема обмена и взаимодействия</t>
+    </r>
+  </si>
+  <si>
+    <t>4 программиста (1 ведущий программист -3 программиста графического "движкка")</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
@@ -719,7 +983,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">    </t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -731,256 +995,378 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Конфигурирование тэгов.</t>
-    </r>
-  </si>
-  <si>
-    <t>Библиотека шаблонов типов фильтров (классы), API - функции генерации фильтров (все вохзможные операции над фильтрами)</t>
-  </si>
-  <si>
-    <r>
-      <t>3.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Редактор скриптов.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Библиотека вариантов использования системы (USE CASES), шаблоны типовых действий с реализацией делегирования прав доступа (классы, функции, XML - шаблоны) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">API функции управления, создания  сложных типов в режиме "надстройка" (функции), специализированный редактор собственных типов(USER FORMS), классы задач программирования (классы промежуточной програмной оболочки) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">API функции управления, создания программ управления сложных типов в режиме "надстройка" (функции), специализированный редактор скриптов (USER FORMS), классы задач программирования (классы промежуточной програмной оболочки) </t>
-  </si>
-  <si>
-    <t>3 программсита (2 ведущих программиста - 1 программист)</t>
-  </si>
-  <si>
-    <t>API функций расширения на каждый протокол обмена (функции получения - парсинга данных в ТЛВС), классы типов транзакций (перечень шаблонов типов данных в соотсвествии со спецификацией проткола), реализация сосбвенной системы взаимодействия (API серверной компоненты)</t>
-  </si>
-  <si>
-    <t>API функций расширения на каждый протокол обмена (функции получения - парсинга данных в ТЛВС), классы типов транзакций (перечень шаблонов типов данных в соотсвествии со спецификацией проткола), реализация сосбвенной системы взаимодействия (API клиентской компоненты)</t>
-  </si>
-  <si>
-    <r>
-      <t>4.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Система единого времени.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Модуль управления, распределения и параллельного доступа к разделяемой области оперативных данных.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Модуль резервирования сетевых соединений.</t>
-    </r>
-  </si>
-  <si>
-    <t>API функций синхронизации внутрисистемного единого времени (функции)</t>
-  </si>
-  <si>
-    <t>3 программиста (1 ведущий программист - 2 сетевых (низкоуровневых) программиста)</t>
-  </si>
-  <si>
-    <t>API  функций управления и идентификации потоков доступа, распределния нагрузки на аппаратные средства (функции, классы)</t>
-  </si>
-  <si>
-    <t>API функций управления сетевыми протоколами доступа, верхний уровень ТЛВС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Библиотека типов примитивов и типов базовых операций над ними (классы), функции работы с примитивами (функции обработки всех возможных операций над графическими примитивами), Компоновщик мнемосхем (API функции генерации мнемосхем в режимы исполнения и редактирования), </t>
-  </si>
-  <si>
-    <r>
-      <t>5.1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Редактор графических примитивов, виртуальных блоков управления, мнемосхем.</t>
-    </r>
-  </si>
-  <si>
-    <t>Количество исполнителей (обобщение)</t>
-  </si>
-  <si>
-    <t>XML - шаблоны типовых мнемосхем (классы), управляющий объектный код (методы, функции, серилизация объектов, функции экспорта импорта, функции поддержки проектирования мнемосхем в редакторе)</t>
-  </si>
-  <si>
-    <t>Управляющий код над простейшими единицами формирования графических компонентов мнемосхем (классы, функции)</t>
-  </si>
-  <si>
-    <r>
-      <t>API (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>англ.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Application Programming Interface) — интерфейс программирования приложений (модулей Квинт 8).</t>
-    </r>
-  </si>
-  <si>
-    <t>Наименование задачи (приблизительное кол-во уникальных функций)</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Подсистема архивирования. (около 150 функций)</t>
-    </r>
+      <t xml:space="preserve">Подсистема архивирования. </t>
+    </r>
+  </si>
+  <si>
+    <t>Наименование задачи (приблизительное кол-во уникальных программных объектов подсистемы)</t>
+  </si>
+  <si>
+    <t>Приблизительный перечень основных функций и объектов подсистемы</t>
+  </si>
+  <si>
+    <r>
+      <t>Функция возвращающая/устанавливающая в</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ерсию архивной сессии.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Функция возвращающая/устанавливающая  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>период архивирование сообщений из буфера (секунд).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Функция возвращающая/устанавливающая  п</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ериод сбора значений для активных архиваторов (миллисекунд).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Функция возвращающая/устанавливающая п</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>риоритет задачи сбора значений для активных архивных сессий + флаг резервирования.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Функция возвращающая/устанавливающая </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>текущее время в качестве метки времени получаемого значения.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Функция возвращающая/устанавливающая </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> период архивирования сообщений из буфера (секунд).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Функция возвращающая/устанавливающая </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>период сбора значений для активных архивных сессий (миллисекунд) + флаг резервирования.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Функция возвращающая/устанавливающая </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> приоритет поток/сесси сбора значений для текущего тега.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Функция возвращающая/устанавливающая </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> флагг начала планирования обновления/зеркализации текущего тега.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Функция инициирующая з</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>апуск сессии архива.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Функция инициирующая о</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>станов сессии архива.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Функция возвращающая/устанавливающая </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>список текущих значений в такт архивирования.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Функция инициализации п</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>роверки наличия в архиве указанного тега.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Функция д</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>обавления нового тега в процесс архивирования.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Функция у</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>даления тега из процесса архивирования.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Функця возвращающая/устанавливающая </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Подключение/обращение к процессу архивирования внешних клиентов/пользователей.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Функця возвращающая/устанавливающая положение </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>текущего элемента в потоке/очереди кэш - данных.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Функця возвращающая/устанавливающая процесс архивирования в состояние резервный</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Данный объект начинает процесс мониторинга состояния конца (факт архивации) текущего элемента в потоке/очереди кэш - данных.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Функця возвращающая/устанавливающая процесс архивирования в состояние основной</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Данный объект начинает обеспечиваться наивысшим приоритетом в потоке/очереди потоком кэш - данных.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Функця возвращающая/устанавливающая положение </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>конца очереди в потоке кэш - данных.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Функця возвращающая/устанавливающая</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  глобальное начало архива сообщений в целом или для указанного процесса ID архивирования.</t>
+    </r>
+  </si>
+  <si>
+    <t>Функця возвращающая/устанавливающая  глобальный конец архива сообщений в целом или для указанного процесса ID архивирования.</t>
+  </si>
+  <si>
+    <r>
+      <t>Функця возвращающая/устанавливающая сериализованный объект со</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> структурой текущей сессии БД.</t>
+    </r>
+  </si>
+  <si>
+    <t>Итого ориентировочно 23 функции</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1037,6 +1423,16 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1149,32 +1545,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1183,7 +1579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1195,14 +1591,71 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1213,59 +1666,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1573,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,63 +1990,63 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>87</v>
+      <c r="A1" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="C2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
@@ -1694,7 +2100,7 @@
         <v>3</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="8" t="s">
         <v>5</v>
@@ -1708,16 +2114,16 @@
     </row>
     <row r="3" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>61</v>
+        <v>86</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="20" t="s">
-        <v>53</v>
+      <c r="F3" s="39" t="s">
+        <v>52</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1749,7 +2155,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="15">
         <v>0.4</v>
@@ -1760,7 +2166,7 @@
       <c r="E4" s="14">
         <v>0.4</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1791,7 +2197,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="14">
         <v>0.4</v>
@@ -1802,7 +2208,7 @@
       <c r="E5" s="14">
         <v>0.4</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1833,7 +2239,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="14">
         <v>0.1</v>
@@ -1844,7 +2250,7 @@
       <c r="E6" s="14">
         <v>0.2</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1875,7 +2281,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="14">
         <v>0.1</v>
@@ -1886,7 +2292,7 @@
       <c r="E7" s="14">
         <v>0.2</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1913,22 +2319,22 @@
       <c r="AD7" s="2"/>
     </row>
     <row r="8" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="B8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="21">
         <v>0.7</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="21">
         <v>0.25</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="21">
         <v>0.05</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1958,8 +2364,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>58</v>
+      <c r="B9" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="C9" s="14">
         <v>0.7</v>
@@ -1970,7 +2376,7 @@
       <c r="E9" s="14">
         <v>0.2</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2000,13 +2406,13 @@
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>61</v>
+      <c r="B10" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="F10" s="28" t="s">
-        <v>53</v>
+      <c r="F10" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2034,22 +2440,22 @@
       <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="1:30" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="32">
+      <c r="A11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="25">
         <v>0.3</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="25">
         <v>0.3</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="25">
         <v>0.3</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2076,11 +2482,11 @@
       <c r="AD11" s="2"/>
     </row>
     <row r="12" spans="1:30" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="C12" s="14">
         <v>0.2</v>
@@ -2091,7 +2497,7 @@
       <c r="E12" s="14">
         <v>0.7</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2121,8 +2527,8 @@
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>60</v>
+      <c r="B13" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="C13" s="14">
         <v>0.2</v>
@@ -2133,7 +2539,7 @@
       <c r="E13" s="14">
         <v>0.7</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2161,11 +2567,11 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="29"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2196,18 +2602,18 @@
         <v>23</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="27">
+        <v>57</v>
+      </c>
+      <c r="C15" s="23">
         <v>0.1</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="23">
         <v>0.7</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="23">
         <v>0.2</v>
       </c>
-      <c r="F15" s="30"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2241,8 +2647,8 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="28" t="s">
-        <v>71</v>
+      <c r="F16" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2270,22 +2676,22 @@
       <c r="AD16" s="2"/>
     </row>
     <row r="17" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="32">
+      <c r="B17" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="25">
         <v>0.7</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="25">
         <v>0.05</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="25">
         <v>0.25</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2315,19 +2721,19 @@
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="33">
+      <c r="B18" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="26">
         <v>0.7</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="26">
         <v>0.05</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="26">
         <v>0.25</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2354,22 +2760,22 @@
       <c r="AD18" s="2"/>
     </row>
     <row r="19" spans="1:30" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="32">
+      <c r="A19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="25">
         <v>0.4</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="25">
         <v>0.2</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="25">
         <v>0.4</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2399,8 +2805,8 @@
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>68</v>
+      <c r="B20" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="C20" s="14">
         <v>0.3</v>
@@ -2411,7 +2817,7 @@
       <c r="E20" s="14">
         <v>0.2</v>
       </c>
-      <c r="F20" s="30"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2438,19 +2844,19 @@
       <c r="AD20" s="2"/>
     </row>
     <row r="21" spans="1:30" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="32">
+      <c r="B21" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="25">
         <v>0.4</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="25">
         <v>0.2</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="25">
         <v>0.4</v>
       </c>
       <c r="F21" s="12"/>
@@ -2479,17 +2885,17 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="F22" s="35" t="s">
-        <v>78</v>
+      <c r="F22" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -2518,10 +2924,10 @@
     </row>
     <row r="23" spans="1:30" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>72</v>
+        <v>28</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="C23" s="14">
         <v>0.4</v>
@@ -2560,10 +2966,10 @@
     </row>
     <row r="24" spans="1:30" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>73</v>
+        <v>29</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="C24" s="14">
         <v>0.4</v>
@@ -2601,11 +3007,11 @@
       <c r="AD24" s="2"/>
     </row>
     <row r="25" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>77</v>
+      <c r="A25" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="C25" s="14">
         <v>0.4</v>
@@ -2643,11 +3049,11 @@
       <c r="AD25" s="2"/>
     </row>
     <row r="26" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>79</v>
+      <c r="A26" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C26" s="14">
         <v>0.4</v>
@@ -2685,11 +3091,11 @@
       <c r="AD26" s="2"/>
     </row>
     <row r="27" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>80</v>
+      <c r="A27" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="C27" s="14">
         <v>0.4</v>
@@ -2726,17 +3132,19 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
     </row>
-    <row r="28" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="9"/>
+      <c r="F28" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2763,19 +3171,19 @@
       <c r="AD28" s="2"/>
     </row>
     <row r="29" spans="1:30" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="31" t="s">
+      <c r="A29" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="25">
+      <c r="B29" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="21">
         <v>0.3</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="21">
         <v>0.3</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="21">
         <v>0.4</v>
       </c>
       <c r="F29" s="12"/>
@@ -2806,10 +3214,10 @@
     </row>
     <row r="30" spans="1:30" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>84</v>
+        <v>30</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="C30" s="14">
         <v>0.2</v>
@@ -2847,11 +3255,11 @@
       <c r="AD30" s="2"/>
     </row>
     <row r="31" spans="1:30" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>85</v>
+      <c r="A31" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="C31" s="14">
         <v>0.2</v>
@@ -2908,7 +3316,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
@@ -2916,27 +3324,27 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -2950,37 +3358,37 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -3431,15 +3839,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:K26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3487,7 +4030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/SCADA_DOC/План_разработки_SCADA_Квинта8.xlsx
+++ b/SCADA_DOC/План_разработки_SCADA_Квинта8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="849"/>
   </bookViews>
   <sheets>
     <sheet name="Общий план разработки SCADA" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="4. Подсистема обмена" sheetId="5" r:id="rId5"/>
     <sheet name="5. Подсистема разработки граф. " sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
   <si>
     <t>2016 год</t>
   </si>
@@ -449,74 +449,220 @@
     <t>Сентябрь</t>
   </si>
   <si>
-    <t>Перечень сокращений</t>
-  </si>
-  <si>
-    <r>
-      <t>DAQ (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+    <t>Основной компонент (скомпилированный исполняемый модуль *.exe, *.dll)</t>
+  </si>
+  <si>
+    <t>Связующий код (Logic - Control)</t>
+  </si>
+  <si>
+    <t>Фундаментальный код (Core - Model)</t>
+  </si>
+  <si>
+    <t>Соотношение типа кода по модели MVC - Model View Control</t>
+  </si>
+  <si>
+    <t>API управления данными (классы, функции)</t>
+  </si>
+  <si>
+    <t>3 программсита (2 программиста - 1 ведущий программист)</t>
+  </si>
+  <si>
+    <t>API управления данными (классы, функции), Основополагающий алгоритм исполнения системы, с учетом режима работы системы</t>
+  </si>
+  <si>
+    <t>Код формирования интерфейса (User forms, Programm interface - View)</t>
+  </si>
+  <si>
+    <t>XML - шаблоны проектов (классы), управляющий объектный код (методы, функции, серилизация объектов)</t>
+  </si>
+  <si>
+    <t>XML - шаблоны мнемосхем (классы), управляющий объектный код (методы, функции, серилизация объектов, функции экспорта импорта)</t>
+  </si>
+  <si>
+    <t>Библиотека типов событий (классы), элементы управления потоком событий (функции обработки очередей данных)</t>
+  </si>
+  <si>
+    <r>
+      <t>2.2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>англ.</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Модуль построения трендов</t>
+    </r>
+  </si>
+  <si>
+    <t>Элементы визуализации (USER FORMS), API функции управления (извлечение, обработка, визуализация оперативных данных из КЭША).</t>
+  </si>
+  <si>
+    <t>Основной компонент (скомпилированный исполняемый модуль)</t>
+  </si>
+  <si>
+    <t>Первая декомпозиция (единица работы, выход)</t>
+  </si>
+  <si>
+    <r>
+      <t>2.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Data Acquisition) — сбор данных.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DB (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>Модуль интерфейсов пользователей.</t>
+    </r>
+  </si>
+  <si>
+    <t>Библиотека типов тегов (классы), функции работы с тегом (функции обработки всех возможных операций над тегом</t>
+  </si>
+  <si>
+    <r>
+      <t>3.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>англ.</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Конфигурирование тэгов.</t>
+    </r>
+  </si>
+  <si>
+    <t>Библиотека шаблонов типов фильтров (классы), API - функции генерации фильтров (все вохзможные операции над фильтрами)</t>
+  </si>
+  <si>
+    <r>
+      <t>3.3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Data Base) — см. БД.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GUI (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>Редактор скриптов.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Библиотека вариантов использования системы (USE CASES), шаблоны типовых действий с реализацией делегирования прав доступа (классы, функции, XML - шаблоны) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">API функции управления, создания  сложных типов в режиме "надстройка" (функции), специализированный редактор собственных типов(USER FORMS), классы задач программирования (классы промежуточной програмной оболочки) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">API функции управления, создания программ управления сложных типов в режиме "надстройка" (функции), специализированный редактор скриптов (USER FORMS), классы задач программирования (классы промежуточной програмной оболочки) </t>
+  </si>
+  <si>
+    <t>3 программсита (2 ведущих программиста - 1 программист)</t>
+  </si>
+  <si>
+    <t>API функций расширения на каждый протокол обмена (функции получения - парсинга данных в ТЛВС), классы типов транзакций (перечень шаблонов типов данных в соотсвествии со спецификацией проткола), реализация сосбвенной системы взаимодействия (API серверной компоненты)</t>
+  </si>
+  <si>
+    <t>API функций расширения на каждый протокол обмена (функции получения - парсинга данных в ТЛВС), классы типов транзакций (перечень шаблонов типов данных в соотсвествии со спецификацией проткола), реализация сосбвенной системы взаимодействия (API клиентской компоненты)</t>
+  </si>
+  <si>
+    <r>
+      <t>4.3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>англ.</t>
+      <t>Система единого времени.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
@@ -524,110 +670,108 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Graphical User Interface) — графический интерфейс пользователя.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>UI (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>Модуль управления, распределения и параллельного доступа к разделяемой области оперативных данных.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>англ.</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Модуль резервирования сетевых соединений.</t>
+    </r>
+  </si>
+  <si>
+    <t>API функций синхронизации внутрисистемного единого времени (функции)</t>
+  </si>
+  <si>
+    <t>3 программиста (1 ведущий программист - 2 сетевых (низкоуровневых) программиста)</t>
+  </si>
+  <si>
+    <t>API  функций управления и идентификации потоков доступа, распределния нагрузки на аппаратные средства (функции, классы)</t>
+  </si>
+  <si>
+    <t>API функций управления сетевыми протоколами доступа, верхний уровень ТЛВС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Библиотека типов примитивов и типов базовых операций над ними (классы), функции работы с примитивами (функции обработки всех возможных операций над графическими примитивами), Компоновщик мнемосхем (API функции генерации мнемосхем в режимы исполнения и редактирования), </t>
+  </si>
+  <si>
+    <r>
+      <t>5.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> User Interface) — интерфейс пользователя.</t>
-    </r>
-  </si>
-  <si>
-    <t>БД — база данных.</t>
-  </si>
-  <si>
-    <t>ОС — операционная система.</t>
-  </si>
-  <si>
-    <t>ПЛК — программируемый логический контроллер.</t>
-  </si>
-  <si>
-    <t>ПО — программное обеспечение.</t>
-  </si>
-  <si>
-    <t>СО — объект сигнализации (литеры в аббревиатуре переставлены, видимо, чтобы не путать с сокращением ОС (см. выше)).</t>
-  </si>
-  <si>
-    <t>СВУ — среда визуализации и управления.</t>
-  </si>
-  <si>
-    <t>ФС — файловая система.</t>
-  </si>
-  <si>
-    <t>Основной компонент (скомпилированный исполняемый модуль *.exe, *.dll)</t>
-  </si>
-  <si>
-    <t>Связующий код (Logic - Control)</t>
-  </si>
-  <si>
-    <t>Фундаментальный код (Core - Model)</t>
-  </si>
-  <si>
-    <t>Файл БД (структурная схема объектов IDEF1x), управляющий код (тригеры, хранимые процедуры), API доступа (классы, функции), USER FORMS доступа</t>
-  </si>
-  <si>
-    <t>Соотношение типа кода по модели MVC - Model View Control</t>
-  </si>
-  <si>
-    <t>API управления данными (классы, функции)</t>
-  </si>
-  <si>
-    <t>3 программсита (2 программиста - 1 ведущий программист)</t>
-  </si>
-  <si>
-    <t>API управления данными (классы, функции), Основополагающий алгоритм исполнения системы, с учетом режима работы системы</t>
-  </si>
-  <si>
-    <t>Код формирования интерфейса (User forms, Programm interface - View)</t>
-  </si>
-  <si>
-    <t>XML - шаблоны проектов (классы), управляющий объектный код (методы, функции, серилизация объектов)</t>
-  </si>
-  <si>
-    <t>XML - шаблоны мнемосхем (классы), управляющий объектный код (методы, функции, серилизация объектов, функции экспорта импорта)</t>
-  </si>
-  <si>
-    <t>Библиотека типов событий (классы), элементы управления потоком событий (функции обработки очередей данных)</t>
-  </si>
-  <si>
-    <r>
-      <t>2.2.</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Редактор графических примитивов, виртуальных блоков управления, мнемосхем.</t>
+    </r>
+  </si>
+  <si>
+    <t>Количество исполнителей (обобщение)</t>
+  </si>
+  <si>
+    <t>XML - шаблоны типовых мнемосхем (классы), управляющий объектный код (методы, функции, серилизация объектов, функции экспорта импорта, функции поддержки проектирования мнемосхем в редакторе)</t>
+  </si>
+  <si>
+    <t>Управляющий код над простейшими единицами формирования графических компонентов мнемосхем (классы, функции)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -635,21 +779,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Модуль построения трендов</t>
-    </r>
-  </si>
-  <si>
-    <t>Элементы визуализации (USER FORMS), API функции управления (извлечение, обработка, визуализация оперативных данных из КЭША).</t>
-  </si>
-  <si>
-    <t>Основной компонент (скомпилированный исполняемый модуль)</t>
-  </si>
-  <si>
-    <t>Первая декомпозиция (единица работы, выход)</t>
-  </si>
-  <si>
-    <r>
-      <t>2.1.</t>
+      <t>Подсистема архивирования. (около 150 функций)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
     </r>
     <r>
       <rPr>
@@ -660,7 +795,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">    </t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -672,15 +807,114 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Модуль интерфейсов пользователей.</t>
-    </r>
-  </si>
-  <si>
-    <t>Библиотека типов тегов (классы), функции работы с тегом (функции обработки всех возможных операций над тегом</t>
-  </si>
-  <si>
-    <r>
-      <t>3.1.</t>
+      <t>Подсистема обмена и взаимодействия</t>
+    </r>
+  </si>
+  <si>
+    <t>4 программиста (1 ведущий программист -3 программиста графического "движкка")</t>
+  </si>
+  <si>
+    <t>Наименование задачи (приблизительное кол-во уникальных программных объектов подсистемы)</t>
+  </si>
+  <si>
+    <t>Функця возвращающая/устанавливающая  глобальный конец архива сообщений в целом или для указанного процесса ID архивирования.</t>
+  </si>
+  <si>
+    <t>Файл БД (структурная схема объектов IDEF1x, DFD (Data Flow Diagram)), управляющий код (тригеры, хранимые процедуры), API доступа (классы, функции), USER FORMS доступа</t>
+  </si>
+  <si>
+    <t>SADT - спецификация (перечень функций)</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Класы объектов, над которыми проиводятся операции</t>
+  </si>
+  <si>
+    <t>Тег</t>
+  </si>
+  <si>
+    <t>Сообщение</t>
+  </si>
+  <si>
+    <t>Итого ориентировочно 3 объекта</t>
+  </si>
+  <si>
+    <t>Итого ориентировочно 23 базовые функции</t>
+  </si>
+  <si>
+    <t>Функция возвращающая/устанавливающая версию архивной сессии.</t>
+  </si>
+  <si>
+    <t>Функция возвращающая/устанавливающая  период архивирование сообщений из буфера (секунд).</t>
+  </si>
+  <si>
+    <t>Функция возвращающая/устанавливающая  период сбора значений для активных архиваторов (миллисекунд).</t>
+  </si>
+  <si>
+    <t>Функция возвращающая/устанавливающая приоритет задачи сбора значений для активных архивных сессий + флаг резервирования.</t>
+  </si>
+  <si>
+    <t>Функция возвращающая/устанавливающая текущее время в качестве метки времени получаемого значения.</t>
+  </si>
+  <si>
+    <t>Функция возвращающая/устанавливающая  период архивирования сообщений из буфера (секунд).</t>
+  </si>
+  <si>
+    <t>Функция возвращающая/устанавливающая период сбора значений для активных архивных сессий (миллисекунд) + флаг резервирования.</t>
+  </si>
+  <si>
+    <t>Функция возвращающая/устанавливающая  приоритет поток/сесси сбора значений для текущего тега.</t>
+  </si>
+  <si>
+    <t>Функция возвращающая/устанавливающая  флагг начала планирования обновления/зеркализации текущего тега.</t>
+  </si>
+  <si>
+    <t>Функция инициирующая запуск сессии архива.</t>
+  </si>
+  <si>
+    <t>Функция инициирующая останов сессии архива.</t>
+  </si>
+  <si>
+    <t>Функция возвращающая/устанавливающая список текущих значений в такт архивирования.</t>
+  </si>
+  <si>
+    <t>Функция инициализации проверки наличия в архиве указанного тега.</t>
+  </si>
+  <si>
+    <t>Функция добавления нового тега в процесс архивирования.</t>
+  </si>
+  <si>
+    <t>Функция удаления тега из процесса архивирования.</t>
+  </si>
+  <si>
+    <t>Функця возвращающая/устанавливающая Подключение/обращение к процессу архивирования внешних клиентов/пользователей.</t>
+  </si>
+  <si>
+    <t>Функця возвращающая/устанавливающая процесс архивирования в состояние основной. Данный объект начинает обеспечиваться наивысшим приоритетом в потоке/очереди потоком кэш - данных.</t>
+  </si>
+  <si>
+    <t>Функця возвращающая/устанавливающая процесс архивирования в состояние резервный. Данный объект начинает процесс мониторинга состояния конца (факт архивации) текущего элемента в потоке/очереди кэш - данных.</t>
+  </si>
+  <si>
+    <t>Функця возвращающая/устанавливающая положение текущего элемента в потоке/очереди кэш - данных.</t>
+  </si>
+  <si>
+    <t>Функця возвращающая/устанавливающая положение конца очереди в потоке кэш - данных.</t>
+  </si>
+  <si>
+    <t>Функця возвращающая/устанавливающая  глобальное начало архива сообщений в целом или для указанного процесса ID архивирования.</t>
+  </si>
+  <si>
+    <t>Функця возвращающая/устанавливающая сериализованный объект со структурой текущей сессии БД.</t>
+  </si>
+  <si>
+    <t>Буфер(очередь)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
@@ -691,7 +925,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">    </t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -703,642 +937,26 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Конфигурирование тэгов.</t>
-    </r>
-  </si>
-  <si>
-    <t>Библиотека шаблонов типов фильтров (классы), API - функции генерации фильтров (все вохзможные операции над фильтрами)</t>
-  </si>
-  <si>
-    <r>
-      <t>3.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Редактор скриптов.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Библиотека вариантов использования системы (USE CASES), шаблоны типовых действий с реализацией делегирования прав доступа (классы, функции, XML - шаблоны) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">API функции управления, создания  сложных типов в режиме "надстройка" (функции), специализированный редактор собственных типов(USER FORMS), классы задач программирования (классы промежуточной програмной оболочки) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">API функции управления, создания программ управления сложных типов в режиме "надстройка" (функции), специализированный редактор скриптов (USER FORMS), классы задач программирования (классы промежуточной програмной оболочки) </t>
-  </si>
-  <si>
-    <t>3 программсита (2 ведущих программиста - 1 программист)</t>
-  </si>
-  <si>
-    <t>API функций расширения на каждый протокол обмена (функции получения - парсинга данных в ТЛВС), классы типов транзакций (перечень шаблонов типов данных в соотсвествии со спецификацией проткола), реализация сосбвенной системы взаимодействия (API серверной компоненты)</t>
-  </si>
-  <si>
-    <t>API функций расширения на каждый протокол обмена (функции получения - парсинга данных в ТЛВС), классы типов транзакций (перечень шаблонов типов данных в соотсвествии со спецификацией проткола), реализация сосбвенной системы взаимодействия (API клиентской компоненты)</t>
-  </si>
-  <si>
-    <r>
-      <t>4.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Система единого времени.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Модуль управления, распределения и параллельного доступа к разделяемой области оперативных данных.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Модуль резервирования сетевых соединений.</t>
-    </r>
-  </si>
-  <si>
-    <t>API функций синхронизации внутрисистемного единого времени (функции)</t>
-  </si>
-  <si>
-    <t>3 программиста (1 ведущий программист - 2 сетевых (низкоуровневых) программиста)</t>
-  </si>
-  <si>
-    <t>API  функций управления и идентификации потоков доступа, распределния нагрузки на аппаратные средства (функции, классы)</t>
-  </si>
-  <si>
-    <t>API функций управления сетевыми протоколами доступа, верхний уровень ТЛВС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Библиотека типов примитивов и типов базовых операций над ними (классы), функции работы с примитивами (функции обработки всех возможных операций над графическими примитивами), Компоновщик мнемосхем (API функции генерации мнемосхем в режимы исполнения и редактирования), </t>
-  </si>
-  <si>
-    <r>
-      <t>5.1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Редактор графических примитивов, виртуальных блоков управления, мнемосхем.</t>
-    </r>
-  </si>
-  <si>
-    <t>Количество исполнителей (обобщение)</t>
-  </si>
-  <si>
-    <t>XML - шаблоны типовых мнемосхем (классы), управляющий объектный код (методы, функции, серилизация объектов, функции экспорта импорта, функции поддержки проектирования мнемосхем в редакторе)</t>
-  </si>
-  <si>
-    <t>Управляющий код над простейшими единицами формирования графических компонентов мнемосхем (классы, функции)</t>
-  </si>
-  <si>
-    <r>
-      <t>API (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>англ.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Application Programming Interface) — интерфейс программирования приложений (модулей Квинт 8).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Подсистема архивирования. (около 150 функций)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Подсистема обмена и взаимодействия</t>
-    </r>
-  </si>
-  <si>
-    <t>4 программиста (1 ведущий программист -3 программиста графического "движкка")</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Подсистема архивирования. </t>
-    </r>
-  </si>
-  <si>
-    <t>Наименование задачи (приблизительное кол-во уникальных программных объектов подсистемы)</t>
-  </si>
-  <si>
-    <t>Приблизительный перечень основных функций и объектов подсистемы</t>
-  </si>
-  <si>
-    <r>
-      <t>Функция возвращающая/устанавливающая в</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ерсию архивной сессии.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Функция возвращающая/устанавливающая  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>период архивирование сообщений из буфера (секунд).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Функция возвращающая/устанавливающая  п</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ериод сбора значений для активных архиваторов (миллисекунд).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Функция возвращающая/устанавливающая п</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>риоритет задачи сбора значений для активных архивных сессий + флаг резервирования.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Функция возвращающая/устанавливающая </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>текущее время в качестве метки времени получаемого значения.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Функция возвращающая/устанавливающая </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> период архивирования сообщений из буфера (секунд).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Функция возвращающая/устанавливающая </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>период сбора значений для активных архивных сессий (миллисекунд) + флаг резервирования.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Функция возвращающая/устанавливающая </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> приоритет поток/сесси сбора значений для текущего тега.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Функция возвращающая/устанавливающая </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> флагг начала планирования обновления/зеркализации текущего тега.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Функция инициирующая з</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>апуск сессии архива.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Функция инициирующая о</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>станов сессии архива.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Функция возвращающая/устанавливающая </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>список текущих значений в такт архивирования.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Функция инициализации п</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>роверки наличия в архиве указанного тега.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Функция д</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>обавления нового тега в процесс архивирования.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Функция у</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>даления тега из процесса архивирования.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Функця возвращающая/устанавливающая </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Подключение/обращение к процессу архивирования внешних клиентов/пользователей.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Функця возвращающая/устанавливающая положение </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>текущего элемента в потоке/очереди кэш - данных.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Функця возвращающая/устанавливающая процесс архивирования в состояние резервный</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Данный объект начинает процесс мониторинга состояния конца (факт архивации) текущего элемента в потоке/очереди кэш - данных.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Функця возвращающая/устанавливающая процесс архивирования в состояние основной</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Данный объект начинает обеспечиваться наивысшим приоритетом в потоке/очереди потоком кэш - данных.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Функця возвращающая/устанавливающая положение </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>конца очереди в потоке кэш - данных.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Функця возвращающая/устанавливающая</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  глобальное начало архива сообщений в целом или для указанного процесса ID архивирования.</t>
-    </r>
-  </si>
-  <si>
-    <t>Функця возвращающая/устанавливающая  глобальный конец архива сообщений в целом или для указанного процесса ID архивирования.</t>
-  </si>
-  <si>
-    <r>
-      <t>Функця возвращающая/устанавливающая сериализованный объект со</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> структурой текущей сессии БД.</t>
-    </r>
-  </si>
-  <si>
-    <t>Итого ориентировочно 23 функции</t>
+      <t>Подсистема архивирования. (Базовый состав+ предполагаемые зависимости)*</t>
+    </r>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Степень зависимости (возможное количество дополнительных функций)</t>
+  </si>
+  <si>
+    <t>Приблизительный перечень (сформированный опытным путём) основных функций и объектов подсистемы с вариантами реинжиниринга вследствии уточнения требований</t>
+  </si>
+  <si>
+    <t>Каждая функция является абстрактной единицей, при данном приближении в зависимости от степени и "глубины" внутрипрограммной  зависимости исходного объекта может содержать до 50  (по принципу удобочитаемости кода)потомков при конкретной реализации требуемого функционала (По принципу "Данные определяют характер и количество операций). Устанавливается опытным путем, уточняется на каждой итерации (период 3 -4 недели.)</t>
+  </si>
+  <si>
+    <t>Соотношение типа кода по модели MVC - Model View Control*</t>
+  </si>
+  <si>
+    <t>* Используется для определения приоритетности задачи по принципу паттерна проектирования "ФАСАД" и MVC. В данном случае внимание на первоначальных этапах разработки уделяется базовому (фундаментальному) функционалу, затем связующему коду и в конце - проектированию интерфейса. Однако последовательность и приоритетность этапов обусловлена прцентным соотношениям. Главным преимуществом данного подхода является гарантия построения ядра системы, его тестированиеи как следствие - меньшее количество "переделок" кода .</t>
   </si>
 </sst>
 </file>
@@ -1402,14 +1020,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="7"/>
       <color theme="1"/>
@@ -1435,13 +1045,34 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -1545,7 +1176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1612,20 +1243,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1633,8 +1261,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1666,12 +1294,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1979,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD198"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,63 +1653,63 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
     </row>
     <row r="2" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
@@ -2114,16 +1777,16 @@
     </row>
     <row r="3" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="39" t="s">
-        <v>52</v>
+      <c r="F3" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2155,7 +1818,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C4" s="15">
         <v>0.4</v>
@@ -2166,7 +1829,7 @@
       <c r="E4" s="14">
         <v>0.4</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2192,12 +1855,12 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>49</v>
+      <c r="B5" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="14">
         <v>0.4</v>
@@ -2208,7 +1871,7 @@
       <c r="E5" s="14">
         <v>0.4</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2239,7 +1902,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C6" s="14">
         <v>0.1</v>
@@ -2250,7 +1913,7 @@
       <c r="E6" s="14">
         <v>0.2</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2281,7 +1944,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C7" s="14">
         <v>0.1</v>
@@ -2292,7 +1955,7 @@
       <c r="E7" s="14">
         <v>0.2</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2323,7 +1986,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C8" s="21">
         <v>0.7</v>
@@ -2334,7 +1997,7 @@
       <c r="E8" s="21">
         <v>0.05</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2365,7 +2028,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C9" s="14">
         <v>0.7</v>
@@ -2376,7 +2039,7 @@
       <c r="E9" s="14">
         <v>0.2</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2407,12 +2070,12 @@
         <v>21</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="F10" s="32" t="s">
-        <v>52</v>
+      <c r="F10" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2441,10 +2104,10 @@
     </row>
     <row r="11" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C11" s="25">
         <v>0.3</v>
@@ -2455,7 +2118,7 @@
       <c r="E11" s="25">
         <v>0.3</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2483,10 +2146,10 @@
     </row>
     <row r="12" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C12" s="14">
         <v>0.2</v>
@@ -2497,7 +2160,7 @@
       <c r="E12" s="14">
         <v>0.7</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2528,7 +2191,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C13" s="14">
         <v>0.2</v>
@@ -2539,7 +2202,7 @@
       <c r="E13" s="14">
         <v>0.7</v>
       </c>
-      <c r="F13" s="33"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2571,7 +2234,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="33"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2602,7 +2265,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C15" s="23">
         <v>0.1</v>
@@ -2613,7 +2276,7 @@
       <c r="E15" s="23">
         <v>0.2</v>
       </c>
-      <c r="F15" s="34"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2639,7 +2302,7 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
@@ -2647,8 +2310,8 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="32" t="s">
-        <v>70</v>
+      <c r="F16" s="51" t="s">
+        <v>57</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2677,10 +2340,10 @@
     </row>
     <row r="17" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C17" s="25">
         <v>0.7</v>
@@ -2691,7 +2354,7 @@
       <c r="E17" s="25">
         <v>0.25</v>
       </c>
-      <c r="F17" s="33"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2722,7 +2385,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C18" s="26">
         <v>0.7</v>
@@ -2733,7 +2396,7 @@
       <c r="E18" s="26">
         <v>0.25</v>
       </c>
-      <c r="F18" s="33"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2761,10 +2424,10 @@
     </row>
     <row r="19" spans="1:30" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C19" s="25">
         <v>0.4</v>
@@ -2775,7 +2438,7 @@
       <c r="E19" s="25">
         <v>0.4</v>
       </c>
-      <c r="F19" s="33"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2806,7 +2469,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C20" s="14">
         <v>0.3</v>
@@ -2817,7 +2480,7 @@
       <c r="E20" s="14">
         <v>0.2</v>
       </c>
-      <c r="F20" s="34"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2848,7 +2511,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C21" s="25">
         <v>0.4</v>
@@ -2859,7 +2522,7 @@
       <c r="E21" s="25">
         <v>0.4</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2885,17 +2548,17 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="F22" s="31" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -2927,7 +2590,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C23" s="14">
         <v>0.4</v>
@@ -2938,7 +2601,7 @@
       <c r="E23" s="14">
         <v>0.2</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2969,7 +2632,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C24" s="14">
         <v>0.4</v>
@@ -2980,7 +2643,7 @@
       <c r="E24" s="14">
         <v>0.2</v>
       </c>
-      <c r="F24" s="12"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -3008,10 +2671,10 @@
     </row>
     <row r="25" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="C25" s="14">
         <v>0.4</v>
@@ -3022,7 +2685,7 @@
       <c r="E25" s="14">
         <v>0.2</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -3050,10 +2713,10 @@
     </row>
     <row r="26" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C26" s="14">
         <v>0.4</v>
@@ -3064,7 +2727,7 @@
       <c r="E26" s="14">
         <v>0.2</v>
       </c>
-      <c r="F26" s="12"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -3092,10 +2755,10 @@
     </row>
     <row r="27" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C27" s="14">
         <v>0.4</v>
@@ -3106,7 +2769,7 @@
       <c r="E27" s="14">
         <v>0.2</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="33"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -3132,22 +2795,21 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
     </row>
-    <row r="28" spans="1:30" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="28" t="s">
-        <v>77</v>
+      <c r="F28" s="53" t="s">
+        <v>74</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -3172,10 +2834,10 @@
     </row>
     <row r="29" spans="1:30" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C29" s="21">
         <v>0.3</v>
@@ -3186,7 +2848,7 @@
       <c r="E29" s="21">
         <v>0.4</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="54"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -3217,7 +2879,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C30" s="14">
         <v>0.2</v>
@@ -3228,7 +2890,7 @@
       <c r="E30" s="14">
         <v>0.4</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3259,7 +2921,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C31" s="14">
         <v>0.2</v>
@@ -3270,7 +2932,7 @@
       <c r="E31" s="14">
         <v>0.2</v>
       </c>
-      <c r="F31" s="12"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -3302,8 +2964,10 @@
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:1" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -3315,37 +2979,25 @@
       <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="A40" s="11"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="A41" s="11"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>37</v>
-      </c>
+      <c r="A43" s="11"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="A44" s="11"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
@@ -3357,39 +3009,25 @@
       <c r="A47" s="11"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="A48" s="11"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="A49" s="11"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="A50" s="11"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="A51" s="11"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="A52" s="11"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="A53" s="11"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="A54" s="11"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
@@ -3824,8 +3462,10 @@
       <c r="A198" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F16:F20"/>
+  <mergeCells count="8">
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="F16:F21"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:R1"/>
     <mergeCell ref="S1:AD1"/>
@@ -3839,148 +3479,403 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="44" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="44" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="44" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="44" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="44" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="44" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="44" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="44" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="44" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="44" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="44" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="44" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="44" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="47">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="C33" s="47">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="47">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="B40" s="46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SCADA_DOC/План_разработки_SCADA_Квинта8.xlsx
+++ b/SCADA_DOC/План_разработки_SCADA_Квинта8.xlsx
@@ -19,52 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
-  <si>
-    <t>2016 год</t>
-  </si>
-  <si>
-    <t>2017 год</t>
-  </si>
-  <si>
-    <t>Июнь</t>
-  </si>
-  <si>
-    <t>Август</t>
-  </si>
-  <si>
-    <t>Сентабрь</t>
-  </si>
-  <si>
-    <t>Октябрь</t>
-  </si>
-  <si>
-    <t>Ноябрь</t>
-  </si>
-  <si>
-    <t>Декабрь</t>
-  </si>
-  <si>
-    <t>Январь</t>
-  </si>
-  <si>
-    <t>Февраль</t>
-  </si>
-  <si>
-    <t>Март</t>
-  </si>
-  <si>
-    <t>Апрель</t>
-  </si>
-  <si>
-    <t>Май</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Июль </t>
-  </si>
-  <si>
-    <t>Июль</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <r>
       <t>1.1.</t>
@@ -119,32 +74,6 @@
   </si>
   <si>
     <t>1.3. Модуль сохранения/загрузки тэгов.</t>
-  </si>
-  <si>
-    <r>
-      <t>1.4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Модуль сохранения/загрузки проектов.</t>
-    </r>
   </si>
   <si>
     <t>1.5. КЭШ-архив (контейнер для оперативного краткосрочного хранения данных без ресурсоемких операций извлечения из БД).</t>
@@ -446,9 +375,6 @@
     </r>
   </si>
   <si>
-    <t>Сентябрь</t>
-  </si>
-  <si>
     <t>Основной компонент (скомпилированный исполняемый модуль *.exe, *.dll)</t>
   </si>
   <si>
@@ -957,6 +883,34 @@
   </si>
   <si>
     <t>* Используется для определения приоритетности задачи по принципу паттерна проектирования "ФАСАД" и MVC. В данном случае внимание на первоначальных этапах разработки уделяется базовому (фундаментальному) функционалу, затем связующему коду и в конце - проектированию интерфейса. Однако последовательность и приоритетность этапов обусловлена прцентным соотношениям. Главным преимуществом данного подхода является гарантия построения ядра системы, его тестированиеи как следствие - меньшее количество "переделок" кода .</t>
+  </si>
+  <si>
+    <t>0. Тестирование результатов работы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Тестировщик </t>
+  </si>
+  <si>
+    <t>Недели п/п</t>
+  </si>
+  <si>
+    <t>1 год</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Модуль сохранения/загрузки проектов.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1055,7 +1009,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,8 +1028,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1172,11 +1132,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1225,9 +1214,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1260,52 +1246,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1318,23 +1265,98 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1640,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD198"/>
+  <dimension ref="A1:BF200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I6" sqref="I6:AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,557 +1674,941 @@
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="28" customWidth="1"/>
+    <col min="7" max="58" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:58" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+    </row>
+    <row r="2" spans="1:58" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="47"/>
+      <c r="BB2" s="47"/>
+      <c r="BC2" s="47"/>
+      <c r="BD2" s="47"/>
+      <c r="BE2" s="47"/>
+      <c r="BF2" s="48"/>
+    </row>
+    <row r="3" spans="1:58" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="65"/>
+      <c r="AX3" s="65"/>
+      <c r="AY3" s="65"/>
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="65"/>
+      <c r="BB3" s="65"/>
+      <c r="BC3" s="65"/>
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="65"/>
+      <c r="BF3" s="65"/>
+    </row>
+    <row r="4" spans="1:58" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7">
+        <v>4</v>
+      </c>
+      <c r="K4" s="7">
+        <v>5</v>
+      </c>
+      <c r="L4" s="7">
+        <v>6</v>
+      </c>
+      <c r="M4" s="7">
+        <v>7</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8</v>
+      </c>
+      <c r="O4" s="7">
+        <v>9</v>
+      </c>
+      <c r="P4" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>11</v>
+      </c>
+      <c r="R4" s="7">
+        <v>12</v>
+      </c>
+      <c r="S4" s="7">
+        <v>13</v>
+      </c>
+      <c r="T4" s="7">
+        <v>14</v>
+      </c>
+      <c r="U4" s="7">
+        <v>15</v>
+      </c>
+      <c r="V4" s="7">
+        <v>16</v>
+      </c>
+      <c r="W4" s="7">
+        <v>17</v>
+      </c>
+      <c r="X4" s="7">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>22</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>23</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>24</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>25</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>26</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>27</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>28</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>29</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>30</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>31</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>32</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>33</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>34</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>35</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>36</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>37</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>38</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>39</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>40</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>41</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>42</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>43</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>44</v>
+      </c>
+      <c r="AY4" s="7">
+        <v>45</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>46</v>
+      </c>
+      <c r="BA4" s="7">
+        <v>47</v>
+      </c>
+      <c r="BB4" s="7">
         <v>48</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-    </row>
-    <row r="2" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-    </row>
-    <row r="5" spans="1:30" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="39"/>
+      <c r="BC4" s="7">
+        <v>49</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>50</v>
+      </c>
+      <c r="BE4" s="7">
+        <v>51</v>
+      </c>
+      <c r="BF4" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="56">
+        <v>0.34</v>
+      </c>
+      <c r="D5" s="57">
+        <v>0.33</v>
+      </c>
+      <c r="E5" s="57">
+        <v>0.33</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="67"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="67"/>
+      <c r="AS5" s="67"/>
+      <c r="AT5" s="67"/>
+      <c r="AU5" s="67"/>
+      <c r="AV5" s="67"/>
+      <c r="AW5" s="67"/>
+      <c r="AX5" s="67"/>
+      <c r="AY5" s="67"/>
+      <c r="AZ5" s="67"/>
+      <c r="BA5" s="67"/>
+      <c r="BB5" s="67"/>
+      <c r="BC5" s="67"/>
+      <c r="BD5" s="67"/>
+      <c r="BE5" s="67"/>
+      <c r="BF5" s="67"/>
+    </row>
+    <row r="6" spans="1:58" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="59" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+    </row>
+    <row r="7" spans="1:58" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.2</v>
       </c>
       <c r="E7" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="39"/>
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="60"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-    </row>
-    <row r="8" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0.7</v>
-      </c>
-      <c r="D8" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="F8" s="39"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+    </row>
+    <row r="8" spans="1:58" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="60"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-    </row>
-    <row r="9" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>44</v>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="14">
         <v>0.7</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0.1</v>
       </c>
       <c r="E9" s="14">
         <v>0.2</v>
       </c>
-      <c r="F9" s="40"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-    </row>
-    <row r="10" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="31" t="s">
-        <v>39</v>
-      </c>
+      <c r="C10" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="60"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-    </row>
-    <row r="11" spans="1:30" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="E11" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="F11" s="32"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+    </row>
+    <row r="11" spans="1:58" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="60"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-    </row>
-    <row r="12" spans="1:30" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>46</v>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+    </row>
+    <row r="12" spans="1:58" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="14">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="D12" s="14">
         <v>0.1</v>
       </c>
       <c r="E12" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="F12" s="32"/>
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="61"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-    </row>
-    <row r="13" spans="1:30" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+    </row>
+    <row r="13" spans="1:58" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="F13" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="F13" s="32"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2227,14 +2633,52 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="32"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+    </row>
+    <row r="14" spans="1:58" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="60"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2259,24 +2703,52 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-    </row>
-    <row r="15" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+    </row>
+    <row r="15" spans="1:58" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="14">
         <v>0.1</v>
       </c>
-      <c r="D15" s="23">
+      <c r="E15" s="14">
         <v>0.7</v>
       </c>
-      <c r="E15" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="F15" s="33"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2301,18 +2773,52 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-    </row>
-    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="51" t="s">
-        <v>57</v>
-      </c>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+    </row>
+    <row r="16" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="60"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2337,24 +2843,52 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
-    </row>
-    <row r="17" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="25">
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+    </row>
+    <row r="17" spans="1:58" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="22">
         <v>0.7</v>
       </c>
-      <c r="D17" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0.25</v>
-      </c>
-      <c r="F17" s="52"/>
+      <c r="E17" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="61"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2379,24 +2913,46 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
-    </row>
-    <row r="18" spans="1:30" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="D18" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="E18" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="F18" s="52"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+    </row>
+    <row r="18" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="59" t="s">
+        <v>40</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2421,24 +2977,52 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
-    </row>
-    <row r="19" spans="1:30" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="D19" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="E19" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="F19" s="52"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+    </row>
+    <row r="19" spans="1:58" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="F19" s="60"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2463,24 +3047,52 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
-    </row>
-    <row r="20" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+    </row>
+    <row r="20" spans="1:58" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="D20" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="52"/>
+        <v>9</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="F20" s="60"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2505,24 +3117,52 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-    </row>
-    <row r="21" spans="1:30" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="25">
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+    </row>
+    <row r="21" spans="1:58" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="24">
         <v>0.4</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <v>0.2</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="24">
         <v>0.4</v>
       </c>
-      <c r="F21" s="56"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2547,19 +3187,52 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
-    </row>
-    <row r="22" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="F22" s="31" t="s">
-        <v>64</v>
-      </c>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+    </row>
+    <row r="22" spans="1:58" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="60"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -2584,24 +3257,52 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
-    </row>
-    <row r="23" spans="1:30" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+    </row>
+    <row r="23" spans="1:58" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="24">
         <v>0.4</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="24">
         <v>0.4</v>
       </c>
-      <c r="E23" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="F23" s="32"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2626,24 +3327,48 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
-    </row>
-    <row r="24" spans="1:30" ht="120" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="E24" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="F24" s="32"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+    </row>
+    <row r="24" spans="1:58" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="59" t="s">
+        <v>47</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2668,13 +3393,41 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
-    </row>
-    <row r="25" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>63</v>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+    </row>
+    <row r="25" spans="1:58" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="C25" s="14">
         <v>0.4</v>
@@ -2685,7 +3438,7 @@
       <c r="E25" s="14">
         <v>0.2</v>
       </c>
-      <c r="F25" s="32"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2710,13 +3463,41 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
-    </row>
-    <row r="26" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>65</v>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+    </row>
+    <row r="26" spans="1:58" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="C26" s="14">
         <v>0.4</v>
@@ -2727,7 +3508,7 @@
       <c r="E26" s="14">
         <v>0.2</v>
       </c>
-      <c r="F26" s="32"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2752,13 +3533,41 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
-    </row>
-    <row r="27" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>66</v>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+    </row>
+    <row r="27" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="C27" s="14">
         <v>0.4</v>
@@ -2769,7 +3578,7 @@
       <c r="E27" s="14">
         <v>0.2</v>
       </c>
-      <c r="F27" s="33"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2794,22 +3603,55 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
-    </row>
-    <row r="28" spans="1:30" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="53" t="s">
-        <v>74</v>
-      </c>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+    </row>
+    <row r="28" spans="1:58" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="F28" s="60"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2831,24 +3673,52 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
-    </row>
-    <row r="29" spans="1:30" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="D29" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="E29" s="21">
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+    </row>
+    <row r="29" spans="1:58" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="14">
         <v>0.4</v>
       </c>
-      <c r="F29" s="54"/>
+      <c r="D29" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="61"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2873,24 +3743,48 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
-    </row>
-    <row r="30" spans="1:30" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D30" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="F30" s="54"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+    </row>
+    <row r="30" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="59" t="s">
+        <v>57</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2915,24 +3809,52 @@
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
-    </row>
-    <row r="31" spans="1:30" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D31" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="E31" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="F31" s="55"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+    </row>
+    <row r="31" spans="1:58" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="F31" s="60"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2957,58 +3879,220 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2"/>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="2"/>
+      <c r="BD31" s="2"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="2"/>
+    </row>
+    <row r="32" spans="1:58" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="2"/>
+      <c r="BA32" s="2"/>
+      <c r="BB32" s="2"/>
+      <c r="BC32" s="2"/>
+      <c r="BD32" s="2"/>
+      <c r="BE32" s="2"/>
+      <c r="BF32" s="2"/>
+    </row>
+    <row r="33" spans="1:58" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="F33" s="61"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+    </row>
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:58" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -3030,10 +4114,10 @@
       <c r="A54" s="11"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="11"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="11"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
@@ -3461,16 +4545,25 @@
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
     </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="F16:F21"/>
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G3:BF3"/>
+    <mergeCell ref="G1:BF1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G2:BF2"/>
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3481,8 +4574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3494,44 +4587,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="A1" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
+        <v>91</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3545,21 +4638,21 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="47"/>
+      <c r="B5" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="33"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="49"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="49"/>
+      <c r="B6" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="35"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
@@ -3567,10 +4660,10 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="49"/>
+      <c r="B7" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="35"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
@@ -3578,10 +4671,10 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="49"/>
+      <c r="B8" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="35"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
@@ -3589,19 +4682,19 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>89</v>
+      <c r="B9" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="49"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="44" t="s">
-        <v>90</v>
+      <c r="B10" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -3611,8 +4704,8 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>91</v>
+      <c r="B11" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3622,8 +4715,8 @@
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>92</v>
+      <c r="B12" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3633,8 +4726,8 @@
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>93</v>
+      <c r="B13" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3644,8 +4737,8 @@
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>94</v>
+      <c r="B14" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3655,8 +4748,8 @@
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>95</v>
+      <c r="B15" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3666,8 +4759,8 @@
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>96</v>
+      <c r="B16" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3677,8 +4770,8 @@
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>97</v>
+      <c r="B17" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3688,8 +4781,8 @@
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>98</v>
+      <c r="B18" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3699,8 +4792,8 @@
       <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>99</v>
+      <c r="B19" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3710,8 +4803,8 @@
       <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>100</v>
+      <c r="B20" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3721,8 +4814,8 @@
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="44" t="s">
-        <v>101</v>
+      <c r="B21" s="31" t="s">
+        <v>84</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3732,8 +4825,8 @@
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="44" t="s">
-        <v>102</v>
+      <c r="B22" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3743,8 +4836,8 @@
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="44" t="s">
-        <v>103</v>
+      <c r="B23" s="31" t="s">
+        <v>86</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3754,8 +4847,8 @@
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="44" t="s">
-        <v>104</v>
+      <c r="B24" s="31" t="s">
+        <v>87</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3765,8 +4858,8 @@
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="44" t="s">
-        <v>105</v>
+      <c r="B25" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3776,8 +4869,8 @@
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="44" t="s">
-        <v>76</v>
+      <c r="B26" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3787,44 +4880,44 @@
       <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="44" t="s">
-        <v>106</v>
+      <c r="B27" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="43" t="s">
-        <v>84</v>
+      <c r="B29" s="30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
+      <c r="A31" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="47">
+        <v>64</v>
+      </c>
+      <c r="C32" s="33">
         <v>50</v>
       </c>
       <c r="D32" s="2"/>
@@ -3835,9 +4928,9 @@
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="47">
+        <v>90</v>
+      </c>
+      <c r="C33" s="33">
         <v>50</v>
       </c>
       <c r="D33" s="2"/>
@@ -3848,26 +4941,26 @@
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="47">
+      <c r="D34" s="33">
         <v>30</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="43" t="s">
-        <v>83</v>
+      <c r="B36" s="30" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>112</v>
+      <c r="A40" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/SCADA_DOC/План_разработки_SCADA_Квинта8.xlsx
+++ b/SCADA_DOC/План_разработки_SCADA_Квинта8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="849"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="772"/>
   </bookViews>
   <sheets>
     <sheet name="Общий план разработки SCADA" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
   <si>
     <r>
       <t>1.1.</t>
@@ -980,12 +980,55 @@
   <si>
     <t>4 программсита (3 программиста - 1 ведущий программист) Группа2.</t>
   </si>
+  <si>
+    <t>Разработка рабочей документации</t>
+  </si>
+  <si>
+    <t>Внедрение и опытная эксплуатация</t>
+  </si>
+  <si>
+    <t>Руководства и описание работы модулей системы</t>
+  </si>
+  <si>
+    <t>Доработки всех программных модулей в процессе эксплуатации</t>
+  </si>
+  <si>
+    <t>Номер п/п</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Подсистема архивирования. (Базовый состав+ предполагаемые зависимости)*</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,8 +1168,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1187,8 +1236,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1395,43 +1462,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1446,7 +1476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1494,117 +1524,17 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1619,55 +1549,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1680,9 +1582,6 @@
     <xf numFmtId="9" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1695,9 +1594,6 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1710,9 +1606,6 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1731,9 +1624,6 @@
     <xf numFmtId="9" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1756,9 +1646,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1768,9 +1655,6 @@
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1786,22 +1670,13 @@
     <xf numFmtId="9" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1814,9 +1689,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1827,9 +1699,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1839,9 +1708,6 @@
     <xf numFmtId="9" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1854,30 +1720,9 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1885,15 +1730,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1912,6 +1748,133 @@
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1921,16 +1884,102 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2235,16 +2284,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DF202"/>
+  <dimension ref="A1:DF203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:L7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="111.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
@@ -2262,126 +2311,126 @@
       <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130"/>
       <c r="F1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="55" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="111"/>
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="111"/>
+      <c r="AW1" s="111"/>
+      <c r="AX1" s="111"/>
+      <c r="AY1" s="111"/>
+      <c r="AZ1" s="111"/>
+      <c r="BA1" s="111"/>
+      <c r="BB1" s="111"/>
+      <c r="BC1" s="111"/>
+      <c r="BD1" s="111"/>
+      <c r="BE1" s="111"/>
+      <c r="BF1" s="111"/>
+      <c r="BG1" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="55"/>
-      <c r="BL1" s="55"/>
-      <c r="BM1" s="55"/>
-      <c r="BN1" s="55"/>
-      <c r="BO1" s="55"/>
-      <c r="BP1" s="55"/>
-      <c r="BQ1" s="55"/>
-      <c r="BR1" s="55"/>
-      <c r="BS1" s="55"/>
-      <c r="BT1" s="55"/>
-      <c r="BU1" s="55"/>
-      <c r="BV1" s="55"/>
-      <c r="BW1" s="55"/>
-      <c r="BX1" s="55"/>
-      <c r="BY1" s="55"/>
-      <c r="BZ1" s="55"/>
-      <c r="CA1" s="55"/>
-      <c r="CB1" s="55"/>
-      <c r="CC1" s="55"/>
-      <c r="CD1" s="55"/>
-      <c r="CE1" s="55"/>
-      <c r="CF1" s="55"/>
-      <c r="CG1" s="55"/>
-      <c r="CH1" s="55"/>
-      <c r="CI1" s="55"/>
-      <c r="CJ1" s="55"/>
-      <c r="CK1" s="55"/>
-      <c r="CL1" s="55"/>
-      <c r="CM1" s="55"/>
-      <c r="CN1" s="55"/>
-      <c r="CO1" s="55"/>
-      <c r="CP1" s="55"/>
-      <c r="CQ1" s="55"/>
-      <c r="CR1" s="55"/>
-      <c r="CS1" s="55"/>
-      <c r="CT1" s="55"/>
-      <c r="CU1" s="55"/>
-      <c r="CV1" s="55"/>
-      <c r="CW1" s="55"/>
-      <c r="CX1" s="55"/>
-      <c r="CY1" s="55"/>
-      <c r="CZ1" s="55"/>
-      <c r="DA1" s="55"/>
-      <c r="DB1" s="55"/>
-      <c r="DC1" s="55"/>
-      <c r="DD1" s="55"/>
-      <c r="DE1" s="55"/>
-      <c r="DF1" s="55"/>
-    </row>
-    <row r="2" spans="1:110" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28"/>
+      <c r="BH1" s="134"/>
+      <c r="BI1" s="134"/>
+      <c r="BJ1" s="134"/>
+      <c r="BK1" s="134"/>
+      <c r="BL1" s="134"/>
+      <c r="BM1" s="134"/>
+      <c r="BN1" s="134"/>
+      <c r="BO1" s="134"/>
+      <c r="BP1" s="134"/>
+      <c r="BQ1" s="134"/>
+      <c r="BR1" s="134"/>
+      <c r="BS1" s="134"/>
+      <c r="BT1" s="134"/>
+      <c r="BU1" s="134"/>
+      <c r="BV1" s="134"/>
+      <c r="BW1" s="134"/>
+      <c r="BX1" s="134"/>
+      <c r="BY1" s="134"/>
+      <c r="BZ1" s="134"/>
+      <c r="CA1" s="134"/>
+      <c r="CB1" s="134"/>
+      <c r="CC1" s="134"/>
+      <c r="CD1" s="134"/>
+      <c r="CE1" s="134"/>
+      <c r="CF1" s="134"/>
+      <c r="CG1" s="134"/>
+      <c r="CH1" s="134"/>
+      <c r="CI1" s="134"/>
+      <c r="CJ1" s="134"/>
+      <c r="CK1" s="134"/>
+      <c r="CL1" s="134"/>
+      <c r="CM1" s="134"/>
+      <c r="CN1" s="134"/>
+      <c r="CO1" s="134"/>
+      <c r="CP1" s="134"/>
+      <c r="CQ1" s="134"/>
+      <c r="CR1" s="134"/>
+      <c r="CS1" s="134"/>
+      <c r="CT1" s="134"/>
+      <c r="CU1" s="134"/>
+      <c r="CV1" s="134"/>
+      <c r="CW1" s="134"/>
+      <c r="CX1" s="134"/>
+      <c r="CY1" s="134"/>
+      <c r="CZ1" s="134"/>
+      <c r="DA1" s="134"/>
+      <c r="DB1" s="134"/>
+      <c r="DC1" s="134"/>
+      <c r="DD1" s="134"/>
+      <c r="DE1" s="134"/>
+      <c r="DF1" s="134"/>
+    </row>
+    <row r="2" spans="1:110" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112"/>
+      <c r="B2" s="114"/>
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
@@ -2392,396 +2441,396 @@
         <v>22</v>
       </c>
       <c r="F2" s="17"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="56"/>
-      <c r="BL2" s="56"/>
-      <c r="BM2" s="56"/>
-      <c r="BN2" s="56"/>
-      <c r="BO2" s="56"/>
-      <c r="BP2" s="56"/>
-      <c r="BQ2" s="56"/>
-      <c r="BR2" s="56"/>
-      <c r="BS2" s="56"/>
-      <c r="BT2" s="56"/>
-      <c r="BU2" s="56"/>
-      <c r="BV2" s="56"/>
-      <c r="BW2" s="56"/>
-      <c r="BX2" s="56"/>
-      <c r="BY2" s="56"/>
-      <c r="BZ2" s="56"/>
-      <c r="CA2" s="56"/>
-      <c r="CB2" s="56"/>
-      <c r="CC2" s="56"/>
-      <c r="CD2" s="56"/>
-      <c r="CE2" s="56"/>
-      <c r="CF2" s="56"/>
-      <c r="CG2" s="56"/>
-      <c r="CH2" s="56"/>
-      <c r="CI2" s="56"/>
-      <c r="CJ2" s="56"/>
-      <c r="CK2" s="56"/>
-      <c r="CL2" s="56"/>
-      <c r="CM2" s="56"/>
-      <c r="CN2" s="56"/>
-      <c r="CO2" s="56"/>
-      <c r="CP2" s="56"/>
-      <c r="CQ2" s="56"/>
-      <c r="CR2" s="56"/>
-      <c r="CS2" s="56"/>
-      <c r="CT2" s="56"/>
-      <c r="CU2" s="56"/>
-      <c r="CV2" s="56"/>
-      <c r="CW2" s="56"/>
-      <c r="CX2" s="56"/>
-      <c r="CY2" s="56"/>
-      <c r="CZ2" s="56"/>
-      <c r="DA2" s="56"/>
-      <c r="DB2" s="56"/>
-      <c r="DC2" s="56"/>
-      <c r="DD2" s="56"/>
-      <c r="DE2" s="56"/>
-      <c r="DF2" s="56"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="113"/>
+      <c r="AH2" s="113"/>
+      <c r="AI2" s="113"/>
+      <c r="AJ2" s="113"/>
+      <c r="AK2" s="113"/>
+      <c r="AL2" s="113"/>
+      <c r="AM2" s="113"/>
+      <c r="AN2" s="113"/>
+      <c r="AO2" s="113"/>
+      <c r="AP2" s="113"/>
+      <c r="AQ2" s="113"/>
+      <c r="AR2" s="113"/>
+      <c r="AS2" s="113"/>
+      <c r="AT2" s="113"/>
+      <c r="AU2" s="113"/>
+      <c r="AV2" s="113"/>
+      <c r="AW2" s="113"/>
+      <c r="AX2" s="113"/>
+      <c r="AY2" s="113"/>
+      <c r="AZ2" s="113"/>
+      <c r="BA2" s="113"/>
+      <c r="BB2" s="113"/>
+      <c r="BC2" s="113"/>
+      <c r="BD2" s="113"/>
+      <c r="BE2" s="113"/>
+      <c r="BF2" s="113"/>
+      <c r="BG2" s="135"/>
+      <c r="BH2" s="135"/>
+      <c r="BI2" s="135"/>
+      <c r="BJ2" s="135"/>
+      <c r="BK2" s="135"/>
+      <c r="BL2" s="135"/>
+      <c r="BM2" s="135"/>
+      <c r="BN2" s="135"/>
+      <c r="BO2" s="135"/>
+      <c r="BP2" s="135"/>
+      <c r="BQ2" s="135"/>
+      <c r="BR2" s="135"/>
+      <c r="BS2" s="135"/>
+      <c r="BT2" s="135"/>
+      <c r="BU2" s="135"/>
+      <c r="BV2" s="135"/>
+      <c r="BW2" s="135"/>
+      <c r="BX2" s="135"/>
+      <c r="BY2" s="135"/>
+      <c r="BZ2" s="135"/>
+      <c r="CA2" s="135"/>
+      <c r="CB2" s="135"/>
+      <c r="CC2" s="135"/>
+      <c r="CD2" s="135"/>
+      <c r="CE2" s="135"/>
+      <c r="CF2" s="135"/>
+      <c r="CG2" s="135"/>
+      <c r="CH2" s="135"/>
+      <c r="CI2" s="135"/>
+      <c r="CJ2" s="135"/>
+      <c r="CK2" s="135"/>
+      <c r="CL2" s="135"/>
+      <c r="CM2" s="135"/>
+      <c r="CN2" s="135"/>
+      <c r="CO2" s="135"/>
+      <c r="CP2" s="135"/>
+      <c r="CQ2" s="135"/>
+      <c r="CR2" s="135"/>
+      <c r="CS2" s="135"/>
+      <c r="CT2" s="135"/>
+      <c r="CU2" s="135"/>
+      <c r="CV2" s="135"/>
+      <c r="CW2" s="135"/>
+      <c r="CX2" s="135"/>
+      <c r="CY2" s="135"/>
+      <c r="CZ2" s="135"/>
+      <c r="DA2" s="135"/>
+      <c r="DB2" s="135"/>
+      <c r="DC2" s="135"/>
+      <c r="DD2" s="135"/>
+      <c r="DE2" s="135"/>
+      <c r="DF2" s="135"/>
     </row>
     <row r="3" spans="1:110" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="62" t="s">
+      <c r="A3" s="112"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="64"/>
-      <c r="BG3" s="22" t="s">
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="108"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="108"/>
+      <c r="AW3" s="108"/>
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="108"/>
+      <c r="AZ3" s="108"/>
+      <c r="BA3" s="108"/>
+      <c r="BB3" s="108"/>
+      <c r="BC3" s="108"/>
+      <c r="BD3" s="108"/>
+      <c r="BE3" s="108"/>
+      <c r="BF3" s="109"/>
+      <c r="BG3" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="BH3" s="23"/>
-      <c r="BI3" s="23"/>
-      <c r="BJ3" s="23"/>
-      <c r="BK3" s="23"/>
-      <c r="BL3" s="23"/>
-      <c r="BM3" s="23"/>
-      <c r="BN3" s="23"/>
-      <c r="BO3" s="23"/>
-      <c r="BP3" s="23"/>
-      <c r="BQ3" s="23"/>
-      <c r="BR3" s="23"/>
-      <c r="BS3" s="23"/>
-      <c r="BT3" s="23"/>
-      <c r="BU3" s="23"/>
-      <c r="BV3" s="23"/>
-      <c r="BW3" s="23"/>
-      <c r="BX3" s="23"/>
-      <c r="BY3" s="23"/>
-      <c r="BZ3" s="23"/>
-      <c r="CA3" s="23"/>
-      <c r="CB3" s="23"/>
-      <c r="CC3" s="23"/>
-      <c r="CD3" s="23"/>
-      <c r="CE3" s="23"/>
-      <c r="CF3" s="23"/>
-      <c r="CG3" s="23"/>
-      <c r="CH3" s="23"/>
-      <c r="CI3" s="23"/>
-      <c r="CJ3" s="23"/>
-      <c r="CK3" s="23"/>
-      <c r="CL3" s="23"/>
-      <c r="CM3" s="23"/>
-      <c r="CN3" s="23"/>
-      <c r="CO3" s="23"/>
-      <c r="CP3" s="23"/>
-      <c r="CQ3" s="23"/>
-      <c r="CR3" s="23"/>
-      <c r="CS3" s="23"/>
-      <c r="CT3" s="23"/>
-      <c r="CU3" s="23"/>
-      <c r="CV3" s="23"/>
-      <c r="CW3" s="23"/>
-      <c r="CX3" s="23"/>
-      <c r="CY3" s="23"/>
-      <c r="CZ3" s="23"/>
-      <c r="DA3" s="23"/>
-      <c r="DB3" s="23"/>
-      <c r="DC3" s="23"/>
-      <c r="DD3" s="23"/>
-      <c r="DE3" s="23"/>
-      <c r="DF3" s="23"/>
+      <c r="BH3" s="137"/>
+      <c r="BI3" s="137"/>
+      <c r="BJ3" s="137"/>
+      <c r="BK3" s="137"/>
+      <c r="BL3" s="137"/>
+      <c r="BM3" s="137"/>
+      <c r="BN3" s="137"/>
+      <c r="BO3" s="137"/>
+      <c r="BP3" s="137"/>
+      <c r="BQ3" s="137"/>
+      <c r="BR3" s="137"/>
+      <c r="BS3" s="137"/>
+      <c r="BT3" s="137"/>
+      <c r="BU3" s="137"/>
+      <c r="BV3" s="137"/>
+      <c r="BW3" s="137"/>
+      <c r="BX3" s="137"/>
+      <c r="BY3" s="137"/>
+      <c r="BZ3" s="137"/>
+      <c r="CA3" s="137"/>
+      <c r="CB3" s="137"/>
+      <c r="CC3" s="137"/>
+      <c r="CD3" s="137"/>
+      <c r="CE3" s="137"/>
+      <c r="CF3" s="137"/>
+      <c r="CG3" s="137"/>
+      <c r="CH3" s="137"/>
+      <c r="CI3" s="137"/>
+      <c r="CJ3" s="137"/>
+      <c r="CK3" s="137"/>
+      <c r="CL3" s="137"/>
+      <c r="CM3" s="137"/>
+      <c r="CN3" s="137"/>
+      <c r="CO3" s="137"/>
+      <c r="CP3" s="137"/>
+      <c r="CQ3" s="137"/>
+      <c r="CR3" s="137"/>
+      <c r="CS3" s="137"/>
+      <c r="CT3" s="137"/>
+      <c r="CU3" s="137"/>
+      <c r="CV3" s="137"/>
+      <c r="CW3" s="137"/>
+      <c r="CX3" s="137"/>
+      <c r="CY3" s="137"/>
+      <c r="CZ3" s="137"/>
+      <c r="DA3" s="137"/>
+      <c r="DB3" s="137"/>
+      <c r="DC3" s="137"/>
+      <c r="DD3" s="137"/>
+      <c r="DE3" s="137"/>
+      <c r="DF3" s="137"/>
     </row>
     <row r="4" spans="1:110" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="65" t="s">
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65" t="s">
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65" t="s">
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65" t="s">
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65" t="s">
+      <c r="X4" s="115"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65" t="s">
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="115"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65" t="s">
+      <c r="AF4" s="115"/>
+      <c r="AG4" s="115"/>
+      <c r="AH4" s="115"/>
+      <c r="AI4" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65" t="s">
+      <c r="AJ4" s="115"/>
+      <c r="AK4" s="115"/>
+      <c r="AL4" s="115"/>
+      <c r="AM4" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="65"/>
-      <c r="AQ4" s="65" t="s">
+      <c r="AN4" s="115"/>
+      <c r="AO4" s="115"/>
+      <c r="AP4" s="115"/>
+      <c r="AQ4" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="AR4" s="65"/>
-      <c r="AS4" s="65"/>
-      <c r="AT4" s="65"/>
-      <c r="AU4" s="65" t="s">
+      <c r="AR4" s="115"/>
+      <c r="AS4" s="115"/>
+      <c r="AT4" s="115"/>
+      <c r="AU4" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="AV4" s="65"/>
-      <c r="AW4" s="65"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="65" t="s">
+      <c r="AV4" s="115"/>
+      <c r="AW4" s="115"/>
+      <c r="AX4" s="115"/>
+      <c r="AY4" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="AZ4" s="65"/>
-      <c r="BA4" s="65"/>
-      <c r="BB4" s="65"/>
-      <c r="BC4" s="65" t="s">
+      <c r="AZ4" s="115"/>
+      <c r="BA4" s="115"/>
+      <c r="BB4" s="115"/>
+      <c r="BC4" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="BD4" s="65"/>
-      <c r="BE4" s="65"/>
-      <c r="BF4" s="65"/>
-      <c r="BG4" s="65" t="s">
+      <c r="BD4" s="115"/>
+      <c r="BE4" s="115"/>
+      <c r="BF4" s="115"/>
+      <c r="BG4" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="BH4" s="65"/>
-      <c r="BI4" s="65"/>
-      <c r="BJ4" s="65"/>
-      <c r="BK4" s="65" t="s">
+      <c r="BH4" s="115"/>
+      <c r="BI4" s="115"/>
+      <c r="BJ4" s="115"/>
+      <c r="BK4" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="BL4" s="65"/>
-      <c r="BM4" s="65"/>
-      <c r="BN4" s="65"/>
-      <c r="BO4" s="65" t="s">
+      <c r="BL4" s="115"/>
+      <c r="BM4" s="115"/>
+      <c r="BN4" s="115"/>
+      <c r="BO4" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="BP4" s="65"/>
-      <c r="BQ4" s="65"/>
-      <c r="BR4" s="65"/>
-      <c r="BS4" s="65" t="s">
+      <c r="BP4" s="115"/>
+      <c r="BQ4" s="115"/>
+      <c r="BR4" s="115"/>
+      <c r="BS4" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="BT4" s="65"/>
-      <c r="BU4" s="65"/>
-      <c r="BV4" s="65"/>
-      <c r="BW4" s="65" t="s">
+      <c r="BT4" s="115"/>
+      <c r="BU4" s="115"/>
+      <c r="BV4" s="115"/>
+      <c r="BW4" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="BX4" s="65"/>
-      <c r="BY4" s="65"/>
-      <c r="BZ4" s="65"/>
-      <c r="CA4" s="65" t="s">
+      <c r="BX4" s="115"/>
+      <c r="BY4" s="115"/>
+      <c r="BZ4" s="115"/>
+      <c r="CA4" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="CB4" s="65"/>
-      <c r="CC4" s="65"/>
-      <c r="CD4" s="65"/>
-      <c r="CE4" s="65" t="s">
+      <c r="CB4" s="115"/>
+      <c r="CC4" s="115"/>
+      <c r="CD4" s="115"/>
+      <c r="CE4" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="CF4" s="65"/>
-      <c r="CG4" s="65"/>
-      <c r="CH4" s="65"/>
-      <c r="CI4" s="61"/>
-      <c r="CJ4" s="61"/>
-      <c r="CK4" s="61"/>
-      <c r="CL4" s="61"/>
-      <c r="CM4" s="61"/>
-      <c r="CN4" s="61"/>
-      <c r="CO4" s="61"/>
-      <c r="CP4" s="61"/>
-      <c r="CQ4" s="61"/>
-      <c r="CR4" s="61"/>
-      <c r="CS4" s="61"/>
-      <c r="CT4" s="61"/>
-      <c r="CU4" s="61"/>
-      <c r="CV4" s="61"/>
-      <c r="CW4" s="61"/>
-      <c r="CX4" s="61"/>
-      <c r="CY4" s="61"/>
-      <c r="CZ4" s="61"/>
-      <c r="DA4" s="61"/>
-      <c r="DB4" s="61"/>
-      <c r="DC4" s="61"/>
-      <c r="DD4" s="61"/>
-      <c r="DE4" s="61"/>
-      <c r="DF4" s="61"/>
+      <c r="CF4" s="115"/>
+      <c r="CG4" s="115"/>
+      <c r="CH4" s="115"/>
+      <c r="CI4" s="27"/>
+      <c r="CJ4" s="27"/>
+      <c r="CK4" s="27"/>
+      <c r="CL4" s="27"/>
+      <c r="CM4" s="27"/>
+      <c r="CN4" s="27"/>
+      <c r="CO4" s="27"/>
+      <c r="CP4" s="27"/>
+      <c r="CQ4" s="27"/>
+      <c r="CR4" s="27"/>
+      <c r="CS4" s="27"/>
+      <c r="CT4" s="27"/>
+      <c r="CU4" s="27"/>
+      <c r="CV4" s="27"/>
+      <c r="CW4" s="27"/>
+      <c r="CX4" s="27"/>
+      <c r="CY4" s="27"/>
+      <c r="CZ4" s="27"/>
+      <c r="DA4" s="27"/>
+      <c r="DB4" s="27"/>
+      <c r="DC4" s="27"/>
+      <c r="DD4" s="27"/>
+      <c r="DE4" s="27"/>
+      <c r="DF4" s="27"/>
     </row>
     <row r="5" spans="1:110" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="59">
+      <c r="A5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="25">
         <v>1</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="25">
         <v>2</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="25">
         <v>3</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="25">
         <v>4</v>
       </c>
       <c r="K5" s="4">
@@ -2796,16 +2845,16 @@
       <c r="N5" s="4">
         <v>8</v>
       </c>
-      <c r="O5" s="59">
+      <c r="O5" s="25">
         <v>9</v>
       </c>
-      <c r="P5" s="59">
+      <c r="P5" s="25">
         <v>10</v>
       </c>
-      <c r="Q5" s="59">
+      <c r="Q5" s="25">
         <v>11</v>
       </c>
-      <c r="R5" s="59">
+      <c r="R5" s="25">
         <v>12</v>
       </c>
       <c r="S5" s="4">
@@ -2820,16 +2869,16 @@
       <c r="V5" s="4">
         <v>16</v>
       </c>
-      <c r="W5" s="59">
+      <c r="W5" s="25">
         <v>17</v>
       </c>
-      <c r="X5" s="59">
+      <c r="X5" s="25">
         <v>18</v>
       </c>
-      <c r="Y5" s="59">
+      <c r="Y5" s="25">
         <v>19</v>
       </c>
-      <c r="Z5" s="59">
+      <c r="Z5" s="25">
         <v>20</v>
       </c>
       <c r="AA5" s="4">
@@ -2844,16 +2893,16 @@
       <c r="AD5" s="4">
         <v>24</v>
       </c>
-      <c r="AE5" s="59">
+      <c r="AE5" s="25">
         <v>25</v>
       </c>
-      <c r="AF5" s="59">
+      <c r="AF5" s="25">
         <v>26</v>
       </c>
-      <c r="AG5" s="59">
+      <c r="AG5" s="25">
         <v>27</v>
       </c>
-      <c r="AH5" s="59">
+      <c r="AH5" s="25">
         <v>28</v>
       </c>
       <c r="AI5" s="4">
@@ -2868,16 +2917,16 @@
       <c r="AL5" s="4">
         <v>32</v>
       </c>
-      <c r="AM5" s="59">
+      <c r="AM5" s="25">
         <v>33</v>
       </c>
-      <c r="AN5" s="59">
+      <c r="AN5" s="25">
         <v>34</v>
       </c>
-      <c r="AO5" s="59">
+      <c r="AO5" s="25">
         <v>35</v>
       </c>
-      <c r="AP5" s="59">
+      <c r="AP5" s="25">
         <v>36</v>
       </c>
       <c r="AQ5" s="4">
@@ -2886,22 +2935,22 @@
       <c r="AR5" s="4">
         <v>38</v>
       </c>
-      <c r="AS5" s="59">
+      <c r="AS5" s="25">
         <v>39</v>
       </c>
-      <c r="AT5" s="59">
+      <c r="AT5" s="25">
         <v>40</v>
       </c>
-      <c r="AU5" s="59">
+      <c r="AU5" s="25">
         <v>41</v>
       </c>
-      <c r="AV5" s="59">
+      <c r="AV5" s="25">
         <v>42</v>
       </c>
-      <c r="AW5" s="59">
+      <c r="AW5" s="25">
         <v>43</v>
       </c>
-      <c r="AX5" s="59">
+      <c r="AX5" s="25">
         <v>44</v>
       </c>
       <c r="AY5" s="4">
@@ -2916,174 +2965,174 @@
       <c r="BB5" s="4">
         <v>48</v>
       </c>
-      <c r="BC5" s="59">
+      <c r="BC5" s="25">
         <v>49</v>
       </c>
-      <c r="BD5" s="59">
+      <c r="BD5" s="25">
         <v>50</v>
       </c>
-      <c r="BE5" s="59">
+      <c r="BE5" s="25">
         <v>51</v>
       </c>
-      <c r="BF5" s="60">
+      <c r="BF5" s="26">
         <v>52</v>
       </c>
-      <c r="BG5" s="57">
+      <c r="BG5" s="23">
         <v>1</v>
       </c>
-      <c r="BH5" s="57">
+      <c r="BH5" s="23">
         <v>2</v>
       </c>
-      <c r="BI5" s="57">
+      <c r="BI5" s="23">
         <v>3</v>
       </c>
-      <c r="BJ5" s="57">
+      <c r="BJ5" s="23">
         <v>4</v>
       </c>
-      <c r="BK5" s="59">
+      <c r="BK5" s="25">
         <v>5</v>
       </c>
-      <c r="BL5" s="59">
+      <c r="BL5" s="25">
         <v>6</v>
       </c>
-      <c r="BM5" s="59">
+      <c r="BM5" s="25">
         <v>7</v>
       </c>
-      <c r="BN5" s="59">
+      <c r="BN5" s="25">
         <v>8</v>
       </c>
-      <c r="BO5" s="57">
+      <c r="BO5" s="23">
         <v>9</v>
       </c>
-      <c r="BP5" s="57">
+      <c r="BP5" s="23">
         <v>10</v>
       </c>
-      <c r="BQ5" s="57">
+      <c r="BQ5" s="23">
         <v>11</v>
       </c>
-      <c r="BR5" s="57">
+      <c r="BR5" s="23">
         <v>12</v>
       </c>
-      <c r="BS5" s="59">
+      <c r="BS5" s="25">
         <v>13</v>
       </c>
-      <c r="BT5" s="59">
+      <c r="BT5" s="25">
         <v>14</v>
       </c>
-      <c r="BU5" s="59">
+      <c r="BU5" s="25">
         <v>15</v>
       </c>
-      <c r="BV5" s="59">
+      <c r="BV5" s="25">
         <v>16</v>
       </c>
-      <c r="BW5" s="57">
+      <c r="BW5" s="23">
         <v>17</v>
       </c>
-      <c r="BX5" s="57">
+      <c r="BX5" s="23">
         <v>18</v>
       </c>
-      <c r="BY5" s="57">
+      <c r="BY5" s="23">
         <v>19</v>
       </c>
-      <c r="BZ5" s="57">
+      <c r="BZ5" s="23">
         <v>20</v>
       </c>
-      <c r="CA5" s="59">
+      <c r="CA5" s="25">
         <v>21</v>
       </c>
-      <c r="CB5" s="59">
+      <c r="CB5" s="25">
         <v>22</v>
       </c>
-      <c r="CC5" s="59">
+      <c r="CC5" s="25">
         <v>23</v>
       </c>
-      <c r="CD5" s="59">
+      <c r="CD5" s="25">
         <v>24</v>
       </c>
-      <c r="CE5" s="57">
+      <c r="CE5" s="23">
         <v>25</v>
       </c>
-      <c r="CF5" s="57">
+      <c r="CF5" s="23">
         <v>26</v>
       </c>
-      <c r="CG5" s="57">
+      <c r="CG5" s="23">
         <v>27</v>
       </c>
-      <c r="CH5" s="57">
+      <c r="CH5" s="23">
         <v>28</v>
       </c>
-      <c r="CI5" s="66"/>
-      <c r="CJ5" s="66"/>
-      <c r="CK5" s="66"/>
-      <c r="CL5" s="66"/>
-      <c r="CM5" s="66"/>
-      <c r="CN5" s="66"/>
-      <c r="CO5" s="66"/>
-      <c r="CP5" s="66"/>
-      <c r="CQ5" s="66"/>
-      <c r="CR5" s="66"/>
-      <c r="CS5" s="66"/>
-      <c r="CT5" s="66"/>
-      <c r="CU5" s="66"/>
-      <c r="CV5" s="66"/>
-      <c r="CW5" s="66"/>
-      <c r="CX5" s="66"/>
-      <c r="CY5" s="66"/>
-      <c r="CZ5" s="66"/>
-      <c r="DA5" s="66"/>
-      <c r="DB5" s="66"/>
-      <c r="DC5" s="66"/>
-      <c r="DD5" s="66"/>
-      <c r="DE5" s="66"/>
-      <c r="DF5" s="66"/>
+      <c r="CI5" s="28"/>
+      <c r="CJ5" s="28"/>
+      <c r="CK5" s="28"/>
+      <c r="CL5" s="28"/>
+      <c r="CM5" s="28"/>
+      <c r="CN5" s="28"/>
+      <c r="CO5" s="28"/>
+      <c r="CP5" s="28"/>
+      <c r="CQ5" s="28"/>
+      <c r="CR5" s="28"/>
+      <c r="CS5" s="28"/>
+      <c r="CT5" s="28"/>
+      <c r="CU5" s="28"/>
+      <c r="CV5" s="28"/>
+      <c r="CW5" s="28"/>
+      <c r="CX5" s="28"/>
+      <c r="CY5" s="28"/>
+      <c r="CZ5" s="28"/>
+      <c r="DA5" s="28"/>
+      <c r="DB5" s="28"/>
+      <c r="DC5" s="28"/>
+      <c r="DD5" s="28"/>
+      <c r="DE5" s="28"/>
+      <c r="DF5" s="28"/>
     </row>
     <row r="6" spans="1:110" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="89" t="s">
         <v>117</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="66"/>
-      <c r="AN6" s="66"/>
-      <c r="AO6" s="66"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
       <c r="AS6" s="150" t="s">
         <v>121</v>
       </c>
@@ -3100,26 +3149,26 @@
       <c r="BD6" s="151"/>
       <c r="BE6" s="151"/>
       <c r="BF6" s="152"/>
-      <c r="BG6" s="66"/>
-      <c r="BH6" s="66"/>
-      <c r="BI6" s="66"/>
-      <c r="BJ6" s="66"/>
-      <c r="BK6" s="66"/>
-      <c r="BL6" s="66"/>
-      <c r="BM6" s="66"/>
-      <c r="BN6" s="66"/>
-      <c r="BO6" s="66"/>
-      <c r="BP6" s="66"/>
-      <c r="BQ6" s="66"/>
-      <c r="BR6" s="66"/>
-      <c r="BS6" s="66"/>
-      <c r="BT6" s="66"/>
-      <c r="BU6" s="66"/>
-      <c r="BV6" s="66"/>
-      <c r="BW6" s="66"/>
-      <c r="BX6" s="66"/>
-      <c r="BY6" s="66"/>
-      <c r="BZ6" s="66"/>
+      <c r="BG6" s="28"/>
+      <c r="BH6" s="28"/>
+      <c r="BI6" s="28"/>
+      <c r="BJ6" s="28"/>
+      <c r="BK6" s="28"/>
+      <c r="BL6" s="28"/>
+      <c r="BM6" s="28"/>
+      <c r="BN6" s="28"/>
+      <c r="BO6" s="28"/>
+      <c r="BP6" s="28"/>
+      <c r="BQ6" s="28"/>
+      <c r="BR6" s="28"/>
+      <c r="BS6" s="28"/>
+      <c r="BT6" s="28"/>
+      <c r="BU6" s="28"/>
+      <c r="BV6" s="28"/>
+      <c r="BW6" s="28"/>
+      <c r="BX6" s="28"/>
+      <c r="BY6" s="28"/>
+      <c r="BZ6" s="28"/>
       <c r="CA6" s="150" t="s">
         <v>122</v>
       </c>
@@ -3130,46 +3179,46 @@
       <c r="CF6" s="151"/>
       <c r="CG6" s="151"/>
       <c r="CH6" s="152"/>
-      <c r="CI6" s="66"/>
-      <c r="CJ6" s="66"/>
-      <c r="CK6" s="66"/>
-      <c r="CL6" s="66"/>
-      <c r="CM6" s="66"/>
-      <c r="CN6" s="66"/>
-      <c r="CO6" s="66"/>
-      <c r="CP6" s="66"/>
-      <c r="CQ6" s="66"/>
-      <c r="CR6" s="66"/>
-      <c r="CS6" s="66"/>
-      <c r="CT6" s="66"/>
-      <c r="CU6" s="66"/>
-      <c r="CV6" s="66"/>
-      <c r="CW6" s="66"/>
-      <c r="CX6" s="66"/>
-      <c r="CY6" s="66"/>
-      <c r="CZ6" s="66"/>
-      <c r="DA6" s="66"/>
-      <c r="DB6" s="66"/>
-      <c r="DC6" s="66"/>
-      <c r="DD6" s="66"/>
-      <c r="DE6" s="66"/>
-      <c r="DF6" s="66"/>
+      <c r="CI6" s="28"/>
+      <c r="CJ6" s="28"/>
+      <c r="CK6" s="28"/>
+      <c r="CL6" s="28"/>
+      <c r="CM6" s="28"/>
+      <c r="CN6" s="28"/>
+      <c r="CO6" s="28"/>
+      <c r="CP6" s="28"/>
+      <c r="CQ6" s="28"/>
+      <c r="CR6" s="28"/>
+      <c r="CS6" s="28"/>
+      <c r="CT6" s="28"/>
+      <c r="CU6" s="28"/>
+      <c r="CV6" s="28"/>
+      <c r="CW6" s="28"/>
+      <c r="CX6" s="28"/>
+      <c r="CY6" s="28"/>
+      <c r="CZ6" s="28"/>
+      <c r="DA6" s="28"/>
+      <c r="DB6" s="28"/>
+      <c r="DC6" s="28"/>
+      <c r="DD6" s="28"/>
+      <c r="DE6" s="28"/>
+      <c r="DF6" s="28"/>
     </row>
     <row r="7" spans="1:110" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="154">
+      <c r="B7" s="29"/>
+      <c r="C7" s="91">
         <v>0.34</v>
       </c>
-      <c r="D7" s="154">
+      <c r="D7" s="91">
         <v>0.33</v>
       </c>
-      <c r="E7" s="154">
+      <c r="E7" s="91">
         <v>0.33</v>
       </c>
-      <c r="F7" s="155" t="s">
+      <c r="F7" s="92" t="s">
         <v>88</v>
       </c>
       <c r="G7" s="4"/>
@@ -3178,72 +3227,72 @@
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
       <c r="AG7" s="18"/>
       <c r="AH7" s="18"/>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="18"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="66"/>
-      <c r="AN7" s="66"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
       <c r="AO7" s="18"/>
       <c r="AP7" s="18"/>
       <c r="AQ7" s="18"/>
       <c r="AR7" s="18"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="66"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
       <c r="AW7" s="18"/>
       <c r="AX7" s="18"/>
       <c r="AY7" s="18"/>
       <c r="AZ7" s="18"/>
-      <c r="BA7" s="66"/>
-      <c r="BB7" s="66"/>
-      <c r="BC7" s="66"/>
-      <c r="BD7" s="66"/>
+      <c r="BA7" s="18"/>
+      <c r="BB7" s="18"/>
+      <c r="BC7" s="18"/>
+      <c r="BD7" s="18"/>
       <c r="BE7" s="18"/>
-      <c r="BF7" s="54"/>
+      <c r="BF7" s="22"/>
       <c r="BG7" s="2"/>
-      <c r="BH7" s="58"/>
-      <c r="BI7" s="66"/>
-      <c r="BJ7" s="66"/>
-      <c r="BK7" s="66"/>
-      <c r="BL7" s="66"/>
+      <c r="BH7" s="24"/>
+      <c r="BI7" s="28"/>
+      <c r="BJ7" s="28"/>
+      <c r="BK7" s="28"/>
+      <c r="BL7" s="28"/>
       <c r="BM7" s="18"/>
       <c r="BN7" s="18"/>
       <c r="BO7" s="18"/>
       <c r="BP7" s="18"/>
-      <c r="BQ7" s="66"/>
-      <c r="BR7" s="66"/>
-      <c r="BS7" s="66"/>
-      <c r="BT7" s="66"/>
+      <c r="BQ7" s="28"/>
+      <c r="BR7" s="28"/>
+      <c r="BS7" s="28"/>
+      <c r="BT7" s="28"/>
       <c r="BU7" s="18"/>
       <c r="BV7" s="18"/>
       <c r="BW7" s="18"/>
       <c r="BX7" s="18"/>
-      <c r="BY7" s="66"/>
-      <c r="BZ7" s="66"/>
+      <c r="BY7" s="28"/>
+      <c r="BZ7" s="28"/>
       <c r="CA7" s="18"/>
       <c r="CB7" s="18"/>
       <c r="CC7" s="18"/>
@@ -3252,124 +3301,124 @@
       <c r="CF7" s="18"/>
       <c r="CG7" s="18"/>
       <c r="CH7" s="18"/>
-      <c r="CI7" s="66"/>
-      <c r="CJ7" s="66"/>
-      <c r="CK7" s="66"/>
-      <c r="CL7" s="66"/>
-      <c r="CM7" s="66"/>
-      <c r="CN7" s="66"/>
-      <c r="CO7" s="66"/>
-      <c r="CP7" s="66"/>
-      <c r="CQ7" s="66"/>
-      <c r="CR7" s="66"/>
-      <c r="CS7" s="66"/>
-      <c r="CT7" s="66"/>
-      <c r="CU7" s="66"/>
-      <c r="CV7" s="66"/>
-      <c r="CW7" s="66"/>
-      <c r="CX7" s="66"/>
-      <c r="CY7" s="66"/>
-      <c r="CZ7" s="66"/>
-      <c r="DA7" s="66"/>
-      <c r="DB7" s="66"/>
-      <c r="DC7" s="66"/>
-      <c r="DD7" s="66"/>
-      <c r="DE7" s="66"/>
-      <c r="DF7" s="66"/>
+      <c r="CI7" s="28"/>
+      <c r="CJ7" s="28"/>
+      <c r="CK7" s="28"/>
+      <c r="CL7" s="28"/>
+      <c r="CM7" s="28"/>
+      <c r="CN7" s="28"/>
+      <c r="CO7" s="28"/>
+      <c r="CP7" s="28"/>
+      <c r="CQ7" s="28"/>
+      <c r="CR7" s="28"/>
+      <c r="CS7" s="28"/>
+      <c r="CT7" s="28"/>
+      <c r="CU7" s="28"/>
+      <c r="CV7" s="28"/>
+      <c r="CW7" s="28"/>
+      <c r="CX7" s="28"/>
+      <c r="CY7" s="28"/>
+      <c r="CZ7" s="28"/>
+      <c r="DA7" s="28"/>
+      <c r="DB7" s="28"/>
+      <c r="DC7" s="28"/>
+      <c r="DD7" s="28"/>
+      <c r="DE7" s="28"/>
+      <c r="DF7" s="28"/>
     </row>
     <row r="8" spans="1:110" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="90" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="138" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="156"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="157"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="157"/>
-      <c r="Q8" s="157"/>
-      <c r="R8" s="157"/>
-      <c r="S8" s="157"/>
-      <c r="T8" s="157"/>
-      <c r="U8" s="157"/>
-      <c r="V8" s="157"/>
-      <c r="W8" s="157"/>
-      <c r="X8" s="157"/>
-      <c r="Y8" s="157"/>
-      <c r="Z8" s="157"/>
-      <c r="AA8" s="157"/>
-      <c r="AB8" s="157"/>
-      <c r="AC8" s="157"/>
-      <c r="AD8" s="157"/>
-      <c r="AE8" s="157"/>
-      <c r="AF8" s="157"/>
-      <c r="AG8" s="157"/>
-      <c r="AH8" s="157"/>
-      <c r="AI8" s="157"/>
-      <c r="AJ8" s="157"/>
-      <c r="AK8" s="157"/>
-      <c r="AL8" s="157"/>
-      <c r="AM8" s="157"/>
-      <c r="AN8" s="157"/>
-      <c r="AO8" s="157"/>
-      <c r="AP8" s="157"/>
-      <c r="AQ8" s="157"/>
-      <c r="AR8" s="157"/>
-      <c r="AS8" s="157"/>
-      <c r="AT8" s="157"/>
-      <c r="AU8" s="157"/>
-      <c r="AV8" s="157"/>
-      <c r="AW8" s="157"/>
-      <c r="AX8" s="157"/>
-      <c r="AY8" s="157"/>
-      <c r="AZ8" s="157"/>
-      <c r="BA8" s="157"/>
-      <c r="BB8" s="157"/>
-      <c r="BC8" s="157"/>
-      <c r="BD8" s="157"/>
-      <c r="BE8" s="157"/>
-      <c r="BF8" s="158"/>
-      <c r="BG8" s="2"/>
-      <c r="BH8" s="2"/>
-      <c r="BI8" s="2"/>
-      <c r="BJ8" s="2"/>
-      <c r="BK8" s="2"/>
-      <c r="BL8" s="2"/>
-      <c r="BM8" s="2"/>
-      <c r="BN8" s="2"/>
-      <c r="BO8" s="2"/>
-      <c r="BP8" s="2"/>
-      <c r="BQ8" s="2"/>
-      <c r="BR8" s="2"/>
-      <c r="BS8" s="2"/>
-      <c r="BT8" s="2"/>
-      <c r="BU8" s="2"/>
-      <c r="BV8" s="2"/>
-      <c r="BW8" s="2"/>
-      <c r="BX8" s="2"/>
-      <c r="BY8" s="2"/>
-      <c r="BZ8" s="2"/>
-      <c r="CA8" s="2"/>
-      <c r="CB8" s="2"/>
-      <c r="CC8" s="2"/>
-      <c r="CD8" s="2"/>
-      <c r="CE8" s="2"/>
-      <c r="CF8" s="2"/>
-      <c r="CG8" s="2"/>
-      <c r="CH8" s="2"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="154"/>
+      <c r="Q8" s="154"/>
+      <c r="R8" s="154"/>
+      <c r="S8" s="154"/>
+      <c r="T8" s="154"/>
+      <c r="U8" s="154"/>
+      <c r="V8" s="154"/>
+      <c r="W8" s="154"/>
+      <c r="X8" s="154"/>
+      <c r="Y8" s="154"/>
+      <c r="Z8" s="154"/>
+      <c r="AA8" s="154"/>
+      <c r="AB8" s="154"/>
+      <c r="AC8" s="154"/>
+      <c r="AD8" s="154"/>
+      <c r="AE8" s="154"/>
+      <c r="AF8" s="154"/>
+      <c r="AG8" s="154"/>
+      <c r="AH8" s="154"/>
+      <c r="AI8" s="154"/>
+      <c r="AJ8" s="154"/>
+      <c r="AK8" s="154"/>
+      <c r="AL8" s="154"/>
+      <c r="AM8" s="154"/>
+      <c r="AN8" s="154"/>
+      <c r="AO8" s="154"/>
+      <c r="AP8" s="154"/>
+      <c r="AQ8" s="154"/>
+      <c r="AR8" s="154"/>
+      <c r="AS8" s="154"/>
+      <c r="AT8" s="154"/>
+      <c r="AU8" s="154"/>
+      <c r="AV8" s="154"/>
+      <c r="AW8" s="154"/>
+      <c r="AX8" s="154"/>
+      <c r="AY8" s="154"/>
+      <c r="AZ8" s="154"/>
+      <c r="BA8" s="154"/>
+      <c r="BB8" s="154"/>
+      <c r="BC8" s="154"/>
+      <c r="BD8" s="154"/>
+      <c r="BE8" s="154"/>
+      <c r="BF8" s="155"/>
+      <c r="BG8" s="156"/>
+      <c r="BH8" s="157"/>
+      <c r="BI8" s="157"/>
+      <c r="BJ8" s="157"/>
+      <c r="BK8" s="157"/>
+      <c r="BL8" s="157"/>
+      <c r="BM8" s="157"/>
+      <c r="BN8" s="157"/>
+      <c r="BO8" s="157"/>
+      <c r="BP8" s="157"/>
+      <c r="BQ8" s="157"/>
+      <c r="BR8" s="157"/>
+      <c r="BS8" s="157"/>
+      <c r="BT8" s="157"/>
+      <c r="BU8" s="157"/>
+      <c r="BV8" s="157"/>
+      <c r="BW8" s="157"/>
+      <c r="BX8" s="157"/>
+      <c r="BY8" s="157"/>
+      <c r="BZ8" s="158"/>
+      <c r="CA8" s="103"/>
+      <c r="CB8" s="103"/>
+      <c r="CC8" s="103"/>
+      <c r="CD8" s="103"/>
+      <c r="CE8" s="103"/>
+      <c r="CF8" s="103"/>
+      <c r="CG8" s="103"/>
+      <c r="CH8" s="103"/>
       <c r="CI8" s="2"/>
       <c r="CJ8" s="2"/>
       <c r="CK8" s="2"/>
@@ -3396,38 +3445,38 @@
       <c r="DF8" s="2"/>
     </row>
     <row r="9" spans="1:110" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="47">
         <v>0.4</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="48">
         <v>0.2</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="44">
         <v>0.4</v>
       </c>
-      <c r="F9" s="95"/>
+      <c r="F9" s="139"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="67">
+      <c r="M9" s="29">
         <v>1</v>
       </c>
-      <c r="N9" s="67">
+      <c r="N9" s="29">
         <v>2</v>
       </c>
-      <c r="O9" s="67">
+      <c r="O9" s="29">
         <v>3</v>
       </c>
-      <c r="P9" s="67">
+      <c r="P9" s="29">
         <v>4</v>
       </c>
       <c r="Q9" s="12"/>
@@ -3450,64 +3499,84 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
-      <c r="AK9" s="67">
+      <c r="AK9" s="29">
         <v>1</v>
       </c>
-      <c r="AL9" s="67">
+      <c r="AL9" s="29">
         <v>2</v>
       </c>
-      <c r="AM9" s="67">
+      <c r="AM9" s="29">
         <v>3</v>
       </c>
-      <c r="AN9" s="67">
+      <c r="AN9" s="29">
         <v>4</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="47"/>
+      <c r="AS9" s="103"/>
+      <c r="AT9" s="103"/>
+      <c r="AU9" s="103"/>
+      <c r="AV9" s="103"/>
+      <c r="AW9" s="103"/>
+      <c r="AX9" s="103"/>
+      <c r="AY9" s="103"/>
+      <c r="AZ9" s="103"/>
+      <c r="BA9" s="103"/>
+      <c r="BB9" s="103"/>
+      <c r="BC9" s="103"/>
+      <c r="BD9" s="103"/>
+      <c r="BE9" s="103"/>
+      <c r="BF9" s="104"/>
       <c r="BG9" s="2"/>
       <c r="BH9" s="2"/>
       <c r="BI9" s="2"/>
       <c r="BJ9" s="2"/>
-      <c r="BK9" s="2"/>
-      <c r="BL9" s="2"/>
-      <c r="BM9" s="2"/>
-      <c r="BN9" s="2"/>
+      <c r="BK9" s="29">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="29">
+        <v>2</v>
+      </c>
+      <c r="BM9" s="29">
+        <v>3</v>
+      </c>
+      <c r="BN9" s="29">
+        <v>4</v>
+      </c>
       <c r="BO9" s="2"/>
       <c r="BP9" s="2"/>
-      <c r="BQ9" s="2"/>
-      <c r="BR9" s="2"/>
-      <c r="BS9" s="2"/>
-      <c r="BT9" s="2"/>
-      <c r="BU9" s="2"/>
-      <c r="BV9" s="2"/>
+      <c r="BQ9" s="29">
+        <v>1</v>
+      </c>
+      <c r="BR9" s="29">
+        <v>2</v>
+      </c>
+      <c r="BS9" s="29">
+        <v>3</v>
+      </c>
+      <c r="BT9" s="29">
+        <v>4</v>
+      </c>
+      <c r="BU9" s="29">
+        <v>5</v>
+      </c>
+      <c r="BV9" s="29">
+        <v>6</v>
+      </c>
       <c r="BW9" s="2"/>
       <c r="BX9" s="2"/>
       <c r="BY9" s="2"/>
       <c r="BZ9" s="2"/>
-      <c r="CA9" s="2"/>
-      <c r="CB9" s="2"/>
-      <c r="CC9" s="2"/>
-      <c r="CD9" s="2"/>
-      <c r="CE9" s="2"/>
-      <c r="CF9" s="2"/>
-      <c r="CG9" s="2"/>
-      <c r="CH9" s="2"/>
+      <c r="CA9" s="103"/>
+      <c r="CB9" s="103"/>
+      <c r="CC9" s="103"/>
+      <c r="CD9" s="103"/>
+      <c r="CE9" s="103"/>
+      <c r="CF9" s="103"/>
+      <c r="CG9" s="103"/>
+      <c r="CH9" s="103"/>
       <c r="CI9" s="2"/>
       <c r="CJ9" s="2"/>
       <c r="CK9" s="2"/>
@@ -3534,92 +3603,92 @@
       <c r="DF9" s="2"/>
     </row>
     <row r="10" spans="1:110" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="44">
         <v>0.4</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="44">
         <v>0.2</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="44">
         <v>0.4</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="67">
+      <c r="F10" s="139"/>
+      <c r="G10" s="29">
         <v>1</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="29">
         <v>2</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="29">
         <v>3</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="29">
         <v>4</v>
       </c>
-      <c r="K10" s="67">
+      <c r="K10" s="29">
         <v>5</v>
       </c>
-      <c r="L10" s="67">
+      <c r="L10" s="29">
         <v>6</v>
       </c>
-      <c r="M10" s="67">
+      <c r="M10" s="29">
         <v>7</v>
       </c>
-      <c r="N10" s="67">
+      <c r="N10" s="29">
         <v>8</v>
       </c>
-      <c r="O10" s="67">
+      <c r="O10" s="29">
         <v>9</v>
       </c>
-      <c r="P10" s="67">
+      <c r="P10" s="29">
         <v>10</v>
       </c>
-      <c r="Q10" s="67">
+      <c r="Q10" s="29">
         <v>11</v>
       </c>
-      <c r="R10" s="67">
+      <c r="R10" s="29">
         <v>12</v>
       </c>
-      <c r="S10" s="67">
+      <c r="S10" s="29">
         <v>13</v>
       </c>
-      <c r="T10" s="67">
+      <c r="T10" s="29">
         <v>14</v>
       </c>
-      <c r="U10" s="67">
+      <c r="U10" s="29">
         <v>15</v>
       </c>
-      <c r="V10" s="67">
+      <c r="V10" s="29">
         <v>16</v>
       </c>
-      <c r="W10" s="67">
+      <c r="W10" s="29">
         <v>17</v>
       </c>
-      <c r="X10" s="67">
+      <c r="X10" s="29">
         <v>18</v>
       </c>
-      <c r="Y10" s="67">
+      <c r="Y10" s="29">
         <v>19</v>
       </c>
-      <c r="Z10" s="67">
+      <c r="Z10" s="29">
         <v>20</v>
       </c>
-      <c r="AA10" s="67">
+      <c r="AA10" s="29">
         <v>21</v>
       </c>
-      <c r="AB10" s="67">
+      <c r="AB10" s="29">
         <v>22</v>
       </c>
-      <c r="AC10" s="67">
+      <c r="AC10" s="29">
         <v>23</v>
       </c>
-      <c r="AD10" s="67">
+      <c r="AD10" s="29">
         <v>24</v>
       </c>
       <c r="AE10" s="2"/>
@@ -3636,48 +3705,68 @@
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="47"/>
+      <c r="AS10" s="103"/>
+      <c r="AT10" s="103"/>
+      <c r="AU10" s="103"/>
+      <c r="AV10" s="103"/>
+      <c r="AW10" s="103"/>
+      <c r="AX10" s="103"/>
+      <c r="AY10" s="103"/>
+      <c r="AZ10" s="103"/>
+      <c r="BA10" s="103"/>
+      <c r="BB10" s="103"/>
+      <c r="BC10" s="103"/>
+      <c r="BD10" s="103"/>
+      <c r="BE10" s="103"/>
+      <c r="BF10" s="104"/>
       <c r="BG10" s="2"/>
       <c r="BH10" s="2"/>
       <c r="BI10" s="2"/>
       <c r="BJ10" s="2"/>
-      <c r="BK10" s="2"/>
-      <c r="BL10" s="2"/>
-      <c r="BM10" s="2"/>
-      <c r="BN10" s="2"/>
+      <c r="BK10" s="29">
+        <v>1</v>
+      </c>
+      <c r="BL10" s="29">
+        <v>2</v>
+      </c>
+      <c r="BM10" s="29">
+        <v>3</v>
+      </c>
+      <c r="BN10" s="29">
+        <v>4</v>
+      </c>
       <c r="BO10" s="2"/>
       <c r="BP10" s="2"/>
-      <c r="BQ10" s="2"/>
-      <c r="BR10" s="2"/>
-      <c r="BS10" s="2"/>
-      <c r="BT10" s="2"/>
-      <c r="BU10" s="2"/>
-      <c r="BV10" s="2"/>
+      <c r="BQ10" s="29">
+        <v>1</v>
+      </c>
+      <c r="BR10" s="29">
+        <v>2</v>
+      </c>
+      <c r="BS10" s="29">
+        <v>3</v>
+      </c>
+      <c r="BT10" s="29">
+        <v>4</v>
+      </c>
+      <c r="BU10" s="29">
+        <v>5</v>
+      </c>
+      <c r="BV10" s="29">
+        <v>6</v>
+      </c>
       <c r="BW10" s="2"/>
       <c r="BX10" s="2"/>
       <c r="BY10" s="2"/>
       <c r="BZ10" s="2"/>
-      <c r="CA10" s="2"/>
-      <c r="CB10" s="2"/>
-      <c r="CC10" s="2"/>
-      <c r="CD10" s="2"/>
-      <c r="CE10" s="2"/>
-      <c r="CF10" s="2"/>
-      <c r="CG10" s="2"/>
-      <c r="CH10" s="2"/>
+      <c r="CA10" s="103"/>
+      <c r="CB10" s="103"/>
+      <c r="CC10" s="103"/>
+      <c r="CD10" s="103"/>
+      <c r="CE10" s="103"/>
+      <c r="CF10" s="103"/>
+      <c r="CG10" s="103"/>
+      <c r="CH10" s="103"/>
       <c r="CI10" s="2"/>
       <c r="CJ10" s="2"/>
       <c r="CK10" s="2"/>
@@ -3704,22 +3793,22 @@
       <c r="DF10" s="2"/>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="89">
+      <c r="C11" s="44">
         <v>0.1</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="44">
         <v>0.7</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="44">
         <v>0.2</v>
       </c>
-      <c r="F11" s="95"/>
+      <c r="F11" s="139"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -3734,28 +3823,28 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="67">
+      <c r="U11" s="29">
         <v>1</v>
       </c>
-      <c r="V11" s="67">
+      <c r="V11" s="29">
         <v>2</v>
       </c>
-      <c r="W11" s="67">
+      <c r="W11" s="29">
         <v>3</v>
       </c>
-      <c r="X11" s="67">
+      <c r="X11" s="29">
         <v>4</v>
       </c>
-      <c r="Y11" s="67">
+      <c r="Y11" s="29">
         <v>5</v>
       </c>
-      <c r="Z11" s="67">
+      <c r="Z11" s="29">
         <v>6</v>
       </c>
-      <c r="AA11" s="67">
+      <c r="AA11" s="29">
         <v>7</v>
       </c>
-      <c r="AB11" s="67">
+      <c r="AB11" s="29">
         <v>8</v>
       </c>
       <c r="AC11" s="2"/>
@@ -3774,48 +3863,68 @@
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
-      <c r="BA11" s="2"/>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
-      <c r="BF11" s="47"/>
+      <c r="AS11" s="103"/>
+      <c r="AT11" s="103"/>
+      <c r="AU11" s="103"/>
+      <c r="AV11" s="103"/>
+      <c r="AW11" s="103"/>
+      <c r="AX11" s="103"/>
+      <c r="AY11" s="103"/>
+      <c r="AZ11" s="103"/>
+      <c r="BA11" s="103"/>
+      <c r="BB11" s="103"/>
+      <c r="BC11" s="103"/>
+      <c r="BD11" s="103"/>
+      <c r="BE11" s="103"/>
+      <c r="BF11" s="104"/>
       <c r="BG11" s="2"/>
       <c r="BH11" s="2"/>
       <c r="BI11" s="2"/>
       <c r="BJ11" s="2"/>
-      <c r="BK11" s="2"/>
-      <c r="BL11" s="2"/>
-      <c r="BM11" s="2"/>
-      <c r="BN11" s="2"/>
+      <c r="BK11" s="29">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="29">
+        <v>2</v>
+      </c>
+      <c r="BM11" s="29">
+        <v>3</v>
+      </c>
+      <c r="BN11" s="29">
+        <v>4</v>
+      </c>
       <c r="BO11" s="2"/>
       <c r="BP11" s="2"/>
-      <c r="BQ11" s="2"/>
-      <c r="BR11" s="2"/>
-      <c r="BS11" s="2"/>
-      <c r="BT11" s="2"/>
-      <c r="BU11" s="2"/>
-      <c r="BV11" s="2"/>
+      <c r="BQ11" s="29">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="29">
+        <v>2</v>
+      </c>
+      <c r="BS11" s="29">
+        <v>3</v>
+      </c>
+      <c r="BT11" s="29">
+        <v>4</v>
+      </c>
+      <c r="BU11" s="29">
+        <v>5</v>
+      </c>
+      <c r="BV11" s="29">
+        <v>6</v>
+      </c>
       <c r="BW11" s="2"/>
       <c r="BX11" s="2"/>
       <c r="BY11" s="2"/>
       <c r="BZ11" s="2"/>
-      <c r="CA11" s="2"/>
-      <c r="CB11" s="2"/>
-      <c r="CC11" s="2"/>
-      <c r="CD11" s="2"/>
-      <c r="CE11" s="2"/>
-      <c r="CF11" s="2"/>
-      <c r="CG11" s="2"/>
-      <c r="CH11" s="2"/>
+      <c r="CA11" s="103"/>
+      <c r="CB11" s="103"/>
+      <c r="CC11" s="103"/>
+      <c r="CD11" s="103"/>
+      <c r="CE11" s="103"/>
+      <c r="CF11" s="103"/>
+      <c r="CG11" s="103"/>
+      <c r="CH11" s="103"/>
       <c r="CI11" s="2"/>
       <c r="CJ11" s="2"/>
       <c r="CK11" s="2"/>
@@ -3842,22 +3951,22 @@
       <c r="DF11" s="2"/>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="89">
+      <c r="C12" s="44">
         <v>0.1</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="44">
         <v>0.7</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="44">
         <v>0.2</v>
       </c>
-      <c r="F12" s="95"/>
+      <c r="F12" s="139"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3872,28 +3981,28 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="67">
+      <c r="U12" s="29">
         <v>1</v>
       </c>
-      <c r="V12" s="67">
+      <c r="V12" s="29">
         <v>2</v>
       </c>
-      <c r="W12" s="67">
+      <c r="W12" s="29">
         <v>3</v>
       </c>
-      <c r="X12" s="67">
+      <c r="X12" s="29">
         <v>4</v>
       </c>
-      <c r="Y12" s="67">
+      <c r="Y12" s="29">
         <v>5</v>
       </c>
-      <c r="Z12" s="67">
+      <c r="Z12" s="29">
         <v>6</v>
       </c>
-      <c r="AA12" s="67">
+      <c r="AA12" s="29">
         <v>7</v>
       </c>
-      <c r="AB12" s="67">
+      <c r="AB12" s="29">
         <v>8</v>
       </c>
       <c r="AC12" s="2"/>
@@ -3912,48 +4021,68 @@
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
-      <c r="AS12" s="2"/>
-      <c r="AT12" s="2"/>
-      <c r="AU12" s="2"/>
-      <c r="AV12" s="2"/>
-      <c r="AW12" s="2"/>
-      <c r="AX12" s="2"/>
-      <c r="AY12" s="2"/>
-      <c r="AZ12" s="2"/>
-      <c r="BA12" s="2"/>
-      <c r="BB12" s="2"/>
-      <c r="BC12" s="2"/>
-      <c r="BD12" s="2"/>
-      <c r="BE12" s="2"/>
-      <c r="BF12" s="47"/>
+      <c r="AS12" s="103"/>
+      <c r="AT12" s="103"/>
+      <c r="AU12" s="103"/>
+      <c r="AV12" s="103"/>
+      <c r="AW12" s="103"/>
+      <c r="AX12" s="103"/>
+      <c r="AY12" s="103"/>
+      <c r="AZ12" s="103"/>
+      <c r="BA12" s="103"/>
+      <c r="BB12" s="103"/>
+      <c r="BC12" s="103"/>
+      <c r="BD12" s="103"/>
+      <c r="BE12" s="103"/>
+      <c r="BF12" s="104"/>
       <c r="BG12" s="2"/>
       <c r="BH12" s="2"/>
       <c r="BI12" s="2"/>
       <c r="BJ12" s="2"/>
-      <c r="BK12" s="2"/>
-      <c r="BL12" s="2"/>
-      <c r="BM12" s="2"/>
-      <c r="BN12" s="2"/>
+      <c r="BK12" s="29">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="29">
+        <v>2</v>
+      </c>
+      <c r="BM12" s="29">
+        <v>3</v>
+      </c>
+      <c r="BN12" s="29">
+        <v>4</v>
+      </c>
       <c r="BO12" s="2"/>
       <c r="BP12" s="2"/>
-      <c r="BQ12" s="2"/>
-      <c r="BR12" s="2"/>
-      <c r="BS12" s="2"/>
-      <c r="BT12" s="2"/>
-      <c r="BU12" s="2"/>
-      <c r="BV12" s="2"/>
+      <c r="BQ12" s="29">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="29">
+        <v>2</v>
+      </c>
+      <c r="BS12" s="29">
+        <v>3</v>
+      </c>
+      <c r="BT12" s="29">
+        <v>4</v>
+      </c>
+      <c r="BU12" s="29">
+        <v>5</v>
+      </c>
+      <c r="BV12" s="29">
+        <v>6</v>
+      </c>
       <c r="BW12" s="2"/>
       <c r="BX12" s="2"/>
       <c r="BY12" s="2"/>
       <c r="BZ12" s="2"/>
-      <c r="CA12" s="2"/>
-      <c r="CB12" s="2"/>
-      <c r="CC12" s="2"/>
-      <c r="CD12" s="2"/>
-      <c r="CE12" s="2"/>
-      <c r="CF12" s="2"/>
-      <c r="CG12" s="2"/>
-      <c r="CH12" s="2"/>
+      <c r="CA12" s="103"/>
+      <c r="CB12" s="103"/>
+      <c r="CC12" s="103"/>
+      <c r="CD12" s="103"/>
+      <c r="CE12" s="103"/>
+      <c r="CF12" s="103"/>
+      <c r="CG12" s="103"/>
+      <c r="CH12" s="103"/>
       <c r="CI12" s="2"/>
       <c r="CJ12" s="2"/>
       <c r="CK12" s="2"/>
@@ -3980,62 +4109,62 @@
       <c r="DF12" s="2"/>
     </row>
     <row r="13" spans="1:110" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="54">
         <v>0.7</v>
       </c>
-      <c r="D13" s="101">
+      <c r="D13" s="54">
         <v>0.25</v>
       </c>
-      <c r="E13" s="101">
+      <c r="E13" s="54">
         <v>0.05</v>
       </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="67">
+      <c r="F13" s="139"/>
+      <c r="G13" s="29">
         <v>1</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="29">
         <v>2</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="29">
         <v>3</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="29">
         <v>4</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="29">
         <v>5</v>
       </c>
-      <c r="L13" s="67">
+      <c r="L13" s="29">
         <v>6</v>
       </c>
-      <c r="M13" s="67">
+      <c r="M13" s="29">
         <v>7</v>
       </c>
-      <c r="N13" s="67">
+      <c r="N13" s="29">
         <v>8</v>
       </c>
-      <c r="O13" s="67">
+      <c r="O13" s="29">
         <v>9</v>
       </c>
-      <c r="P13" s="67">
+      <c r="P13" s="29">
         <v>10</v>
       </c>
-      <c r="Q13" s="67">
+      <c r="Q13" s="29">
         <v>11</v>
       </c>
-      <c r="R13" s="67">
+      <c r="R13" s="29">
         <v>12</v>
       </c>
-      <c r="S13" s="67">
+      <c r="S13" s="29">
         <v>13</v>
       </c>
-      <c r="T13" s="67">
+      <c r="T13" s="29">
         <v>14</v>
       </c>
       <c r="U13" s="12"/>
@@ -4062,48 +4191,68 @@
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="2"/>
-      <c r="AU13" s="2"/>
-      <c r="AV13" s="2"/>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="2"/>
-      <c r="AY13" s="2"/>
-      <c r="AZ13" s="2"/>
-      <c r="BA13" s="2"/>
-      <c r="BB13" s="2"/>
-      <c r="BC13" s="2"/>
-      <c r="BD13" s="2"/>
-      <c r="BE13" s="2"/>
-      <c r="BF13" s="47"/>
+      <c r="AS13" s="103"/>
+      <c r="AT13" s="103"/>
+      <c r="AU13" s="103"/>
+      <c r="AV13" s="103"/>
+      <c r="AW13" s="103"/>
+      <c r="AX13" s="103"/>
+      <c r="AY13" s="103"/>
+      <c r="AZ13" s="103"/>
+      <c r="BA13" s="103"/>
+      <c r="BB13" s="103"/>
+      <c r="BC13" s="103"/>
+      <c r="BD13" s="103"/>
+      <c r="BE13" s="103"/>
+      <c r="BF13" s="104"/>
       <c r="BG13" s="2"/>
       <c r="BH13" s="2"/>
       <c r="BI13" s="2"/>
       <c r="BJ13" s="2"/>
-      <c r="BK13" s="2"/>
-      <c r="BL13" s="2"/>
-      <c r="BM13" s="2"/>
-      <c r="BN13" s="2"/>
+      <c r="BK13" s="29">
+        <v>1</v>
+      </c>
+      <c r="BL13" s="29">
+        <v>2</v>
+      </c>
+      <c r="BM13" s="29">
+        <v>3</v>
+      </c>
+      <c r="BN13" s="29">
+        <v>4</v>
+      </c>
       <c r="BO13" s="2"/>
       <c r="BP13" s="2"/>
-      <c r="BQ13" s="2"/>
-      <c r="BR13" s="2"/>
-      <c r="BS13" s="2"/>
-      <c r="BT13" s="2"/>
-      <c r="BU13" s="2"/>
-      <c r="BV13" s="2"/>
+      <c r="BQ13" s="29">
+        <v>1</v>
+      </c>
+      <c r="BR13" s="29">
+        <v>2</v>
+      </c>
+      <c r="BS13" s="29">
+        <v>3</v>
+      </c>
+      <c r="BT13" s="29">
+        <v>4</v>
+      </c>
+      <c r="BU13" s="29">
+        <v>5</v>
+      </c>
+      <c r="BV13" s="29">
+        <v>6</v>
+      </c>
       <c r="BW13" s="2"/>
       <c r="BX13" s="2"/>
       <c r="BY13" s="2"/>
       <c r="BZ13" s="2"/>
-      <c r="CA13" s="2"/>
-      <c r="CB13" s="2"/>
-      <c r="CC13" s="2"/>
-      <c r="CD13" s="2"/>
-      <c r="CE13" s="2"/>
-      <c r="CF13" s="2"/>
-      <c r="CG13" s="2"/>
-      <c r="CH13" s="2"/>
+      <c r="CA13" s="103"/>
+      <c r="CB13" s="103"/>
+      <c r="CC13" s="103"/>
+      <c r="CD13" s="103"/>
+      <c r="CE13" s="103"/>
+      <c r="CF13" s="103"/>
+      <c r="CG13" s="103"/>
+      <c r="CH13" s="103"/>
       <c r="CI13" s="2"/>
       <c r="CJ13" s="2"/>
       <c r="CK13" s="2"/>
@@ -4130,22 +4279,22 @@
       <c r="DF13" s="2"/>
     </row>
     <row r="14" spans="1:110" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="89">
+      <c r="C14" s="44">
         <v>0.7</v>
       </c>
-      <c r="D14" s="89">
+      <c r="D14" s="44">
         <v>0.1</v>
       </c>
-      <c r="E14" s="89">
+      <c r="E14" s="44">
         <v>0.2</v>
       </c>
-      <c r="F14" s="102"/>
+      <c r="F14" s="140"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -4170,19 +4319,19 @@
       <c r="AB14" s="12"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="67">
+      <c r="AE14" s="29">
         <v>1</v>
       </c>
-      <c r="AF14" s="67">
+      <c r="AF14" s="29">
         <v>2</v>
       </c>
-      <c r="AG14" s="67">
+      <c r="AG14" s="29">
         <v>3</v>
       </c>
-      <c r="AH14" s="67">
+      <c r="AH14" s="29">
         <v>4</v>
       </c>
-      <c r="AI14" s="67">
+      <c r="AI14" s="29">
         <v>5</v>
       </c>
       <c r="AJ14" s="2"/>
@@ -4194,48 +4343,68 @@
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2"/>
-      <c r="AZ14" s="2"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
-      <c r="BE14" s="2"/>
-      <c r="BF14" s="47"/>
+      <c r="AS14" s="103"/>
+      <c r="AT14" s="103"/>
+      <c r="AU14" s="103"/>
+      <c r="AV14" s="103"/>
+      <c r="AW14" s="103"/>
+      <c r="AX14" s="103"/>
+      <c r="AY14" s="103"/>
+      <c r="AZ14" s="103"/>
+      <c r="BA14" s="103"/>
+      <c r="BB14" s="103"/>
+      <c r="BC14" s="103"/>
+      <c r="BD14" s="103"/>
+      <c r="BE14" s="103"/>
+      <c r="BF14" s="104"/>
       <c r="BG14" s="2"/>
       <c r="BH14" s="2"/>
       <c r="BI14" s="2"/>
       <c r="BJ14" s="2"/>
-      <c r="BK14" s="2"/>
-      <c r="BL14" s="2"/>
-      <c r="BM14" s="2"/>
-      <c r="BN14" s="2"/>
+      <c r="BK14" s="29">
+        <v>1</v>
+      </c>
+      <c r="BL14" s="29">
+        <v>2</v>
+      </c>
+      <c r="BM14" s="29">
+        <v>3</v>
+      </c>
+      <c r="BN14" s="29">
+        <v>4</v>
+      </c>
       <c r="BO14" s="2"/>
       <c r="BP14" s="2"/>
-      <c r="BQ14" s="2"/>
-      <c r="BR14" s="2"/>
-      <c r="BS14" s="2"/>
-      <c r="BT14" s="2"/>
-      <c r="BU14" s="2"/>
-      <c r="BV14" s="2"/>
+      <c r="BQ14" s="29">
+        <v>1</v>
+      </c>
+      <c r="BR14" s="29">
+        <v>2</v>
+      </c>
+      <c r="BS14" s="29">
+        <v>3</v>
+      </c>
+      <c r="BT14" s="29">
+        <v>4</v>
+      </c>
+      <c r="BU14" s="29">
+        <v>5</v>
+      </c>
+      <c r="BV14" s="29">
+        <v>6</v>
+      </c>
       <c r="BW14" s="2"/>
       <c r="BX14" s="2"/>
       <c r="BY14" s="2"/>
       <c r="BZ14" s="2"/>
-      <c r="CA14" s="2"/>
-      <c r="CB14" s="2"/>
-      <c r="CC14" s="2"/>
-      <c r="CD14" s="2"/>
-      <c r="CE14" s="2"/>
-      <c r="CF14" s="2"/>
-      <c r="CG14" s="2"/>
-      <c r="CH14" s="2"/>
+      <c r="CA14" s="103"/>
+      <c r="CB14" s="103"/>
+      <c r="CC14" s="103"/>
+      <c r="CD14" s="103"/>
+      <c r="CE14" s="103"/>
+      <c r="CF14" s="103"/>
+      <c r="CG14" s="103"/>
+      <c r="CH14" s="103"/>
       <c r="CI14" s="2"/>
       <c r="CJ14" s="2"/>
       <c r="CK14" s="2"/>
@@ -4262,70 +4431,70 @@
       <c r="DF14" s="2"/>
     </row>
     <row r="15" spans="1:110" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="159" t="s">
+      <c r="A15" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="123" t="s">
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="165"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="166"/>
-      <c r="K15" s="166"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="166"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="166"/>
-      <c r="T15" s="166"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="166"/>
-      <c r="W15" s="166"/>
-      <c r="X15" s="166"/>
-      <c r="Y15" s="166"/>
-      <c r="Z15" s="166"/>
-      <c r="AA15" s="166"/>
-      <c r="AB15" s="166"/>
-      <c r="AC15" s="166"/>
-      <c r="AD15" s="166"/>
-      <c r="AE15" s="166"/>
-      <c r="AF15" s="166"/>
-      <c r="AG15" s="166"/>
-      <c r="AH15" s="166"/>
-      <c r="AI15" s="166"/>
-      <c r="AJ15" s="166"/>
-      <c r="AK15" s="166"/>
-      <c r="AL15" s="166"/>
-      <c r="AM15" s="166"/>
-      <c r="AN15" s="166"/>
-      <c r="AO15" s="166"/>
-      <c r="AP15" s="166"/>
-      <c r="AQ15" s="166"/>
-      <c r="AR15" s="166"/>
-      <c r="AS15" s="166"/>
-      <c r="AT15" s="166"/>
-      <c r="AU15" s="166"/>
-      <c r="AV15" s="166"/>
-      <c r="AW15" s="166"/>
-      <c r="AX15" s="166"/>
-      <c r="AY15" s="166"/>
-      <c r="AZ15" s="166"/>
-      <c r="BA15" s="166"/>
-      <c r="BB15" s="166"/>
-      <c r="BC15" s="166"/>
-      <c r="BD15" s="166"/>
-      <c r="BE15" s="166"/>
-      <c r="BF15" s="167"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="145"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="145"/>
+      <c r="Z15" s="145"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="145"/>
+      <c r="AC15" s="145"/>
+      <c r="AD15" s="145"/>
+      <c r="AE15" s="145"/>
+      <c r="AF15" s="145"/>
+      <c r="AG15" s="145"/>
+      <c r="AH15" s="145"/>
+      <c r="AI15" s="145"/>
+      <c r="AJ15" s="145"/>
+      <c r="AK15" s="145"/>
+      <c r="AL15" s="145"/>
+      <c r="AM15" s="145"/>
+      <c r="AN15" s="145"/>
+      <c r="AO15" s="145"/>
+      <c r="AP15" s="145"/>
+      <c r="AQ15" s="145"/>
+      <c r="AR15" s="145"/>
+      <c r="AS15" s="145"/>
+      <c r="AT15" s="145"/>
+      <c r="AU15" s="145"/>
+      <c r="AV15" s="145"/>
+      <c r="AW15" s="145"/>
+      <c r="AX15" s="145"/>
+      <c r="AY15" s="145"/>
+      <c r="AZ15" s="145"/>
+      <c r="BA15" s="145"/>
+      <c r="BB15" s="145"/>
+      <c r="BC15" s="145"/>
+      <c r="BD15" s="145"/>
+      <c r="BE15" s="145"/>
+      <c r="BF15" s="146"/>
       <c r="BG15" s="2"/>
       <c r="BH15" s="2"/>
       <c r="BI15" s="2"/>
@@ -4346,14 +4515,14 @@
       <c r="BX15" s="2"/>
       <c r="BY15" s="2"/>
       <c r="BZ15" s="2"/>
-      <c r="CA15" s="2"/>
-      <c r="CB15" s="2"/>
-      <c r="CC15" s="2"/>
-      <c r="CD15" s="2"/>
-      <c r="CE15" s="2"/>
-      <c r="CF15" s="2"/>
-      <c r="CG15" s="2"/>
-      <c r="CH15" s="2"/>
+      <c r="CA15" s="103"/>
+      <c r="CB15" s="103"/>
+      <c r="CC15" s="103"/>
+      <c r="CD15" s="103"/>
+      <c r="CE15" s="103"/>
+      <c r="CF15" s="103"/>
+      <c r="CG15" s="103"/>
+      <c r="CH15" s="103"/>
       <c r="CI15" s="2"/>
       <c r="CJ15" s="2"/>
       <c r="CK15" s="2"/>
@@ -4380,206 +4549,226 @@
       <c r="DF15" s="2"/>
     </row>
     <row r="16" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="163">
+      <c r="C16" s="97">
         <v>0.3</v>
       </c>
-      <c r="D16" s="163">
+      <c r="D16" s="97">
         <v>0.3</v>
       </c>
-      <c r="E16" s="163">
+      <c r="E16" s="97">
         <v>0.4</v>
       </c>
-      <c r="F16" s="126"/>
-      <c r="G16" s="122">
+      <c r="F16" s="117"/>
+      <c r="G16" s="71">
         <v>1</v>
       </c>
-      <c r="H16" s="122">
+      <c r="H16" s="71">
         <v>2</v>
       </c>
-      <c r="I16" s="122">
+      <c r="I16" s="71">
         <v>3</v>
       </c>
-      <c r="J16" s="122">
+      <c r="J16" s="71">
         <v>4</v>
       </c>
-      <c r="K16" s="122">
+      <c r="K16" s="71">
         <v>5</v>
       </c>
-      <c r="L16" s="122">
+      <c r="L16" s="71">
         <v>6</v>
       </c>
-      <c r="M16" s="122">
+      <c r="M16" s="71">
         <v>7</v>
       </c>
-      <c r="N16" s="122">
+      <c r="N16" s="71">
         <v>8</v>
       </c>
-      <c r="O16" s="122">
+      <c r="O16" s="71">
         <v>9</v>
       </c>
-      <c r="P16" s="122">
+      <c r="P16" s="71">
         <v>10</v>
       </c>
-      <c r="Q16" s="122">
+      <c r="Q16" s="71">
         <v>11</v>
       </c>
-      <c r="R16" s="122">
+      <c r="R16" s="71">
         <v>12</v>
       </c>
-      <c r="S16" s="122">
+      <c r="S16" s="71">
         <v>13</v>
       </c>
-      <c r="T16" s="122">
+      <c r="T16" s="71">
         <v>14</v>
       </c>
-      <c r="U16" s="122">
+      <c r="U16" s="71">
         <v>15</v>
       </c>
-      <c r="V16" s="122">
+      <c r="V16" s="71">
         <v>16</v>
       </c>
-      <c r="W16" s="122">
+      <c r="W16" s="71">
         <v>17</v>
       </c>
-      <c r="X16" s="122">
+      <c r="X16" s="71">
         <v>18</v>
       </c>
-      <c r="Y16" s="122">
+      <c r="Y16" s="71">
         <v>19</v>
       </c>
-      <c r="Z16" s="122">
+      <c r="Z16" s="71">
         <v>20</v>
       </c>
-      <c r="AA16" s="122">
+      <c r="AA16" s="71">
         <v>21</v>
       </c>
-      <c r="AB16" s="122">
+      <c r="AB16" s="71">
         <v>22</v>
       </c>
-      <c r="AC16" s="122">
+      <c r="AC16" s="71">
         <v>23</v>
       </c>
-      <c r="AD16" s="122">
+      <c r="AD16" s="71">
         <v>24</v>
       </c>
-      <c r="AE16" s="122">
+      <c r="AE16" s="71">
         <v>25</v>
       </c>
-      <c r="AF16" s="122">
+      <c r="AF16" s="71">
         <v>26</v>
       </c>
-      <c r="AG16" s="122">
+      <c r="AG16" s="71">
         <v>27</v>
       </c>
-      <c r="AH16" s="122">
+      <c r="AH16" s="71">
         <v>28</v>
       </c>
-      <c r="AI16" s="122">
+      <c r="AI16" s="71">
         <v>29</v>
       </c>
-      <c r="AJ16" s="122">
+      <c r="AJ16" s="71">
         <v>30</v>
       </c>
-      <c r="AK16" s="122">
+      <c r="AK16" s="71">
         <v>31</v>
       </c>
-      <c r="AL16" s="122">
+      <c r="AL16" s="71">
         <v>32</v>
       </c>
-      <c r="AM16" s="122">
+      <c r="AM16" s="71">
         <v>33</v>
       </c>
-      <c r="AN16" s="122">
+      <c r="AN16" s="71">
         <v>34</v>
       </c>
-      <c r="AO16" s="122">
+      <c r="AO16" s="71">
         <v>35</v>
       </c>
-      <c r="AP16" s="122">
+      <c r="AP16" s="71">
         <v>36</v>
       </c>
-      <c r="AQ16" s="122">
+      <c r="AQ16" s="71">
         <v>37</v>
       </c>
-      <c r="AR16" s="122">
+      <c r="AR16" s="71">
         <v>38</v>
       </c>
-      <c r="AS16" s="122">
+      <c r="AS16" s="71">
         <v>39</v>
       </c>
-      <c r="AT16" s="122">
+      <c r="AT16" s="71">
         <v>40</v>
       </c>
-      <c r="AU16" s="122">
+      <c r="AU16" s="71">
         <v>41</v>
       </c>
-      <c r="AV16" s="122">
+      <c r="AV16" s="71">
         <v>42</v>
       </c>
-      <c r="AW16" s="122">
+      <c r="AW16" s="71">
         <v>43</v>
       </c>
-      <c r="AX16" s="122">
+      <c r="AX16" s="71">
         <v>44</v>
       </c>
-      <c r="AY16" s="122">
+      <c r="AY16" s="71">
         <v>45</v>
       </c>
-      <c r="AZ16" s="122">
+      <c r="AZ16" s="71">
         <v>46</v>
       </c>
-      <c r="BA16" s="122">
+      <c r="BA16" s="71">
         <v>47</v>
       </c>
-      <c r="BB16" s="122">
+      <c r="BB16" s="71">
         <v>48</v>
       </c>
-      <c r="BC16" s="122">
+      <c r="BC16" s="71">
         <v>49</v>
       </c>
-      <c r="BD16" s="122">
+      <c r="BD16" s="71">
         <v>50</v>
       </c>
-      <c r="BE16" s="122">
+      <c r="BE16" s="71">
         <v>51</v>
       </c>
-      <c r="BF16" s="122">
+      <c r="BF16" s="71">
         <v>52</v>
       </c>
       <c r="BG16" s="2"/>
       <c r="BH16" s="2"/>
       <c r="BI16" s="2"/>
       <c r="BJ16" s="2"/>
-      <c r="BK16" s="2"/>
-      <c r="BL16" s="2"/>
-      <c r="BM16" s="2"/>
-      <c r="BN16" s="2"/>
+      <c r="BK16" s="71">
+        <v>1</v>
+      </c>
+      <c r="BL16" s="71">
+        <v>2</v>
+      </c>
+      <c r="BM16" s="71">
+        <v>3</v>
+      </c>
+      <c r="BN16" s="71">
+        <v>4</v>
+      </c>
       <c r="BO16" s="2"/>
       <c r="BP16" s="2"/>
-      <c r="BQ16" s="2"/>
-      <c r="BR16" s="2"/>
-      <c r="BS16" s="2"/>
-      <c r="BT16" s="2"/>
-      <c r="BU16" s="2"/>
-      <c r="BV16" s="2"/>
+      <c r="BQ16" s="71">
+        <v>1</v>
+      </c>
+      <c r="BR16" s="71">
+        <v>2</v>
+      </c>
+      <c r="BS16" s="71">
+        <v>3</v>
+      </c>
+      <c r="BT16" s="71">
+        <v>4</v>
+      </c>
+      <c r="BU16" s="71">
+        <v>5</v>
+      </c>
+      <c r="BV16" s="71">
+        <v>6</v>
+      </c>
       <c r="BW16" s="2"/>
       <c r="BX16" s="2"/>
       <c r="BY16" s="2"/>
       <c r="BZ16" s="2"/>
-      <c r="CA16" s="2"/>
-      <c r="CB16" s="2"/>
-      <c r="CC16" s="2"/>
-      <c r="CD16" s="2"/>
-      <c r="CE16" s="2"/>
-      <c r="CF16" s="2"/>
-      <c r="CG16" s="2"/>
-      <c r="CH16" s="2"/>
+      <c r="CA16" s="103"/>
+      <c r="CB16" s="103"/>
+      <c r="CC16" s="103"/>
+      <c r="CD16" s="103"/>
+      <c r="CE16" s="103"/>
+      <c r="CF16" s="103"/>
+      <c r="CG16" s="103"/>
+      <c r="CH16" s="103"/>
       <c r="CI16" s="2"/>
       <c r="CJ16" s="2"/>
       <c r="CK16" s="2"/>
@@ -4606,36 +4795,36 @@
       <c r="DF16" s="2"/>
     </row>
     <row r="17" spans="1:110" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="129">
+      <c r="C17" s="76">
         <v>0.2</v>
       </c>
-      <c r="D17" s="129">
+      <c r="D17" s="76">
         <v>0.1</v>
       </c>
-      <c r="E17" s="129">
+      <c r="E17" s="76">
         <v>0.7</v>
       </c>
-      <c r="F17" s="126"/>
+      <c r="F17" s="117"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="122">
+      <c r="K17" s="71">
         <v>1</v>
       </c>
-      <c r="L17" s="122">
+      <c r="L17" s="71">
         <v>2</v>
       </c>
-      <c r="M17" s="122">
+      <c r="M17" s="71">
         <v>3</v>
       </c>
-      <c r="N17" s="122">
+      <c r="N17" s="71">
         <v>4</v>
       </c>
       <c r="O17" s="2"/>
@@ -4668,48 +4857,68 @@
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
-      <c r="AS17" s="2"/>
-      <c r="AT17" s="2"/>
-      <c r="AU17" s="2"/>
-      <c r="AV17" s="2"/>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="2"/>
-      <c r="AY17" s="2"/>
-      <c r="AZ17" s="2"/>
-      <c r="BA17" s="2"/>
-      <c r="BB17" s="2"/>
-      <c r="BC17" s="2"/>
-      <c r="BD17" s="2"/>
-      <c r="BE17" s="2"/>
-      <c r="BF17" s="47"/>
+      <c r="AS17" s="103"/>
+      <c r="AT17" s="103"/>
+      <c r="AU17" s="103"/>
+      <c r="AV17" s="103"/>
+      <c r="AW17" s="103"/>
+      <c r="AX17" s="103"/>
+      <c r="AY17" s="103"/>
+      <c r="AZ17" s="103"/>
+      <c r="BA17" s="103"/>
+      <c r="BB17" s="103"/>
+      <c r="BC17" s="103"/>
+      <c r="BD17" s="103"/>
+      <c r="BE17" s="103"/>
+      <c r="BF17" s="104"/>
       <c r="BG17" s="2"/>
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
       <c r="BJ17" s="2"/>
-      <c r="BK17" s="2"/>
-      <c r="BL17" s="2"/>
-      <c r="BM17" s="2"/>
-      <c r="BN17" s="2"/>
+      <c r="BK17" s="71">
+        <v>1</v>
+      </c>
+      <c r="BL17" s="71">
+        <v>2</v>
+      </c>
+      <c r="BM17" s="71">
+        <v>3</v>
+      </c>
+      <c r="BN17" s="71">
+        <v>4</v>
+      </c>
       <c r="BO17" s="2"/>
       <c r="BP17" s="2"/>
-      <c r="BQ17" s="2"/>
-      <c r="BR17" s="2"/>
-      <c r="BS17" s="2"/>
-      <c r="BT17" s="2"/>
-      <c r="BU17" s="2"/>
-      <c r="BV17" s="2"/>
+      <c r="BQ17" s="71">
+        <v>1</v>
+      </c>
+      <c r="BR17" s="71">
+        <v>2</v>
+      </c>
+      <c r="BS17" s="71">
+        <v>3</v>
+      </c>
+      <c r="BT17" s="71">
+        <v>4</v>
+      </c>
+      <c r="BU17" s="71">
+        <v>5</v>
+      </c>
+      <c r="BV17" s="71">
+        <v>6</v>
+      </c>
       <c r="BW17" s="2"/>
       <c r="BX17" s="2"/>
       <c r="BY17" s="2"/>
       <c r="BZ17" s="2"/>
-      <c r="CA17" s="2"/>
-      <c r="CB17" s="2"/>
-      <c r="CC17" s="2"/>
-      <c r="CD17" s="2"/>
-      <c r="CE17" s="2"/>
-      <c r="CF17" s="2"/>
-      <c r="CG17" s="2"/>
-      <c r="CH17" s="2"/>
+      <c r="CA17" s="103"/>
+      <c r="CB17" s="103"/>
+      <c r="CC17" s="103"/>
+      <c r="CD17" s="103"/>
+      <c r="CE17" s="103"/>
+      <c r="CF17" s="103"/>
+      <c r="CG17" s="103"/>
+      <c r="CH17" s="103"/>
       <c r="CI17" s="2"/>
       <c r="CJ17" s="2"/>
       <c r="CK17" s="2"/>
@@ -4736,22 +4945,22 @@
       <c r="DF17" s="2"/>
     </row>
     <row r="18" spans="1:110" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="129">
+      <c r="C18" s="76">
         <v>0.2</v>
       </c>
-      <c r="D18" s="129">
+      <c r="D18" s="76">
         <v>0.1</v>
       </c>
-      <c r="E18" s="129">
+      <c r="E18" s="76">
         <v>0.7</v>
       </c>
-      <c r="F18" s="126"/>
+      <c r="F18" s="117"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -4760,22 +4969,22 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="122">
+      <c r="O18" s="71">
         <v>1</v>
       </c>
-      <c r="P18" s="122">
+      <c r="P18" s="71">
         <v>2</v>
       </c>
-      <c r="Q18" s="122">
+      <c r="Q18" s="71">
         <v>3</v>
       </c>
-      <c r="R18" s="122">
+      <c r="R18" s="71">
         <v>4</v>
       </c>
-      <c r="S18" s="122">
+      <c r="S18" s="71">
         <v>5</v>
       </c>
-      <c r="T18" s="122">
+      <c r="T18" s="71">
         <v>6</v>
       </c>
       <c r="U18" s="2"/>
@@ -4802,48 +5011,68 @@
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
-      <c r="AS18" s="2"/>
-      <c r="AT18" s="2"/>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
-      <c r="AX18" s="2"/>
-      <c r="AY18" s="2"/>
-      <c r="AZ18" s="2"/>
-      <c r="BA18" s="2"/>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="2"/>
-      <c r="BD18" s="2"/>
-      <c r="BE18" s="2"/>
-      <c r="BF18" s="47"/>
+      <c r="AS18" s="103"/>
+      <c r="AT18" s="103"/>
+      <c r="AU18" s="103"/>
+      <c r="AV18" s="103"/>
+      <c r="AW18" s="103"/>
+      <c r="AX18" s="103"/>
+      <c r="AY18" s="103"/>
+      <c r="AZ18" s="103"/>
+      <c r="BA18" s="103"/>
+      <c r="BB18" s="103"/>
+      <c r="BC18" s="103"/>
+      <c r="BD18" s="103"/>
+      <c r="BE18" s="103"/>
+      <c r="BF18" s="104"/>
       <c r="BG18" s="2"/>
       <c r="BH18" s="2"/>
       <c r="BI18" s="2"/>
       <c r="BJ18" s="2"/>
-      <c r="BK18" s="2"/>
-      <c r="BL18" s="2"/>
-      <c r="BM18" s="2"/>
-      <c r="BN18" s="2"/>
+      <c r="BK18" s="71">
+        <v>1</v>
+      </c>
+      <c r="BL18" s="71">
+        <v>2</v>
+      </c>
+      <c r="BM18" s="71">
+        <v>3</v>
+      </c>
+      <c r="BN18" s="71">
+        <v>4</v>
+      </c>
       <c r="BO18" s="2"/>
       <c r="BP18" s="2"/>
-      <c r="BQ18" s="2"/>
-      <c r="BR18" s="2"/>
-      <c r="BS18" s="2"/>
-      <c r="BT18" s="2"/>
-      <c r="BU18" s="2"/>
-      <c r="BV18" s="2"/>
+      <c r="BQ18" s="71">
+        <v>1</v>
+      </c>
+      <c r="BR18" s="71">
+        <v>2</v>
+      </c>
+      <c r="BS18" s="71">
+        <v>3</v>
+      </c>
+      <c r="BT18" s="71">
+        <v>4</v>
+      </c>
+      <c r="BU18" s="71">
+        <v>5</v>
+      </c>
+      <c r="BV18" s="71">
+        <v>6</v>
+      </c>
       <c r="BW18" s="2"/>
       <c r="BX18" s="2"/>
       <c r="BY18" s="2"/>
       <c r="BZ18" s="2"/>
-      <c r="CA18" s="2"/>
-      <c r="CB18" s="2"/>
-      <c r="CC18" s="2"/>
-      <c r="CD18" s="2"/>
-      <c r="CE18" s="2"/>
-      <c r="CF18" s="2"/>
-      <c r="CG18" s="2"/>
-      <c r="CH18" s="2"/>
+      <c r="CA18" s="103"/>
+      <c r="CB18" s="103"/>
+      <c r="CC18" s="103"/>
+      <c r="CD18" s="103"/>
+      <c r="CE18" s="103"/>
+      <c r="CF18" s="103"/>
+      <c r="CG18" s="103"/>
+      <c r="CH18" s="103"/>
       <c r="CI18" s="2"/>
       <c r="CJ18" s="2"/>
       <c r="CK18" s="2"/>
@@ -4870,22 +5099,22 @@
       <c r="DF18" s="2"/>
     </row>
     <row r="19" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="164">
+      <c r="C19" s="98">
         <v>0.1</v>
       </c>
-      <c r="D19" s="164">
+      <c r="D19" s="98">
         <v>0.7</v>
       </c>
-      <c r="E19" s="164">
+      <c r="E19" s="98">
         <v>0.2</v>
       </c>
-      <c r="F19" s="131"/>
+      <c r="F19" s="118"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -4906,40 +5135,40 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="122">
+      <c r="AA19" s="71">
         <v>1</v>
       </c>
-      <c r="AB19" s="122">
+      <c r="AB19" s="71">
         <v>2</v>
       </c>
-      <c r="AC19" s="122">
+      <c r="AC19" s="71">
         <v>3</v>
       </c>
-      <c r="AD19" s="122">
+      <c r="AD19" s="71">
         <v>4</v>
       </c>
-      <c r="AE19" s="122">
+      <c r="AE19" s="71">
         <v>5</v>
       </c>
-      <c r="AF19" s="122">
+      <c r="AF19" s="71">
         <v>6</v>
       </c>
-      <c r="AG19" s="122">
+      <c r="AG19" s="71">
         <v>7</v>
       </c>
-      <c r="AH19" s="122">
+      <c r="AH19" s="71">
         <v>8</v>
       </c>
-      <c r="AI19" s="122">
+      <c r="AI19" s="71">
         <v>9</v>
       </c>
-      <c r="AJ19" s="122">
+      <c r="AJ19" s="71">
         <v>10</v>
       </c>
-      <c r="AK19" s="122">
+      <c r="AK19" s="71">
         <v>11</v>
       </c>
-      <c r="AL19" s="122">
+      <c r="AL19" s="71">
         <v>12</v>
       </c>
       <c r="AM19" s="2"/>
@@ -4948,48 +5177,68 @@
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
-      <c r="BE19" s="2"/>
-      <c r="BF19" s="47"/>
+      <c r="AS19" s="103"/>
+      <c r="AT19" s="103"/>
+      <c r="AU19" s="103"/>
+      <c r="AV19" s="103"/>
+      <c r="AW19" s="103"/>
+      <c r="AX19" s="103"/>
+      <c r="AY19" s="103"/>
+      <c r="AZ19" s="103"/>
+      <c r="BA19" s="103"/>
+      <c r="BB19" s="103"/>
+      <c r="BC19" s="103"/>
+      <c r="BD19" s="103"/>
+      <c r="BE19" s="103"/>
+      <c r="BF19" s="104"/>
       <c r="BG19" s="2"/>
       <c r="BH19" s="2"/>
       <c r="BI19" s="2"/>
       <c r="BJ19" s="2"/>
-      <c r="BK19" s="2"/>
-      <c r="BL19" s="2"/>
-      <c r="BM19" s="2"/>
-      <c r="BN19" s="2"/>
+      <c r="BK19" s="71">
+        <v>1</v>
+      </c>
+      <c r="BL19" s="71">
+        <v>2</v>
+      </c>
+      <c r="BM19" s="71">
+        <v>3</v>
+      </c>
+      <c r="BN19" s="71">
+        <v>4</v>
+      </c>
       <c r="BO19" s="2"/>
       <c r="BP19" s="2"/>
-      <c r="BQ19" s="2"/>
-      <c r="BR19" s="2"/>
-      <c r="BS19" s="2"/>
-      <c r="BT19" s="2"/>
-      <c r="BU19" s="2"/>
-      <c r="BV19" s="2"/>
+      <c r="BQ19" s="71">
+        <v>1</v>
+      </c>
+      <c r="BR19" s="71">
+        <v>2</v>
+      </c>
+      <c r="BS19" s="71">
+        <v>3</v>
+      </c>
+      <c r="BT19" s="71">
+        <v>4</v>
+      </c>
+      <c r="BU19" s="71">
+        <v>5</v>
+      </c>
+      <c r="BV19" s="71">
+        <v>6</v>
+      </c>
       <c r="BW19" s="2"/>
       <c r="BX19" s="2"/>
       <c r="BY19" s="2"/>
       <c r="BZ19" s="2"/>
-      <c r="CA19" s="2"/>
-      <c r="CB19" s="2"/>
-      <c r="CC19" s="2"/>
-      <c r="CD19" s="2"/>
-      <c r="CE19" s="2"/>
-      <c r="CF19" s="2"/>
-      <c r="CG19" s="2"/>
-      <c r="CH19" s="2"/>
+      <c r="CA19" s="103"/>
+      <c r="CB19" s="103"/>
+      <c r="CC19" s="103"/>
+      <c r="CD19" s="103"/>
+      <c r="CE19" s="103"/>
+      <c r="CF19" s="103"/>
+      <c r="CG19" s="103"/>
+      <c r="CH19" s="103"/>
       <c r="CI19" s="2"/>
       <c r="CJ19" s="2"/>
       <c r="CK19" s="2"/>
@@ -5016,68 +5265,68 @@
       <c r="DF19" s="2"/>
     </row>
     <row r="20" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="77" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="73"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="73"/>
-      <c r="AG20" s="73"/>
-      <c r="AH20" s="73"/>
-      <c r="AI20" s="73"/>
-      <c r="AJ20" s="73"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="73"/>
-      <c r="AM20" s="73"/>
-      <c r="AN20" s="73"/>
-      <c r="AO20" s="73"/>
-      <c r="AP20" s="73"/>
-      <c r="AQ20" s="73"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="73"/>
-      <c r="AY20" s="73"/>
-      <c r="AZ20" s="73"/>
-      <c r="BA20" s="73"/>
-      <c r="BB20" s="73"/>
-      <c r="BC20" s="73"/>
-      <c r="BD20" s="73"/>
-      <c r="BE20" s="73"/>
-      <c r="BF20" s="74"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="148"/>
+      <c r="S20" s="148"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="148"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="148"/>
+      <c r="X20" s="148"/>
+      <c r="Y20" s="148"/>
+      <c r="Z20" s="148"/>
+      <c r="AA20" s="148"/>
+      <c r="AB20" s="148"/>
+      <c r="AC20" s="148"/>
+      <c r="AD20" s="148"/>
+      <c r="AE20" s="148"/>
+      <c r="AF20" s="148"/>
+      <c r="AG20" s="148"/>
+      <c r="AH20" s="148"/>
+      <c r="AI20" s="148"/>
+      <c r="AJ20" s="148"/>
+      <c r="AK20" s="148"/>
+      <c r="AL20" s="148"/>
+      <c r="AM20" s="148"/>
+      <c r="AN20" s="148"/>
+      <c r="AO20" s="148"/>
+      <c r="AP20" s="148"/>
+      <c r="AQ20" s="148"/>
+      <c r="AR20" s="148"/>
+      <c r="AS20" s="148"/>
+      <c r="AT20" s="148"/>
+      <c r="AU20" s="148"/>
+      <c r="AV20" s="148"/>
+      <c r="AW20" s="148"/>
+      <c r="AX20" s="148"/>
+      <c r="AY20" s="148"/>
+      <c r="AZ20" s="148"/>
+      <c r="BA20" s="148"/>
+      <c r="BB20" s="148"/>
+      <c r="BC20" s="148"/>
+      <c r="BD20" s="148"/>
+      <c r="BE20" s="148"/>
+      <c r="BF20" s="149"/>
       <c r="BG20" s="2"/>
       <c r="BH20" s="2"/>
       <c r="BI20" s="2"/>
@@ -5098,14 +5347,14 @@
       <c r="BX20" s="2"/>
       <c r="BY20" s="2"/>
       <c r="BZ20" s="2"/>
-      <c r="CA20" s="2"/>
-      <c r="CB20" s="2"/>
-      <c r="CC20" s="2"/>
-      <c r="CD20" s="2"/>
-      <c r="CE20" s="2"/>
-      <c r="CF20" s="2"/>
-      <c r="CG20" s="2"/>
-      <c r="CH20" s="2"/>
+      <c r="CA20" s="103"/>
+      <c r="CB20" s="103"/>
+      <c r="CC20" s="103"/>
+      <c r="CD20" s="103"/>
+      <c r="CE20" s="103"/>
+      <c r="CF20" s="103"/>
+      <c r="CG20" s="103"/>
+      <c r="CH20" s="103"/>
       <c r="CI20" s="2"/>
       <c r="CJ20" s="2"/>
       <c r="CK20" s="2"/>
@@ -5132,22 +5381,22 @@
       <c r="DF20" s="2"/>
     </row>
     <row r="21" spans="1:110" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="105">
+      <c r="C21" s="57">
         <v>0.7</v>
       </c>
-      <c r="D21" s="105">
+      <c r="D21" s="57">
         <v>0.05</v>
       </c>
-      <c r="E21" s="105">
+      <c r="E21" s="57">
         <v>0.25</v>
       </c>
-      <c r="F21" s="80"/>
+      <c r="F21" s="126"/>
       <c r="G21" s="10">
         <v>1</v>
       </c>
@@ -5262,48 +5511,68 @@
       <c r="AR21" s="10">
         <v>38</v>
       </c>
-      <c r="AS21" s="12"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="2"/>
-      <c r="AV21" s="2"/>
-      <c r="AW21" s="2"/>
-      <c r="AX21" s="2"/>
-      <c r="AY21" s="2"/>
-      <c r="AZ21" s="2"/>
-      <c r="BA21" s="2"/>
-      <c r="BB21" s="2"/>
-      <c r="BC21" s="2"/>
-      <c r="BD21" s="2"/>
-      <c r="BE21" s="2"/>
-      <c r="BF21" s="47"/>
+      <c r="AS21" s="103"/>
+      <c r="AT21" s="103"/>
+      <c r="AU21" s="103"/>
+      <c r="AV21" s="103"/>
+      <c r="AW21" s="103"/>
+      <c r="AX21" s="103"/>
+      <c r="AY21" s="103"/>
+      <c r="AZ21" s="103"/>
+      <c r="BA21" s="103"/>
+      <c r="BB21" s="103"/>
+      <c r="BC21" s="103"/>
+      <c r="BD21" s="103"/>
+      <c r="BE21" s="103"/>
+      <c r="BF21" s="104"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
       <c r="BI21" s="2"/>
       <c r="BJ21" s="2"/>
-      <c r="BK21" s="2"/>
-      <c r="BL21" s="2"/>
-      <c r="BM21" s="2"/>
-      <c r="BN21" s="2"/>
+      <c r="BK21" s="10">
+        <v>1</v>
+      </c>
+      <c r="BL21" s="10">
+        <v>2</v>
+      </c>
+      <c r="BM21" s="10">
+        <v>3</v>
+      </c>
+      <c r="BN21" s="10">
+        <v>4</v>
+      </c>
       <c r="BO21" s="2"/>
       <c r="BP21" s="2"/>
-      <c r="BQ21" s="2"/>
-      <c r="BR21" s="2"/>
-      <c r="BS21" s="2"/>
-      <c r="BT21" s="2"/>
-      <c r="BU21" s="2"/>
-      <c r="BV21" s="2"/>
+      <c r="BQ21" s="10">
+        <v>1</v>
+      </c>
+      <c r="BR21" s="10">
+        <v>2</v>
+      </c>
+      <c r="BS21" s="10">
+        <v>3</v>
+      </c>
+      <c r="BT21" s="10">
+        <v>4</v>
+      </c>
+      <c r="BU21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BV21" s="10">
+        <v>6</v>
+      </c>
       <c r="BW21" s="2"/>
       <c r="BX21" s="2"/>
       <c r="BY21" s="2"/>
       <c r="BZ21" s="2"/>
-      <c r="CA21" s="2"/>
-      <c r="CB21" s="2"/>
-      <c r="CC21" s="2"/>
-      <c r="CD21" s="2"/>
-      <c r="CE21" s="2"/>
-      <c r="CF21" s="2"/>
-      <c r="CG21" s="2"/>
-      <c r="CH21" s="2"/>
+      <c r="CA21" s="103"/>
+      <c r="CB21" s="103"/>
+      <c r="CC21" s="103"/>
+      <c r="CD21" s="103"/>
+      <c r="CE21" s="103"/>
+      <c r="CF21" s="103"/>
+      <c r="CG21" s="103"/>
+      <c r="CH21" s="103"/>
       <c r="CI21" s="2"/>
       <c r="CJ21" s="2"/>
       <c r="CK21" s="2"/>
@@ -5330,22 +5599,22 @@
       <c r="DF21" s="2"/>
     </row>
     <row r="22" spans="1:110" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="106">
+      <c r="C22" s="58">
         <v>0.7</v>
       </c>
-      <c r="D22" s="106">
+      <c r="D22" s="58">
         <v>0.05</v>
       </c>
-      <c r="E22" s="106">
+      <c r="E22" s="58">
         <v>0.25</v>
       </c>
-      <c r="F22" s="80"/>
+      <c r="F22" s="126"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -5384,60 +5653,68 @@
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2"/>
-      <c r="AS22" s="2"/>
-      <c r="AT22" s="2"/>
-      <c r="AU22" s="2"/>
-      <c r="AV22" s="2"/>
-      <c r="AW22" s="2"/>
-      <c r="AX22" s="2"/>
-      <c r="AY22" s="2"/>
-      <c r="AZ22" s="2"/>
-      <c r="BA22" s="2"/>
-      <c r="BB22" s="2"/>
-      <c r="BC22" s="2"/>
-      <c r="BD22" s="2"/>
-      <c r="BE22" s="2"/>
-      <c r="BF22" s="47"/>
+      <c r="AS22" s="103"/>
+      <c r="AT22" s="103"/>
+      <c r="AU22" s="103"/>
+      <c r="AV22" s="103"/>
+      <c r="AW22" s="103"/>
+      <c r="AX22" s="103"/>
+      <c r="AY22" s="103"/>
+      <c r="AZ22" s="103"/>
+      <c r="BA22" s="103"/>
+      <c r="BB22" s="103"/>
+      <c r="BC22" s="103"/>
+      <c r="BD22" s="103"/>
+      <c r="BE22" s="103"/>
+      <c r="BF22" s="104"/>
       <c r="BG22" s="2"/>
       <c r="BH22" s="2"/>
       <c r="BI22" s="2"/>
       <c r="BJ22" s="2"/>
-      <c r="BK22" s="2"/>
-      <c r="BL22" s="2"/>
-      <c r="BM22" s="2"/>
-      <c r="BN22" s="2"/>
+      <c r="BK22" s="10">
+        <v>1</v>
+      </c>
+      <c r="BL22" s="10">
+        <v>2</v>
+      </c>
+      <c r="BM22" s="10">
+        <v>3</v>
+      </c>
+      <c r="BN22" s="10">
+        <v>4</v>
+      </c>
       <c r="BO22" s="2"/>
       <c r="BP22" s="2"/>
-      <c r="BQ22" s="2"/>
-      <c r="BR22" s="2"/>
+      <c r="BQ22" s="10">
+        <v>1</v>
+      </c>
+      <c r="BR22" s="10">
+        <v>2</v>
+      </c>
       <c r="BS22" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BT22" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BU22" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BV22" s="10">
-        <v>4</v>
-      </c>
-      <c r="BW22" s="10">
-        <v>5</v>
-      </c>
-      <c r="BX22" s="10">
         <v>6</v>
       </c>
+      <c r="BW22" s="12"/>
+      <c r="BX22" s="12"/>
       <c r="BY22" s="2"/>
       <c r="BZ22" s="2"/>
-      <c r="CA22" s="2"/>
-      <c r="CB22" s="2"/>
-      <c r="CC22" s="2"/>
-      <c r="CD22" s="2"/>
-      <c r="CE22" s="2"/>
-      <c r="CF22" s="2"/>
-      <c r="CG22" s="2"/>
-      <c r="CH22" s="2"/>
+      <c r="CA22" s="103"/>
+      <c r="CB22" s="103"/>
+      <c r="CC22" s="103"/>
+      <c r="CD22" s="103"/>
+      <c r="CE22" s="103"/>
+      <c r="CF22" s="103"/>
+      <c r="CG22" s="103"/>
+      <c r="CH22" s="103"/>
       <c r="CI22" s="2"/>
       <c r="CJ22" s="2"/>
       <c r="CK22" s="2"/>
@@ -5464,22 +5741,22 @@
       <c r="DF22" s="2"/>
     </row>
     <row r="23" spans="1:110" ht="126" x14ac:dyDescent="0.25">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="104">
+      <c r="C23" s="56">
         <v>0.4</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="56">
         <v>0.2</v>
       </c>
-      <c r="E23" s="104">
+      <c r="E23" s="56">
         <v>0.4</v>
       </c>
-      <c r="F23" s="80"/>
+      <c r="F23" s="126"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -5494,18 +5771,42 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
+      <c r="U23" s="10">
+        <v>1</v>
+      </c>
+      <c r="V23" s="10">
+        <v>2</v>
+      </c>
+      <c r="W23" s="10">
+        <v>3</v>
+      </c>
+      <c r="X23" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="10">
+        <v>8</v>
+      </c>
+      <c r="AC23" s="10">
+        <v>9</v>
+      </c>
+      <c r="AD23" s="10">
+        <v>10</v>
+      </c>
+      <c r="AE23" s="10">
+        <v>11</v>
+      </c>
+      <c r="AF23" s="10">
+        <v>12</v>
+      </c>
       <c r="AG23" s="12"/>
       <c r="AH23" s="12"/>
       <c r="AI23" s="10">
@@ -5534,20 +5835,20 @@
       </c>
       <c r="AQ23" s="2"/>
       <c r="AR23" s="2"/>
-      <c r="AS23" s="2"/>
-      <c r="AT23" s="2"/>
-      <c r="AU23" s="2"/>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="2"/>
-      <c r="AY23" s="2"/>
-      <c r="AZ23" s="2"/>
-      <c r="BA23" s="2"/>
-      <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
-      <c r="BD23" s="2"/>
-      <c r="BE23" s="2"/>
-      <c r="BF23" s="47"/>
+      <c r="AS23" s="103"/>
+      <c r="AT23" s="103"/>
+      <c r="AU23" s="103"/>
+      <c r="AV23" s="103"/>
+      <c r="AW23" s="103"/>
+      <c r="AX23" s="103"/>
+      <c r="AY23" s="103"/>
+      <c r="AZ23" s="103"/>
+      <c r="BA23" s="103"/>
+      <c r="BB23" s="103"/>
+      <c r="BC23" s="103"/>
+      <c r="BD23" s="103"/>
+      <c r="BE23" s="103"/>
+      <c r="BF23" s="104"/>
       <c r="BG23" s="2"/>
       <c r="BH23" s="2"/>
       <c r="BI23" s="2"/>
@@ -5580,14 +5881,14 @@
       <c r="BX23" s="2"/>
       <c r="BY23" s="2"/>
       <c r="BZ23" s="2"/>
-      <c r="CA23" s="2"/>
-      <c r="CB23" s="2"/>
-      <c r="CC23" s="2"/>
-      <c r="CD23" s="2"/>
-      <c r="CE23" s="2"/>
-      <c r="CF23" s="2"/>
-      <c r="CG23" s="2"/>
-      <c r="CH23" s="2"/>
+      <c r="CA23" s="103"/>
+      <c r="CB23" s="103"/>
+      <c r="CC23" s="103"/>
+      <c r="CD23" s="103"/>
+      <c r="CE23" s="103"/>
+      <c r="CF23" s="103"/>
+      <c r="CG23" s="103"/>
+      <c r="CH23" s="103"/>
       <c r="CI23" s="2"/>
       <c r="CJ23" s="2"/>
       <c r="CK23" s="2"/>
@@ -5614,22 +5915,22 @@
       <c r="DF23" s="2"/>
     </row>
     <row r="24" spans="1:110" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="34">
         <v>0.3</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="34">
         <v>0.5</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="34">
         <v>0.2</v>
       </c>
-      <c r="F24" s="80"/>
+      <c r="F24" s="126"/>
       <c r="G24" s="10">
         <v>1</v>
       </c>
@@ -5666,42 +5967,18 @@
       <c r="R24" s="10">
         <v>12</v>
       </c>
-      <c r="S24" s="10">
-        <v>13</v>
-      </c>
-      <c r="T24" s="10">
-        <v>14</v>
-      </c>
-      <c r="U24" s="10">
-        <v>15</v>
-      </c>
-      <c r="V24" s="10">
-        <v>16</v>
-      </c>
-      <c r="W24" s="10">
-        <v>17</v>
-      </c>
-      <c r="X24" s="10">
-        <v>18</v>
-      </c>
-      <c r="Y24" s="10">
-        <v>19</v>
-      </c>
-      <c r="Z24" s="10">
-        <v>20</v>
-      </c>
-      <c r="AA24" s="10">
-        <v>21</v>
-      </c>
-      <c r="AB24" s="10">
-        <v>22</v>
-      </c>
-      <c r="AC24" s="10">
-        <v>23</v>
-      </c>
-      <c r="AD24" s="10">
-        <v>24</v>
-      </c>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
@@ -5716,48 +5993,68 @@
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2"/>
       <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="2"/>
-      <c r="AU24" s="2"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="2"/>
-      <c r="BF24" s="47"/>
+      <c r="AS24" s="103"/>
+      <c r="AT24" s="103"/>
+      <c r="AU24" s="103"/>
+      <c r="AV24" s="103"/>
+      <c r="AW24" s="103"/>
+      <c r="AX24" s="103"/>
+      <c r="AY24" s="103"/>
+      <c r="AZ24" s="103"/>
+      <c r="BA24" s="103"/>
+      <c r="BB24" s="103"/>
+      <c r="BC24" s="103"/>
+      <c r="BD24" s="103"/>
+      <c r="BE24" s="103"/>
+      <c r="BF24" s="104"/>
       <c r="BG24" s="2"/>
       <c r="BH24" s="2"/>
       <c r="BI24" s="2"/>
       <c r="BJ24" s="2"/>
-      <c r="BK24" s="2"/>
-      <c r="BL24" s="2"/>
-      <c r="BM24" s="2"/>
-      <c r="BN24" s="2"/>
+      <c r="BK24" s="10">
+        <v>1</v>
+      </c>
+      <c r="BL24" s="10">
+        <v>2</v>
+      </c>
+      <c r="BM24" s="10">
+        <v>3</v>
+      </c>
+      <c r="BN24" s="10">
+        <v>4</v>
+      </c>
       <c r="BO24" s="2"/>
       <c r="BP24" s="2"/>
-      <c r="BQ24" s="2"/>
-      <c r="BR24" s="2"/>
-      <c r="BS24" s="2"/>
-      <c r="BT24" s="2"/>
-      <c r="BU24" s="2"/>
-      <c r="BV24" s="2"/>
+      <c r="BQ24" s="10">
+        <v>1</v>
+      </c>
+      <c r="BR24" s="10">
+        <v>2</v>
+      </c>
+      <c r="BS24" s="10">
+        <v>3</v>
+      </c>
+      <c r="BT24" s="10">
+        <v>4</v>
+      </c>
+      <c r="BU24" s="10">
+        <v>5</v>
+      </c>
+      <c r="BV24" s="10">
+        <v>6</v>
+      </c>
       <c r="BW24" s="2"/>
       <c r="BX24" s="2"/>
       <c r="BY24" s="2"/>
       <c r="BZ24" s="2"/>
-      <c r="CA24" s="2"/>
-      <c r="CB24" s="2"/>
-      <c r="CC24" s="2"/>
-      <c r="CD24" s="2"/>
-      <c r="CE24" s="2"/>
-      <c r="CF24" s="2"/>
-      <c r="CG24" s="2"/>
-      <c r="CH24" s="2"/>
+      <c r="CA24" s="103"/>
+      <c r="CB24" s="103"/>
+      <c r="CC24" s="103"/>
+      <c r="CD24" s="103"/>
+      <c r="CE24" s="103"/>
+      <c r="CF24" s="103"/>
+      <c r="CG24" s="103"/>
+      <c r="CH24" s="103"/>
       <c r="CI24" s="2"/>
       <c r="CJ24" s="2"/>
       <c r="CK24" s="2"/>
@@ -5784,22 +6081,22 @@
       <c r="DF24" s="2"/>
     </row>
     <row r="25" spans="1:110" ht="126" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="40">
         <v>0.4</v>
       </c>
-      <c r="D25" s="84">
+      <c r="D25" s="40">
         <v>0.2</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="40">
         <v>0.4</v>
       </c>
-      <c r="F25" s="85"/>
+      <c r="F25" s="127"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -5812,18 +6109,42 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
+      <c r="S25" s="10">
+        <v>1</v>
+      </c>
+      <c r="T25" s="10">
+        <v>2</v>
+      </c>
+      <c r="U25" s="10">
+        <v>3</v>
+      </c>
+      <c r="V25" s="10">
+        <v>4</v>
+      </c>
+      <c r="W25" s="10">
+        <v>5</v>
+      </c>
+      <c r="X25" s="10">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>7</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>8</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>9</v>
+      </c>
+      <c r="AB25" s="10">
+        <v>10</v>
+      </c>
+      <c r="AC25" s="10">
+        <v>11</v>
+      </c>
+      <c r="AD25" s="10">
+        <v>12</v>
+      </c>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -5838,53 +6159,43 @@
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="2"/>
-      <c r="AU25" s="2"/>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
-      <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="2"/>
-      <c r="BC25" s="2"/>
-      <c r="BD25" s="2"/>
-      <c r="BE25" s="2"/>
-      <c r="BF25" s="47"/>
+      <c r="AS25" s="103"/>
+      <c r="AT25" s="103"/>
+      <c r="AU25" s="103"/>
+      <c r="AV25" s="103"/>
+      <c r="AW25" s="103"/>
+      <c r="AX25" s="103"/>
+      <c r="AY25" s="103"/>
+      <c r="AZ25" s="103"/>
+      <c r="BA25" s="103"/>
+      <c r="BB25" s="103"/>
+      <c r="BC25" s="103"/>
+      <c r="BD25" s="103"/>
+      <c r="BE25" s="103"/>
+      <c r="BF25" s="104"/>
       <c r="BG25" s="12"/>
-      <c r="BH25" s="10">
+      <c r="BH25" s="12"/>
+      <c r="BI25" s="12"/>
+      <c r="BJ25" s="12"/>
+      <c r="BK25" s="12"/>
+      <c r="BL25" s="12"/>
+      <c r="BM25" s="10">
         <v>1</v>
       </c>
-      <c r="BI25" s="10">
+      <c r="BN25" s="10">
         <v>2</v>
       </c>
-      <c r="BJ25" s="10">
+      <c r="BO25" s="10">
         <v>3</v>
       </c>
-      <c r="BK25" s="10">
+      <c r="BP25" s="10">
         <v>4</v>
       </c>
-      <c r="BL25" s="10">
+      <c r="BQ25" s="10">
         <v>5</v>
       </c>
-      <c r="BM25" s="10">
+      <c r="BR25" s="10">
         <v>6</v>
-      </c>
-      <c r="BN25" s="10">
-        <v>7</v>
-      </c>
-      <c r="BO25" s="10">
-        <v>8</v>
-      </c>
-      <c r="BP25" s="10">
-        <v>9</v>
-      </c>
-      <c r="BQ25" s="10">
-        <v>10</v>
-      </c>
-      <c r="BR25" s="10">
-        <v>11</v>
       </c>
       <c r="BS25" s="2"/>
       <c r="BT25" s="2"/>
@@ -5894,14 +6205,14 @@
       <c r="BX25" s="2"/>
       <c r="BY25" s="2"/>
       <c r="BZ25" s="2"/>
-      <c r="CA25" s="2"/>
-      <c r="CB25" s="2"/>
-      <c r="CC25" s="2"/>
-      <c r="CD25" s="2"/>
-      <c r="CE25" s="2"/>
-      <c r="CF25" s="2"/>
-      <c r="CG25" s="2"/>
-      <c r="CH25" s="2"/>
+      <c r="CA25" s="103"/>
+      <c r="CB25" s="103"/>
+      <c r="CC25" s="103"/>
+      <c r="CD25" s="103"/>
+      <c r="CE25" s="103"/>
+      <c r="CF25" s="103"/>
+      <c r="CG25" s="103"/>
+      <c r="CH25" s="103"/>
       <c r="CI25" s="2"/>
       <c r="CJ25" s="2"/>
       <c r="CK25" s="2"/>
@@ -5928,71 +6239,71 @@
       <c r="DF25" s="2"/>
     </row>
     <row r="26" spans="1:110" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="107" t="s">
+      <c r="A26" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="111" t="s">
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="168"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="169"/>
-      <c r="K26" s="169"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="169"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="169"/>
-      <c r="P26" s="169"/>
-      <c r="Q26" s="169"/>
-      <c r="R26" s="169"/>
-      <c r="S26" s="169"/>
-      <c r="T26" s="169"/>
-      <c r="U26" s="169"/>
-      <c r="V26" s="169"/>
-      <c r="W26" s="169"/>
-      <c r="X26" s="169"/>
-      <c r="Y26" s="169"/>
-      <c r="Z26" s="169"/>
-      <c r="AA26" s="169"/>
-      <c r="AB26" s="169"/>
-      <c r="AC26" s="169"/>
-      <c r="AD26" s="169"/>
-      <c r="AE26" s="169"/>
-      <c r="AF26" s="169"/>
-      <c r="AG26" s="169"/>
-      <c r="AH26" s="169"/>
-      <c r="AI26" s="169"/>
-      <c r="AJ26" s="169"/>
-      <c r="AK26" s="169"/>
-      <c r="AL26" s="169"/>
-      <c r="AM26" s="169"/>
-      <c r="AN26" s="169"/>
-      <c r="AO26" s="169"/>
-      <c r="AP26" s="169"/>
-      <c r="AQ26" s="169"/>
-      <c r="AR26" s="169"/>
-      <c r="AS26" s="169"/>
-      <c r="AT26" s="169"/>
-      <c r="AU26" s="169"/>
-      <c r="AV26" s="169"/>
-      <c r="AW26" s="169"/>
-      <c r="AX26" s="169"/>
-      <c r="AY26" s="169"/>
-      <c r="AZ26" s="169"/>
-      <c r="BA26" s="169"/>
-      <c r="BB26" s="169"/>
-      <c r="BC26" s="169"/>
-      <c r="BD26" s="169"/>
-      <c r="BE26" s="169"/>
-      <c r="BF26" s="169"/>
-      <c r="BG26" s="170"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="100"/>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="100"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="100"/>
+      <c r="AH26" s="100"/>
+      <c r="AI26" s="100"/>
+      <c r="AJ26" s="100"/>
+      <c r="AK26" s="100"/>
+      <c r="AL26" s="100"/>
+      <c r="AM26" s="100"/>
+      <c r="AN26" s="100"/>
+      <c r="AO26" s="100"/>
+      <c r="AP26" s="100"/>
+      <c r="AQ26" s="100"/>
+      <c r="AR26" s="100"/>
+      <c r="AS26" s="100"/>
+      <c r="AT26" s="100"/>
+      <c r="AU26" s="100"/>
+      <c r="AV26" s="100"/>
+      <c r="AW26" s="100"/>
+      <c r="AX26" s="100"/>
+      <c r="AY26" s="100"/>
+      <c r="AZ26" s="100"/>
+      <c r="BA26" s="100"/>
+      <c r="BB26" s="100"/>
+      <c r="BC26" s="100"/>
+      <c r="BD26" s="100"/>
+      <c r="BE26" s="100"/>
+      <c r="BF26" s="100"/>
+      <c r="BG26" s="101"/>
       <c r="BH26" s="2"/>
       <c r="BI26" s="2"/>
       <c r="BJ26" s="2"/>
@@ -6012,14 +6323,14 @@
       <c r="BX26" s="2"/>
       <c r="BY26" s="2"/>
       <c r="BZ26" s="2"/>
-      <c r="CA26" s="2"/>
-      <c r="CB26" s="2"/>
-      <c r="CC26" s="2"/>
-      <c r="CD26" s="2"/>
-      <c r="CE26" s="2"/>
-      <c r="CF26" s="2"/>
-      <c r="CG26" s="2"/>
-      <c r="CH26" s="2"/>
+      <c r="CA26" s="103"/>
+      <c r="CB26" s="103"/>
+      <c r="CC26" s="103"/>
+      <c r="CD26" s="103"/>
+      <c r="CE26" s="103"/>
+      <c r="CF26" s="103"/>
+      <c r="CG26" s="103"/>
+      <c r="CH26" s="103"/>
       <c r="CI26" s="2"/>
       <c r="CJ26" s="2"/>
       <c r="CK26" s="2"/>
@@ -6046,60 +6357,60 @@
       <c r="DF26" s="2"/>
     </row>
     <row r="27" spans="1:110" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="114">
+      <c r="C27" s="65">
         <v>0.4</v>
       </c>
-      <c r="D27" s="114">
+      <c r="D27" s="65">
         <v>0.4</v>
       </c>
-      <c r="E27" s="114">
+      <c r="E27" s="65">
         <v>0.2</v>
       </c>
-      <c r="F27" s="115"/>
+      <c r="F27" s="123"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="122">
+      <c r="K27" s="71">
         <v>1</v>
       </c>
-      <c r="L27" s="122">
+      <c r="L27" s="71">
         <v>2</v>
       </c>
-      <c r="M27" s="122">
+      <c r="M27" s="71">
         <v>3</v>
       </c>
-      <c r="N27" s="122">
+      <c r="N27" s="71">
         <v>4</v>
       </c>
-      <c r="O27" s="122">
+      <c r="O27" s="71">
         <v>5</v>
       </c>
-      <c r="P27" s="122">
+      <c r="P27" s="71">
         <v>6</v>
       </c>
-      <c r="Q27" s="122">
+      <c r="Q27" s="71">
         <v>7</v>
       </c>
-      <c r="R27" s="122">
+      <c r="R27" s="71">
         <v>8</v>
       </c>
-      <c r="S27" s="122">
+      <c r="S27" s="71">
         <v>9</v>
       </c>
-      <c r="T27" s="122">
+      <c r="T27" s="71">
         <v>10</v>
       </c>
-      <c r="U27" s="122">
+      <c r="U27" s="71">
         <v>11</v>
       </c>
-      <c r="V27" s="122">
+      <c r="V27" s="71">
         <v>12</v>
       </c>
       <c r="W27" s="2"/>
@@ -6124,48 +6435,68 @@
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
-      <c r="AS27" s="2"/>
-      <c r="AT27" s="2"/>
-      <c r="AU27" s="2"/>
-      <c r="AV27" s="2"/>
-      <c r="AW27" s="2"/>
-      <c r="AX27" s="2"/>
-      <c r="AY27" s="2"/>
-      <c r="AZ27" s="2"/>
-      <c r="BA27" s="2"/>
-      <c r="BB27" s="2"/>
-      <c r="BC27" s="2"/>
-      <c r="BD27" s="2"/>
-      <c r="BE27" s="2"/>
-      <c r="BF27" s="47"/>
+      <c r="AS27" s="103"/>
+      <c r="AT27" s="103"/>
+      <c r="AU27" s="103"/>
+      <c r="AV27" s="103"/>
+      <c r="AW27" s="103"/>
+      <c r="AX27" s="103"/>
+      <c r="AY27" s="103"/>
+      <c r="AZ27" s="103"/>
+      <c r="BA27" s="103"/>
+      <c r="BB27" s="103"/>
+      <c r="BC27" s="103"/>
+      <c r="BD27" s="103"/>
+      <c r="BE27" s="103"/>
+      <c r="BF27" s="104"/>
       <c r="BG27" s="2"/>
       <c r="BH27" s="2"/>
       <c r="BI27" s="2"/>
       <c r="BJ27" s="2"/>
-      <c r="BK27" s="2"/>
-      <c r="BL27" s="2"/>
-      <c r="BM27" s="2"/>
-      <c r="BN27" s="2"/>
+      <c r="BK27" s="179">
+        <v>1</v>
+      </c>
+      <c r="BL27" s="179">
+        <v>2</v>
+      </c>
+      <c r="BM27" s="179">
+        <v>3</v>
+      </c>
+      <c r="BN27" s="179">
+        <v>4</v>
+      </c>
       <c r="BO27" s="2"/>
       <c r="BP27" s="2"/>
-      <c r="BQ27" s="2"/>
-      <c r="BR27" s="2"/>
-      <c r="BS27" s="2"/>
-      <c r="BT27" s="2"/>
-      <c r="BU27" s="2"/>
-      <c r="BV27" s="2"/>
+      <c r="BQ27" s="179">
+        <v>1</v>
+      </c>
+      <c r="BR27" s="179">
+        <v>2</v>
+      </c>
+      <c r="BS27" s="179">
+        <v>3</v>
+      </c>
+      <c r="BT27" s="179">
+        <v>4</v>
+      </c>
+      <c r="BU27" s="179">
+        <v>5</v>
+      </c>
+      <c r="BV27" s="179">
+        <v>6</v>
+      </c>
       <c r="BW27" s="2"/>
       <c r="BX27" s="2"/>
       <c r="BY27" s="2"/>
       <c r="BZ27" s="2"/>
-      <c r="CA27" s="2"/>
-      <c r="CB27" s="2"/>
-      <c r="CC27" s="2"/>
-      <c r="CD27" s="2"/>
-      <c r="CE27" s="2"/>
-      <c r="CF27" s="2"/>
-      <c r="CG27" s="2"/>
-      <c r="CH27" s="2"/>
+      <c r="CA27" s="103"/>
+      <c r="CB27" s="103"/>
+      <c r="CC27" s="103"/>
+      <c r="CD27" s="103"/>
+      <c r="CE27" s="103"/>
+      <c r="CF27" s="103"/>
+      <c r="CG27" s="103"/>
+      <c r="CH27" s="103"/>
       <c r="CI27" s="2"/>
       <c r="CJ27" s="2"/>
       <c r="CK27" s="2"/>
@@ -6192,60 +6523,60 @@
       <c r="DF27" s="2"/>
     </row>
     <row r="28" spans="1:110" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="112" t="s">
+      <c r="A28" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="113" t="s">
+      <c r="B28" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="114">
+      <c r="C28" s="65">
         <v>0.4</v>
       </c>
-      <c r="D28" s="114">
+      <c r="D28" s="65">
         <v>0.4</v>
       </c>
-      <c r="E28" s="114">
+      <c r="E28" s="65">
         <v>0.2</v>
       </c>
-      <c r="F28" s="115"/>
+      <c r="F28" s="123"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="122">
+      <c r="K28" s="71">
         <v>1</v>
       </c>
-      <c r="L28" s="122">
+      <c r="L28" s="71">
         <v>2</v>
       </c>
-      <c r="M28" s="122">
+      <c r="M28" s="71">
         <v>3</v>
       </c>
-      <c r="N28" s="122">
+      <c r="N28" s="71">
         <v>4</v>
       </c>
-      <c r="O28" s="122">
+      <c r="O28" s="71">
         <v>5</v>
       </c>
-      <c r="P28" s="122">
+      <c r="P28" s="71">
         <v>6</v>
       </c>
-      <c r="Q28" s="122">
+      <c r="Q28" s="71">
         <v>7</v>
       </c>
-      <c r="R28" s="122">
+      <c r="R28" s="71">
         <v>8</v>
       </c>
-      <c r="S28" s="122">
+      <c r="S28" s="71">
         <v>9</v>
       </c>
-      <c r="T28" s="122">
+      <c r="T28" s="71">
         <v>10</v>
       </c>
-      <c r="U28" s="122">
+      <c r="U28" s="71">
         <v>11</v>
       </c>
-      <c r="V28" s="122">
+      <c r="V28" s="71">
         <v>12</v>
       </c>
       <c r="W28" s="2"/>
@@ -6270,48 +6601,68 @@
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
-      <c r="AS28" s="2"/>
-      <c r="AT28" s="2"/>
-      <c r="AU28" s="2"/>
-      <c r="AV28" s="2"/>
-      <c r="AW28" s="2"/>
-      <c r="AX28" s="2"/>
-      <c r="AY28" s="2"/>
-      <c r="AZ28" s="2"/>
-      <c r="BA28" s="2"/>
-      <c r="BB28" s="2"/>
-      <c r="BC28" s="2"/>
-      <c r="BD28" s="2"/>
-      <c r="BE28" s="2"/>
-      <c r="BF28" s="47"/>
+      <c r="AS28" s="103"/>
+      <c r="AT28" s="103"/>
+      <c r="AU28" s="103"/>
+      <c r="AV28" s="103"/>
+      <c r="AW28" s="103"/>
+      <c r="AX28" s="103"/>
+      <c r="AY28" s="103"/>
+      <c r="AZ28" s="103"/>
+      <c r="BA28" s="103"/>
+      <c r="BB28" s="103"/>
+      <c r="BC28" s="103"/>
+      <c r="BD28" s="103"/>
+      <c r="BE28" s="103"/>
+      <c r="BF28" s="104"/>
       <c r="BG28" s="2"/>
       <c r="BH28" s="2"/>
       <c r="BI28" s="2"/>
       <c r="BJ28" s="2"/>
-      <c r="BK28" s="2"/>
-      <c r="BL28" s="2"/>
-      <c r="BM28" s="2"/>
-      <c r="BN28" s="2"/>
+      <c r="BK28" s="179">
+        <v>1</v>
+      </c>
+      <c r="BL28" s="179">
+        <v>2</v>
+      </c>
+      <c r="BM28" s="179">
+        <v>3</v>
+      </c>
+      <c r="BN28" s="179">
+        <v>4</v>
+      </c>
       <c r="BO28" s="2"/>
       <c r="BP28" s="2"/>
-      <c r="BQ28" s="2"/>
-      <c r="BR28" s="2"/>
-      <c r="BS28" s="2"/>
-      <c r="BT28" s="2"/>
-      <c r="BU28" s="2"/>
-      <c r="BV28" s="2"/>
+      <c r="BQ28" s="179">
+        <v>1</v>
+      </c>
+      <c r="BR28" s="179">
+        <v>2</v>
+      </c>
+      <c r="BS28" s="179">
+        <v>3</v>
+      </c>
+      <c r="BT28" s="179">
+        <v>4</v>
+      </c>
+      <c r="BU28" s="179">
+        <v>5</v>
+      </c>
+      <c r="BV28" s="179">
+        <v>6</v>
+      </c>
       <c r="BW28" s="2"/>
       <c r="BX28" s="2"/>
       <c r="BY28" s="2"/>
       <c r="BZ28" s="2"/>
-      <c r="CA28" s="2"/>
-      <c r="CB28" s="2"/>
-      <c r="CC28" s="2"/>
-      <c r="CD28" s="2"/>
-      <c r="CE28" s="2"/>
-      <c r="CF28" s="2"/>
-      <c r="CG28" s="2"/>
-      <c r="CH28" s="2"/>
+      <c r="CA28" s="103"/>
+      <c r="CB28" s="103"/>
+      <c r="CC28" s="103"/>
+      <c r="CD28" s="103"/>
+      <c r="CE28" s="103"/>
+      <c r="CF28" s="103"/>
+      <c r="CG28" s="103"/>
+      <c r="CH28" s="103"/>
       <c r="CI28" s="2"/>
       <c r="CJ28" s="2"/>
       <c r="CK28" s="2"/>
@@ -6338,22 +6689,22 @@
       <c r="DF28" s="2"/>
     </row>
     <row r="29" spans="1:110" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="116" t="s">
+      <c r="A29" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="114">
+      <c r="C29" s="65">
         <v>0.4</v>
       </c>
-      <c r="D29" s="114">
+      <c r="D29" s="65">
         <v>0.4</v>
       </c>
-      <c r="E29" s="114">
+      <c r="E29" s="65">
         <v>0.2</v>
       </c>
-      <c r="F29" s="115"/>
+      <c r="F29" s="123"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -6390,58 +6741,78 @@
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
-      <c r="AQ29" s="122">
+      <c r="AQ29" s="71">
         <v>1</v>
       </c>
-      <c r="AR29" s="122">
+      <c r="AR29" s="71">
         <v>2</v>
       </c>
-      <c r="AS29" s="122">
+      <c r="AS29" s="71">
         <v>3</v>
       </c>
-      <c r="AT29" s="122">
+      <c r="AT29" s="71">
         <v>4</v>
       </c>
-      <c r="AU29" s="2"/>
-      <c r="AV29" s="2"/>
-      <c r="AW29" s="2"/>
-      <c r="AX29" s="2"/>
-      <c r="AY29" s="2"/>
-      <c r="AZ29" s="2"/>
-      <c r="BA29" s="2"/>
-      <c r="BB29" s="2"/>
-      <c r="BC29" s="2"/>
-      <c r="BD29" s="2"/>
-      <c r="BE29" s="2"/>
-      <c r="BF29" s="47"/>
+      <c r="AU29" s="103"/>
+      <c r="AV29" s="103"/>
+      <c r="AW29" s="103"/>
+      <c r="AX29" s="103"/>
+      <c r="AY29" s="103"/>
+      <c r="AZ29" s="103"/>
+      <c r="BA29" s="103"/>
+      <c r="BB29" s="103"/>
+      <c r="BC29" s="103"/>
+      <c r="BD29" s="103"/>
+      <c r="BE29" s="103"/>
+      <c r="BF29" s="104"/>
       <c r="BG29" s="2"/>
       <c r="BH29" s="2"/>
       <c r="BI29" s="2"/>
       <c r="BJ29" s="2"/>
-      <c r="BK29" s="2"/>
-      <c r="BL29" s="2"/>
-      <c r="BM29" s="2"/>
-      <c r="BN29" s="2"/>
+      <c r="BK29" s="179">
+        <v>1</v>
+      </c>
+      <c r="BL29" s="179">
+        <v>2</v>
+      </c>
+      <c r="BM29" s="179">
+        <v>3</v>
+      </c>
+      <c r="BN29" s="179">
+        <v>4</v>
+      </c>
       <c r="BO29" s="2"/>
       <c r="BP29" s="2"/>
-      <c r="BQ29" s="2"/>
-      <c r="BR29" s="2"/>
-      <c r="BS29" s="2"/>
-      <c r="BT29" s="2"/>
-      <c r="BU29" s="2"/>
-      <c r="BV29" s="2"/>
+      <c r="BQ29" s="179">
+        <v>1</v>
+      </c>
+      <c r="BR29" s="179">
+        <v>2</v>
+      </c>
+      <c r="BS29" s="179">
+        <v>3</v>
+      </c>
+      <c r="BT29" s="179">
+        <v>4</v>
+      </c>
+      <c r="BU29" s="179">
+        <v>5</v>
+      </c>
+      <c r="BV29" s="179">
+        <v>6</v>
+      </c>
       <c r="BW29" s="2"/>
       <c r="BX29" s="2"/>
       <c r="BY29" s="2"/>
       <c r="BZ29" s="2"/>
-      <c r="CA29" s="2"/>
-      <c r="CB29" s="2"/>
-      <c r="CC29" s="2"/>
-      <c r="CD29" s="2"/>
-      <c r="CE29" s="2"/>
-      <c r="CF29" s="2"/>
-      <c r="CG29" s="2"/>
-      <c r="CH29" s="2"/>
+      <c r="CA29" s="103"/>
+      <c r="CB29" s="103"/>
+      <c r="CC29" s="103"/>
+      <c r="CD29" s="103"/>
+      <c r="CE29" s="103"/>
+      <c r="CF29" s="103"/>
+      <c r="CG29" s="103"/>
+      <c r="CH29" s="103"/>
       <c r="CI29" s="2"/>
       <c r="CJ29" s="2"/>
       <c r="CK29" s="2"/>
@@ -6468,22 +6839,22 @@
       <c r="DF29" s="2"/>
     </row>
     <row r="30" spans="1:110" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="118" t="s">
+      <c r="A30" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="120">
+      <c r="C30" s="70">
         <v>0.4</v>
       </c>
-      <c r="D30" s="120">
+      <c r="D30" s="70">
         <v>0.4</v>
       </c>
-      <c r="E30" s="120">
+      <c r="E30" s="70">
         <v>0.2</v>
       </c>
-      <c r="F30" s="115"/>
+      <c r="F30" s="123"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -6500,40 +6871,40 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="12"/>
-      <c r="W30" s="122">
+      <c r="W30" s="71">
         <v>1</v>
       </c>
-      <c r="X30" s="122">
+      <c r="X30" s="71">
         <v>2</v>
       </c>
-      <c r="Y30" s="122">
+      <c r="Y30" s="71">
         <v>3</v>
       </c>
-      <c r="Z30" s="122">
+      <c r="Z30" s="71">
         <v>4</v>
       </c>
-      <c r="AA30" s="122">
+      <c r="AA30" s="71">
         <v>5</v>
       </c>
-      <c r="AB30" s="122">
+      <c r="AB30" s="71">
         <v>6</v>
       </c>
-      <c r="AC30" s="122">
+      <c r="AC30" s="71">
         <v>7</v>
       </c>
-      <c r="AD30" s="122">
+      <c r="AD30" s="71">
         <v>8</v>
       </c>
-      <c r="AE30" s="122">
+      <c r="AE30" s="71">
         <v>9</v>
       </c>
-      <c r="AF30" s="122">
+      <c r="AF30" s="71">
         <v>10</v>
       </c>
-      <c r="AG30" s="122">
+      <c r="AG30" s="71">
         <v>11</v>
       </c>
-      <c r="AH30" s="122">
+      <c r="AH30" s="71">
         <v>12</v>
       </c>
       <c r="AI30" s="2"/>
@@ -6546,48 +6917,68 @@
       <c r="AP30" s="2"/>
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
-      <c r="AS30" s="2"/>
-      <c r="AT30" s="2"/>
-      <c r="AU30" s="2"/>
-      <c r="AV30" s="2"/>
-      <c r="AW30" s="2"/>
-      <c r="AX30" s="2"/>
-      <c r="AY30" s="2"/>
-      <c r="AZ30" s="2"/>
-      <c r="BA30" s="2"/>
-      <c r="BB30" s="2"/>
-      <c r="BC30" s="2"/>
-      <c r="BD30" s="2"/>
-      <c r="BE30" s="2"/>
-      <c r="BF30" s="47"/>
+      <c r="AS30" s="103"/>
+      <c r="AT30" s="103"/>
+      <c r="AU30" s="103"/>
+      <c r="AV30" s="103"/>
+      <c r="AW30" s="103"/>
+      <c r="AX30" s="103"/>
+      <c r="AY30" s="103"/>
+      <c r="AZ30" s="103"/>
+      <c r="BA30" s="103"/>
+      <c r="BB30" s="103"/>
+      <c r="BC30" s="103"/>
+      <c r="BD30" s="103"/>
+      <c r="BE30" s="103"/>
+      <c r="BF30" s="104"/>
       <c r="BG30" s="2"/>
       <c r="BH30" s="2"/>
       <c r="BI30" s="2"/>
       <c r="BJ30" s="2"/>
-      <c r="BK30" s="2"/>
-      <c r="BL30" s="2"/>
-      <c r="BM30" s="2"/>
-      <c r="BN30" s="2"/>
+      <c r="BK30" s="179">
+        <v>1</v>
+      </c>
+      <c r="BL30" s="179">
+        <v>2</v>
+      </c>
+      <c r="BM30" s="179">
+        <v>3</v>
+      </c>
+      <c r="BN30" s="179">
+        <v>4</v>
+      </c>
       <c r="BO30" s="2"/>
       <c r="BP30" s="2"/>
-      <c r="BQ30" s="2"/>
-      <c r="BR30" s="2"/>
-      <c r="BS30" s="2"/>
-      <c r="BT30" s="2"/>
-      <c r="BU30" s="2"/>
-      <c r="BV30" s="2"/>
+      <c r="BQ30" s="179">
+        <v>1</v>
+      </c>
+      <c r="BR30" s="179">
+        <v>2</v>
+      </c>
+      <c r="BS30" s="179">
+        <v>3</v>
+      </c>
+      <c r="BT30" s="179">
+        <v>4</v>
+      </c>
+      <c r="BU30" s="179">
+        <v>5</v>
+      </c>
+      <c r="BV30" s="179">
+        <v>6</v>
+      </c>
       <c r="BW30" s="2"/>
       <c r="BX30" s="2"/>
       <c r="BY30" s="2"/>
       <c r="BZ30" s="2"/>
-      <c r="CA30" s="2"/>
-      <c r="CB30" s="2"/>
-      <c r="CC30" s="2"/>
-      <c r="CD30" s="2"/>
-      <c r="CE30" s="2"/>
-      <c r="CF30" s="2"/>
-      <c r="CG30" s="2"/>
-      <c r="CH30" s="2"/>
+      <c r="CA30" s="103"/>
+      <c r="CB30" s="103"/>
+      <c r="CC30" s="103"/>
+      <c r="CD30" s="103"/>
+      <c r="CE30" s="103"/>
+      <c r="CF30" s="103"/>
+      <c r="CG30" s="103"/>
+      <c r="CH30" s="103"/>
       <c r="CI30" s="2"/>
       <c r="CJ30" s="2"/>
       <c r="CK30" s="2"/>
@@ -6613,23 +7004,23 @@
       <c r="DE30" s="2"/>
       <c r="DF30" s="2"/>
     </row>
-    <row r="31" spans="1:110" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="116" t="s">
+    <row r="31" spans="1:110" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="113" t="s">
+      <c r="B31" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="114">
+      <c r="C31" s="65">
         <v>0.4</v>
       </c>
-      <c r="D31" s="114">
+      <c r="D31" s="65">
         <v>0.4</v>
       </c>
-      <c r="E31" s="114">
+      <c r="E31" s="65">
         <v>0.2</v>
       </c>
-      <c r="F31" s="121"/>
+      <c r="F31" s="124"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -6658,74 +7049,94 @@
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
-      <c r="AI31" s="171">
+      <c r="AI31" s="180">
         <v>1</v>
       </c>
-      <c r="AJ31" s="171">
+      <c r="AJ31" s="180">
         <v>2</v>
       </c>
-      <c r="AK31" s="171">
+      <c r="AK31" s="180">
         <v>3</v>
       </c>
-      <c r="AL31" s="171">
+      <c r="AL31" s="180">
         <v>4</v>
       </c>
-      <c r="AM31" s="171">
+      <c r="AM31" s="180">
         <v>5</v>
       </c>
-      <c r="AN31" s="171">
+      <c r="AN31" s="180">
         <v>6</v>
       </c>
-      <c r="AO31" s="171">
+      <c r="AO31" s="180">
         <v>7</v>
       </c>
-      <c r="AP31" s="171">
+      <c r="AP31" s="180">
         <v>8</v>
       </c>
-      <c r="AQ31" s="70"/>
-      <c r="AR31" s="70"/>
-      <c r="AS31" s="70"/>
-      <c r="AT31" s="70"/>
-      <c r="AU31" s="2"/>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AX31" s="2"/>
-      <c r="AY31" s="2"/>
-      <c r="AZ31" s="2"/>
-      <c r="BA31" s="2"/>
-      <c r="BB31" s="2"/>
-      <c r="BC31" s="2"/>
-      <c r="BD31" s="2"/>
-      <c r="BE31" s="2"/>
-      <c r="BF31" s="47"/>
+      <c r="AQ31" s="32"/>
+      <c r="AR31" s="32"/>
+      <c r="AS31" s="105"/>
+      <c r="AT31" s="105"/>
+      <c r="AU31" s="103"/>
+      <c r="AV31" s="103"/>
+      <c r="AW31" s="103"/>
+      <c r="AX31" s="103"/>
+      <c r="AY31" s="103"/>
+      <c r="AZ31" s="103"/>
+      <c r="BA31" s="103"/>
+      <c r="BB31" s="103"/>
+      <c r="BC31" s="103"/>
+      <c r="BD31" s="103"/>
+      <c r="BE31" s="103"/>
+      <c r="BF31" s="104"/>
       <c r="BG31" s="2"/>
       <c r="BH31" s="2"/>
       <c r="BI31" s="2"/>
       <c r="BJ31" s="2"/>
-      <c r="BK31" s="2"/>
-      <c r="BL31" s="2"/>
-      <c r="BM31" s="2"/>
-      <c r="BN31" s="2"/>
+      <c r="BK31" s="179">
+        <v>1</v>
+      </c>
+      <c r="BL31" s="179">
+        <v>2</v>
+      </c>
+      <c r="BM31" s="179">
+        <v>3</v>
+      </c>
+      <c r="BN31" s="179">
+        <v>4</v>
+      </c>
       <c r="BO31" s="2"/>
       <c r="BP31" s="2"/>
-      <c r="BQ31" s="2"/>
-      <c r="BR31" s="2"/>
-      <c r="BS31" s="2"/>
-      <c r="BT31" s="2"/>
-      <c r="BU31" s="2"/>
-      <c r="BV31" s="2"/>
+      <c r="BQ31" s="179">
+        <v>1</v>
+      </c>
+      <c r="BR31" s="179">
+        <v>2</v>
+      </c>
+      <c r="BS31" s="179">
+        <v>3</v>
+      </c>
+      <c r="BT31" s="179">
+        <v>4</v>
+      </c>
+      <c r="BU31" s="179">
+        <v>5</v>
+      </c>
+      <c r="BV31" s="179">
+        <v>6</v>
+      </c>
       <c r="BW31" s="2"/>
       <c r="BX31" s="2"/>
       <c r="BY31" s="2"/>
       <c r="BZ31" s="2"/>
-      <c r="CA31" s="2"/>
-      <c r="CB31" s="2"/>
-      <c r="CC31" s="2"/>
-      <c r="CD31" s="2"/>
-      <c r="CE31" s="2"/>
-      <c r="CF31" s="2"/>
-      <c r="CG31" s="2"/>
-      <c r="CH31" s="2"/>
+      <c r="CA31" s="103"/>
+      <c r="CB31" s="103"/>
+      <c r="CC31" s="103"/>
+      <c r="CD31" s="103"/>
+      <c r="CE31" s="103"/>
+      <c r="CF31" s="103"/>
+      <c r="CG31" s="103"/>
+      <c r="CH31" s="103"/>
       <c r="CI31" s="2"/>
       <c r="CJ31" s="2"/>
       <c r="CK31" s="2"/>
@@ -6752,70 +7163,70 @@
       <c r="DF31" s="2"/>
     </row>
     <row r="32" spans="1:110" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="136" t="s">
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="G32" s="146"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="147"/>
-      <c r="O32" s="147"/>
-      <c r="P32" s="147"/>
-      <c r="Q32" s="147"/>
-      <c r="R32" s="147"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
-      <c r="V32" s="147"/>
-      <c r="W32" s="147"/>
-      <c r="X32" s="147"/>
-      <c r="Y32" s="147"/>
-      <c r="Z32" s="147"/>
-      <c r="AA32" s="147"/>
-      <c r="AB32" s="147"/>
-      <c r="AC32" s="147"/>
-      <c r="AD32" s="147"/>
-      <c r="AE32" s="147"/>
-      <c r="AF32" s="147"/>
-      <c r="AG32" s="147"/>
-      <c r="AH32" s="147"/>
-      <c r="AI32" s="147"/>
-      <c r="AJ32" s="147"/>
-      <c r="AK32" s="147"/>
-      <c r="AL32" s="147"/>
-      <c r="AM32" s="147"/>
-      <c r="AN32" s="147"/>
-      <c r="AO32" s="147"/>
-      <c r="AP32" s="147"/>
-      <c r="AQ32" s="147"/>
-      <c r="AR32" s="147"/>
-      <c r="AS32" s="147"/>
-      <c r="AT32" s="147"/>
-      <c r="AU32" s="147"/>
-      <c r="AV32" s="147"/>
-      <c r="AW32" s="147"/>
-      <c r="AX32" s="147"/>
-      <c r="AY32" s="147"/>
-      <c r="AZ32" s="147"/>
-      <c r="BA32" s="147"/>
-      <c r="BB32" s="147"/>
-      <c r="BC32" s="147"/>
-      <c r="BD32" s="147"/>
-      <c r="BE32" s="147"/>
-      <c r="BF32" s="148"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="142"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="142"/>
+      <c r="O32" s="142"/>
+      <c r="P32" s="142"/>
+      <c r="Q32" s="142"/>
+      <c r="R32" s="142"/>
+      <c r="S32" s="142"/>
+      <c r="T32" s="142"/>
+      <c r="U32" s="142"/>
+      <c r="V32" s="142"/>
+      <c r="W32" s="142"/>
+      <c r="X32" s="142"/>
+      <c r="Y32" s="142"/>
+      <c r="Z32" s="142"/>
+      <c r="AA32" s="142"/>
+      <c r="AB32" s="142"/>
+      <c r="AC32" s="142"/>
+      <c r="AD32" s="142"/>
+      <c r="AE32" s="142"/>
+      <c r="AF32" s="142"/>
+      <c r="AG32" s="142"/>
+      <c r="AH32" s="142"/>
+      <c r="AI32" s="142"/>
+      <c r="AJ32" s="142"/>
+      <c r="AK32" s="142"/>
+      <c r="AL32" s="142"/>
+      <c r="AM32" s="142"/>
+      <c r="AN32" s="142"/>
+      <c r="AO32" s="142"/>
+      <c r="AP32" s="142"/>
+      <c r="AQ32" s="142"/>
+      <c r="AR32" s="142"/>
+      <c r="AS32" s="142"/>
+      <c r="AT32" s="142"/>
+      <c r="AU32" s="142"/>
+      <c r="AV32" s="142"/>
+      <c r="AW32" s="142"/>
+      <c r="AX32" s="142"/>
+      <c r="AY32" s="142"/>
+      <c r="AZ32" s="142"/>
+      <c r="BA32" s="142"/>
+      <c r="BB32" s="142"/>
+      <c r="BC32" s="142"/>
+      <c r="BD32" s="142"/>
+      <c r="BE32" s="142"/>
+      <c r="BF32" s="143"/>
       <c r="BG32" s="2"/>
       <c r="BH32" s="2"/>
       <c r="BI32" s="2"/>
@@ -6836,14 +7247,14 @@
       <c r="BX32" s="2"/>
       <c r="BY32" s="2"/>
       <c r="BZ32" s="2"/>
-      <c r="CA32" s="2"/>
-      <c r="CB32" s="2"/>
-      <c r="CC32" s="2"/>
-      <c r="CD32" s="2"/>
-      <c r="CE32" s="2"/>
-      <c r="CF32" s="2"/>
-      <c r="CG32" s="2"/>
-      <c r="CH32" s="2"/>
+      <c r="CA32" s="103"/>
+      <c r="CB32" s="103"/>
+      <c r="CC32" s="103"/>
+      <c r="CD32" s="103"/>
+      <c r="CE32" s="103"/>
+      <c r="CF32" s="103"/>
+      <c r="CG32" s="103"/>
+      <c r="CH32" s="103"/>
       <c r="CI32" s="2"/>
       <c r="CJ32" s="2"/>
       <c r="CK32" s="2"/>
@@ -6869,191 +7280,211 @@
       <c r="DE32" s="2"/>
       <c r="DF32" s="2"/>
     </row>
-    <row r="33" spans="1:110" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="137" t="s">
+    <row r="33" spans="1:110" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="138" t="s">
+      <c r="B33" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="139">
+      <c r="C33" s="84">
         <v>0.3</v>
       </c>
-      <c r="D33" s="139">
+      <c r="D33" s="84">
         <v>0.3</v>
       </c>
-      <c r="E33" s="139">
+      <c r="E33" s="84">
         <v>0.4</v>
       </c>
-      <c r="F33" s="140"/>
-      <c r="G33" s="135">
+      <c r="F33" s="120"/>
+      <c r="G33" s="81">
         <v>1</v>
       </c>
-      <c r="H33" s="135">
+      <c r="H33" s="81">
         <v>2</v>
       </c>
-      <c r="I33" s="135">
+      <c r="I33" s="81">
         <v>3</v>
       </c>
-      <c r="J33" s="135">
+      <c r="J33" s="81">
         <v>4</v>
       </c>
-      <c r="K33" s="135">
+      <c r="K33" s="81">
         <v>5</v>
       </c>
-      <c r="L33" s="135">
+      <c r="L33" s="81">
         <v>6</v>
       </c>
-      <c r="M33" s="135">
+      <c r="M33" s="81">
         <v>7</v>
       </c>
-      <c r="N33" s="135">
+      <c r="N33" s="81">
         <v>8</v>
       </c>
-      <c r="O33" s="135">
+      <c r="O33" s="81">
         <v>9</v>
       </c>
-      <c r="P33" s="135">
+      <c r="P33" s="81">
         <v>10</v>
       </c>
-      <c r="Q33" s="135">
+      <c r="Q33" s="81">
         <v>11</v>
       </c>
-      <c r="R33" s="135">
+      <c r="R33" s="81">
         <v>12</v>
       </c>
-      <c r="S33" s="135">
+      <c r="S33" s="81">
         <v>13</v>
       </c>
-      <c r="T33" s="135">
+      <c r="T33" s="81">
         <v>14</v>
       </c>
-      <c r="U33" s="135">
+      <c r="U33" s="81">
         <v>15</v>
       </c>
-      <c r="V33" s="135">
+      <c r="V33" s="81">
         <v>16</v>
       </c>
-      <c r="W33" s="135">
+      <c r="W33" s="81">
         <v>17</v>
       </c>
-      <c r="X33" s="135">
+      <c r="X33" s="81">
         <v>18</v>
       </c>
-      <c r="Y33" s="135">
+      <c r="Y33" s="81">
         <v>19</v>
       </c>
-      <c r="Z33" s="135">
+      <c r="Z33" s="81">
         <v>20</v>
       </c>
-      <c r="AA33" s="135">
+      <c r="AA33" s="81">
         <v>21</v>
       </c>
-      <c r="AB33" s="135">
+      <c r="AB33" s="81">
         <v>22</v>
       </c>
-      <c r="AC33" s="135">
+      <c r="AC33" s="81">
         <v>23</v>
       </c>
-      <c r="AD33" s="135">
+      <c r="AD33" s="81">
         <v>24</v>
       </c>
-      <c r="AE33" s="135">
+      <c r="AE33" s="81">
         <v>25</v>
       </c>
-      <c r="AF33" s="135">
+      <c r="AF33" s="81">
         <v>26</v>
       </c>
-      <c r="AG33" s="135">
+      <c r="AG33" s="81">
         <v>27</v>
       </c>
-      <c r="AH33" s="135">
+      <c r="AH33" s="81">
         <v>28</v>
       </c>
-      <c r="AI33" s="135">
+      <c r="AI33" s="81">
         <v>29</v>
       </c>
-      <c r="AJ33" s="135">
+      <c r="AJ33" s="81">
         <v>30</v>
       </c>
-      <c r="AK33" s="135">
+      <c r="AK33" s="81">
         <v>31</v>
       </c>
-      <c r="AL33" s="135">
+      <c r="AL33" s="81">
         <v>32</v>
       </c>
-      <c r="AM33" s="135">
+      <c r="AM33" s="81">
         <v>33</v>
       </c>
-      <c r="AN33" s="135">
+      <c r="AN33" s="81">
         <v>34</v>
       </c>
-      <c r="AO33" s="135">
+      <c r="AO33" s="81">
         <v>35</v>
       </c>
-      <c r="AP33" s="135">
+      <c r="AP33" s="81">
         <v>36</v>
       </c>
-      <c r="AQ33" s="135">
+      <c r="AQ33" s="81">
         <v>37</v>
       </c>
-      <c r="AR33" s="135">
+      <c r="AR33" s="81">
         <v>38</v>
       </c>
-      <c r="AS33" s="135">
+      <c r="AS33" s="81">
         <v>39</v>
       </c>
-      <c r="AT33" s="135">
+      <c r="AT33" s="81">
         <v>40</v>
       </c>
-      <c r="AU33" s="135">
+      <c r="AU33" s="81">
         <v>41</v>
       </c>
-      <c r="AV33" s="135">
+      <c r="AV33" s="81">
         <v>42</v>
       </c>
-      <c r="AW33" s="135">
+      <c r="AW33" s="81">
         <v>43</v>
       </c>
-      <c r="AX33" s="135">
+      <c r="AX33" s="81">
         <v>44</v>
       </c>
-      <c r="AY33" s="70"/>
-      <c r="AZ33" s="70"/>
-      <c r="BA33" s="70"/>
-      <c r="BB33" s="70"/>
-      <c r="BC33" s="70"/>
-      <c r="BD33" s="70"/>
-      <c r="BE33" s="70"/>
-      <c r="BF33" s="71"/>
+      <c r="AY33" s="105"/>
+      <c r="AZ33" s="105"/>
+      <c r="BA33" s="105"/>
+      <c r="BB33" s="105"/>
+      <c r="BC33" s="105"/>
+      <c r="BD33" s="105"/>
+      <c r="BE33" s="105"/>
+      <c r="BF33" s="106"/>
       <c r="BG33" s="2"/>
       <c r="BH33" s="2"/>
       <c r="BI33" s="2"/>
       <c r="BJ33" s="2"/>
-      <c r="BK33" s="2"/>
-      <c r="BL33" s="2"/>
-      <c r="BM33" s="2"/>
-      <c r="BN33" s="2"/>
+      <c r="BK33" s="81">
+        <v>1</v>
+      </c>
+      <c r="BL33" s="81">
+        <v>2</v>
+      </c>
+      <c r="BM33" s="81">
+        <v>3</v>
+      </c>
+      <c r="BN33" s="81">
+        <v>4</v>
+      </c>
       <c r="BO33" s="2"/>
       <c r="BP33" s="2"/>
-      <c r="BQ33" s="2"/>
-      <c r="BR33" s="2"/>
-      <c r="BS33" s="2"/>
-      <c r="BT33" s="2"/>
-      <c r="BU33" s="2"/>
-      <c r="BV33" s="2"/>
+      <c r="BQ33" s="81">
+        <v>1</v>
+      </c>
+      <c r="BR33" s="81">
+        <v>2</v>
+      </c>
+      <c r="BS33" s="81">
+        <v>3</v>
+      </c>
+      <c r="BT33" s="81">
+        <v>4</v>
+      </c>
+      <c r="BU33" s="81">
+        <v>5</v>
+      </c>
+      <c r="BV33" s="81">
+        <v>6</v>
+      </c>
       <c r="BW33" s="2"/>
       <c r="BX33" s="2"/>
       <c r="BY33" s="2"/>
       <c r="BZ33" s="2"/>
-      <c r="CA33" s="2"/>
-      <c r="CB33" s="2"/>
-      <c r="CC33" s="2"/>
-      <c r="CD33" s="2"/>
-      <c r="CE33" s="2"/>
-      <c r="CF33" s="2"/>
-      <c r="CG33" s="2"/>
-      <c r="CH33" s="2"/>
+      <c r="CA33" s="103"/>
+      <c r="CB33" s="103"/>
+      <c r="CC33" s="103"/>
+      <c r="CD33" s="103"/>
+      <c r="CE33" s="103"/>
+      <c r="CF33" s="103"/>
+      <c r="CG33" s="103"/>
+      <c r="CH33" s="103"/>
       <c r="CI33" s="2"/>
       <c r="CJ33" s="2"/>
       <c r="CK33" s="2"/>
@@ -7079,23 +7510,23 @@
       <c r="DE33" s="2"/>
       <c r="DF33" s="2"/>
     </row>
-    <row r="34" spans="1:110" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="141" t="s">
+    <row r="34" spans="1:110" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="142" t="s">
+      <c r="B34" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="143">
+      <c r="C34" s="87">
         <v>0.2</v>
       </c>
-      <c r="D34" s="143">
+      <c r="D34" s="87">
         <v>0.4</v>
       </c>
-      <c r="E34" s="143">
+      <c r="E34" s="87">
         <v>0.4</v>
       </c>
-      <c r="F34" s="140"/>
+      <c r="F34" s="120"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -7134,56 +7565,76 @@
       <c r="AP34" s="2"/>
       <c r="AQ34" s="2"/>
       <c r="AR34" s="2"/>
-      <c r="AS34" s="2"/>
-      <c r="AT34" s="2"/>
-      <c r="AU34" s="2"/>
-      <c r="AV34" s="2"/>
-      <c r="AW34" s="2"/>
-      <c r="AX34" s="2"/>
-      <c r="AY34" s="135">
+      <c r="AS34" s="103"/>
+      <c r="AT34" s="103"/>
+      <c r="AU34" s="103"/>
+      <c r="AV34" s="103"/>
+      <c r="AW34" s="103"/>
+      <c r="AX34" s="103"/>
+      <c r="AY34" s="81">
         <v>1</v>
       </c>
-      <c r="AZ34" s="135">
+      <c r="AZ34" s="81">
         <v>2</v>
       </c>
-      <c r="BA34" s="135">
+      <c r="BA34" s="81">
         <v>3</v>
       </c>
-      <c r="BB34" s="135">
+      <c r="BB34" s="81">
         <v>4</v>
       </c>
-      <c r="BC34" s="2"/>
-      <c r="BD34" s="2"/>
-      <c r="BE34" s="2"/>
-      <c r="BF34" s="47"/>
+      <c r="BC34" s="103"/>
+      <c r="BD34" s="103"/>
+      <c r="BE34" s="103"/>
+      <c r="BF34" s="104"/>
       <c r="BG34" s="2"/>
       <c r="BH34" s="2"/>
       <c r="BI34" s="2"/>
       <c r="BJ34" s="2"/>
-      <c r="BK34" s="2"/>
-      <c r="BL34" s="2"/>
-      <c r="BM34" s="2"/>
-      <c r="BN34" s="2"/>
+      <c r="BK34" s="81">
+        <v>1</v>
+      </c>
+      <c r="BL34" s="81">
+        <v>2</v>
+      </c>
+      <c r="BM34" s="81">
+        <v>3</v>
+      </c>
+      <c r="BN34" s="81">
+        <v>4</v>
+      </c>
       <c r="BO34" s="2"/>
       <c r="BP34" s="2"/>
-      <c r="BQ34" s="2"/>
-      <c r="BR34" s="2"/>
-      <c r="BS34" s="2"/>
-      <c r="BT34" s="2"/>
-      <c r="BU34" s="2"/>
-      <c r="BV34" s="2"/>
+      <c r="BQ34" s="81">
+        <v>1</v>
+      </c>
+      <c r="BR34" s="81">
+        <v>2</v>
+      </c>
+      <c r="BS34" s="81">
+        <v>3</v>
+      </c>
+      <c r="BT34" s="81">
+        <v>4</v>
+      </c>
+      <c r="BU34" s="81">
+        <v>5</v>
+      </c>
+      <c r="BV34" s="81">
+        <v>6</v>
+      </c>
       <c r="BW34" s="2"/>
       <c r="BX34" s="2"/>
       <c r="BY34" s="2"/>
       <c r="BZ34" s="2"/>
-      <c r="CA34" s="2"/>
-      <c r="CB34" s="2"/>
-      <c r="CC34" s="2"/>
-      <c r="CD34" s="2"/>
-      <c r="CE34" s="2"/>
-      <c r="CF34" s="2"/>
-      <c r="CG34" s="2"/>
-      <c r="CH34" s="2"/>
+      <c r="CA34" s="103"/>
+      <c r="CB34" s="103"/>
+      <c r="CC34" s="103"/>
+      <c r="CD34" s="103"/>
+      <c r="CE34" s="103"/>
+      <c r="CF34" s="103"/>
+      <c r="CG34" s="103"/>
+      <c r="CH34" s="103"/>
       <c r="CI34" s="2"/>
       <c r="CJ34" s="2"/>
       <c r="CK34" s="2"/>
@@ -7210,22 +7661,22 @@
       <c r="DF34" s="2"/>
     </row>
     <row r="35" spans="1:110" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="144" t="s">
+      <c r="A35" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="142" t="s">
+      <c r="B35" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="143">
+      <c r="C35" s="87">
         <v>0.2</v>
       </c>
-      <c r="D35" s="143">
+      <c r="D35" s="87">
         <v>0.6</v>
       </c>
-      <c r="E35" s="143">
+      <c r="E35" s="87">
         <v>0.2</v>
       </c>
-      <c r="F35" s="145"/>
+      <c r="F35" s="121"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -7264,56 +7715,76 @@
       <c r="AP35" s="2"/>
       <c r="AQ35" s="2"/>
       <c r="AR35" s="2"/>
-      <c r="AS35" s="2"/>
-      <c r="AT35" s="2"/>
-      <c r="AU35" s="2"/>
-      <c r="AV35" s="2"/>
-      <c r="AW35" s="2"/>
-      <c r="AX35" s="2"/>
-      <c r="AY35" s="2"/>
-      <c r="AZ35" s="2"/>
-      <c r="BA35" s="2"/>
-      <c r="BB35" s="2"/>
-      <c r="BC35" s="135">
+      <c r="AS35" s="103"/>
+      <c r="AT35" s="103"/>
+      <c r="AU35" s="103"/>
+      <c r="AV35" s="103"/>
+      <c r="AW35" s="103"/>
+      <c r="AX35" s="103"/>
+      <c r="AY35" s="81">
         <v>1</v>
       </c>
-      <c r="BD35" s="135">
+      <c r="AZ35" s="81">
         <v>2</v>
       </c>
-      <c r="BE35" s="135">
+      <c r="BA35" s="81">
         <v>3</v>
       </c>
-      <c r="BF35" s="135">
+      <c r="BB35" s="81">
         <v>4</v>
       </c>
+      <c r="BC35" s="103"/>
+      <c r="BD35" s="103"/>
+      <c r="BE35" s="103"/>
+      <c r="BF35" s="103"/>
       <c r="BG35" s="2"/>
       <c r="BH35" s="2"/>
       <c r="BI35" s="2"/>
       <c r="BJ35" s="2"/>
-      <c r="BK35" s="2"/>
-      <c r="BL35" s="2"/>
-      <c r="BM35" s="2"/>
-      <c r="BN35" s="2"/>
+      <c r="BK35" s="81">
+        <v>1</v>
+      </c>
+      <c r="BL35" s="81">
+        <v>2</v>
+      </c>
+      <c r="BM35" s="81">
+        <v>3</v>
+      </c>
+      <c r="BN35" s="81">
+        <v>4</v>
+      </c>
       <c r="BO35" s="2"/>
       <c r="BP35" s="2"/>
-      <c r="BQ35" s="2"/>
-      <c r="BR35" s="2"/>
-      <c r="BS35" s="2"/>
-      <c r="BT35" s="2"/>
-      <c r="BU35" s="2"/>
-      <c r="BV35" s="2"/>
+      <c r="BQ35" s="81">
+        <v>1</v>
+      </c>
+      <c r="BR35" s="81">
+        <v>2</v>
+      </c>
+      <c r="BS35" s="81">
+        <v>3</v>
+      </c>
+      <c r="BT35" s="81">
+        <v>4</v>
+      </c>
+      <c r="BU35" s="81">
+        <v>5</v>
+      </c>
+      <c r="BV35" s="81">
+        <v>6</v>
+      </c>
       <c r="BW35" s="2"/>
       <c r="BX35" s="2"/>
       <c r="BY35" s="2"/>
       <c r="BZ35" s="2"/>
-      <c r="CA35" s="2"/>
-      <c r="CB35" s="2"/>
-      <c r="CC35" s="2"/>
-      <c r="CD35" s="2"/>
-      <c r="CE35" s="2"/>
-      <c r="CF35" s="2"/>
-      <c r="CG35" s="2"/>
-      <c r="CH35" s="2"/>
+      <c r="CA35" s="103"/>
+      <c r="CB35" s="103"/>
+      <c r="CC35" s="103"/>
+      <c r="CD35" s="103"/>
+      <c r="CE35" s="103"/>
+      <c r="CF35" s="103"/>
+      <c r="CG35" s="103"/>
+      <c r="CH35" s="103"/>
       <c r="CI35" s="2"/>
       <c r="CJ35" s="2"/>
       <c r="CK35" s="2"/>
@@ -7340,23 +7811,610 @@
       <c r="DF35" s="2"/>
     </row>
     <row r="36" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:110" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:110" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="51" t="s">
+      <c r="A36" s="176" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="177" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="177">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="177">
+        <v>2</v>
+      </c>
+      <c r="AU36" s="177">
+        <v>3</v>
+      </c>
+      <c r="AV36" s="177">
+        <v>4</v>
+      </c>
+      <c r="AW36" s="177">
+        <v>5</v>
+      </c>
+      <c r="AX36" s="177">
+        <v>6</v>
+      </c>
+      <c r="AY36" s="177">
+        <v>7</v>
+      </c>
+      <c r="AZ36" s="177">
+        <v>8</v>
+      </c>
+      <c r="BA36" s="177">
+        <v>9</v>
+      </c>
+      <c r="BB36" s="177">
+        <v>10</v>
+      </c>
+      <c r="BC36" s="177">
+        <v>11</v>
+      </c>
+      <c r="BD36" s="177">
+        <v>12</v>
+      </c>
+      <c r="BE36" s="177">
+        <v>13</v>
+      </c>
+      <c r="BF36" s="177">
+        <v>14</v>
+      </c>
+      <c r="BG36" s="177">
+        <v>15</v>
+      </c>
+      <c r="BH36" s="177">
+        <v>16</v>
+      </c>
+      <c r="BI36" s="177">
+        <v>17</v>
+      </c>
+      <c r="BJ36" s="177">
+        <v>18</v>
+      </c>
+      <c r="BK36" s="177">
+        <v>19</v>
+      </c>
+      <c r="BL36" s="177">
+        <v>20</v>
+      </c>
+      <c r="BM36" s="177">
+        <v>21</v>
+      </c>
+      <c r="BN36" s="177">
+        <v>22</v>
+      </c>
+      <c r="BO36" s="177">
+        <v>23</v>
+      </c>
+      <c r="BP36" s="177">
+        <v>24</v>
+      </c>
+      <c r="BQ36" s="177">
+        <v>25</v>
+      </c>
+      <c r="BR36" s="177">
+        <v>26</v>
+      </c>
+      <c r="BS36" s="177">
+        <v>27</v>
+      </c>
+      <c r="BT36" s="177">
+        <v>28</v>
+      </c>
+      <c r="BU36" s="177">
+        <v>29</v>
+      </c>
+      <c r="BV36" s="177">
+        <v>30</v>
+      </c>
+      <c r="BW36" s="177">
+        <v>31</v>
+      </c>
+      <c r="BX36" s="177">
+        <v>32</v>
+      </c>
+      <c r="BY36" s="177">
+        <v>33</v>
+      </c>
+      <c r="BZ36" s="177">
+        <v>34</v>
+      </c>
+      <c r="CA36" s="177">
+        <v>35</v>
+      </c>
+      <c r="CB36" s="177">
+        <v>36</v>
+      </c>
+      <c r="CC36" s="177">
+        <v>37</v>
+      </c>
+      <c r="CD36" s="177">
+        <v>38</v>
+      </c>
+      <c r="CE36" s="177">
+        <v>39</v>
+      </c>
+      <c r="CF36" s="177">
+        <v>40</v>
+      </c>
+      <c r="CG36" s="177">
+        <v>41</v>
+      </c>
+      <c r="CH36" s="177">
+        <v>42</v>
+      </c>
+      <c r="CI36" s="2"/>
+      <c r="CJ36" s="2"/>
+      <c r="CK36" s="2"/>
+      <c r="CL36" s="2"/>
+      <c r="CM36" s="2"/>
+      <c r="CN36" s="2"/>
+      <c r="CO36" s="2"/>
+      <c r="CP36" s="2"/>
+      <c r="CQ36" s="2"/>
+      <c r="CR36" s="2"/>
+      <c r="CS36" s="2"/>
+      <c r="CT36" s="2"/>
+      <c r="CU36" s="2"/>
+      <c r="CV36" s="2"/>
+      <c r="CW36" s="2"/>
+      <c r="CX36" s="2"/>
+      <c r="CY36" s="2"/>
+      <c r="CZ36" s="2"/>
+      <c r="DA36" s="2"/>
+      <c r="DB36" s="2"/>
+      <c r="DC36" s="2"/>
+      <c r="DD36" s="2"/>
+      <c r="DE36" s="2"/>
+      <c r="DF36" s="2"/>
+    </row>
+    <row r="37" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="A37" s="176" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="177">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="177">
+        <v>2</v>
+      </c>
+      <c r="AU37" s="177">
+        <v>3</v>
+      </c>
+      <c r="AV37" s="177">
+        <v>4</v>
+      </c>
+      <c r="AW37" s="177">
+        <v>5</v>
+      </c>
+      <c r="AX37" s="177">
+        <v>6</v>
+      </c>
+      <c r="AY37" s="177">
+        <v>7</v>
+      </c>
+      <c r="AZ37" s="177">
+        <v>8</v>
+      </c>
+      <c r="BA37" s="177">
+        <v>9</v>
+      </c>
+      <c r="BB37" s="177">
+        <v>10</v>
+      </c>
+      <c r="BC37" s="177">
+        <v>11</v>
+      </c>
+      <c r="BD37" s="177">
+        <v>12</v>
+      </c>
+      <c r="BE37" s="177">
+        <v>13</v>
+      </c>
+      <c r="BF37" s="177">
+        <v>14</v>
+      </c>
+      <c r="BG37" s="177">
+        <v>15</v>
+      </c>
+      <c r="BH37" s="177">
+        <v>16</v>
+      </c>
+      <c r="BI37" s="177">
+        <v>17</v>
+      </c>
+      <c r="BJ37" s="177">
+        <v>18</v>
+      </c>
+      <c r="BK37" s="177">
+        <v>19</v>
+      </c>
+      <c r="BL37" s="177">
+        <v>20</v>
+      </c>
+      <c r="BM37" s="177">
+        <v>21</v>
+      </c>
+      <c r="BN37" s="177">
+        <v>22</v>
+      </c>
+      <c r="BO37" s="177">
+        <v>23</v>
+      </c>
+      <c r="BP37" s="177">
+        <v>24</v>
+      </c>
+      <c r="BQ37" s="177">
+        <v>25</v>
+      </c>
+      <c r="BR37" s="177">
+        <v>26</v>
+      </c>
+      <c r="BS37" s="177">
+        <v>27</v>
+      </c>
+      <c r="BT37" s="177">
+        <v>28</v>
+      </c>
+      <c r="BU37" s="177">
+        <v>29</v>
+      </c>
+      <c r="BV37" s="177">
+        <v>30</v>
+      </c>
+      <c r="BW37" s="177">
+        <v>31</v>
+      </c>
+      <c r="BX37" s="177">
+        <v>32</v>
+      </c>
+      <c r="BY37" s="177">
+        <v>33</v>
+      </c>
+      <c r="BZ37" s="177">
+        <v>34</v>
+      </c>
+      <c r="CA37" s="177">
+        <v>35</v>
+      </c>
+      <c r="CB37" s="177">
+        <v>36</v>
+      </c>
+      <c r="CC37" s="177">
+        <v>37</v>
+      </c>
+      <c r="CD37" s="177">
+        <v>38</v>
+      </c>
+      <c r="CE37" s="177">
+        <v>39</v>
+      </c>
+      <c r="CF37" s="177">
+        <v>40</v>
+      </c>
+      <c r="CG37" s="177">
+        <v>41</v>
+      </c>
+      <c r="CH37" s="177">
+        <v>42</v>
+      </c>
+      <c r="CI37" s="2"/>
+      <c r="CJ37" s="2"/>
+      <c r="CK37" s="2"/>
+      <c r="CL37" s="2"/>
+      <c r="CM37" s="2"/>
+      <c r="CN37" s="2"/>
+      <c r="CO37" s="2"/>
+      <c r="CP37" s="2"/>
+      <c r="CQ37" s="2"/>
+      <c r="CR37" s="2"/>
+      <c r="CS37" s="2"/>
+      <c r="CT37" s="2"/>
+      <c r="CU37" s="2"/>
+      <c r="CV37" s="2"/>
+      <c r="CW37" s="2"/>
+      <c r="CX37" s="2"/>
+      <c r="CY37" s="2"/>
+      <c r="CZ37" s="2"/>
+      <c r="DA37" s="2"/>
+      <c r="DB37" s="2"/>
+      <c r="DC37" s="2"/>
+      <c r="DD37" s="2"/>
+      <c r="DE37" s="2"/>
+      <c r="DF37" s="2"/>
+    </row>
+    <row r="38" spans="1:110" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="176" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="177"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="177">
+        <v>1</v>
+      </c>
+      <c r="AT38" s="177">
+        <v>2</v>
+      </c>
+      <c r="AU38" s="177">
+        <v>3</v>
+      </c>
+      <c r="AV38" s="177">
+        <v>4</v>
+      </c>
+      <c r="AW38" s="177">
+        <v>5</v>
+      </c>
+      <c r="AX38" s="177">
+        <v>6</v>
+      </c>
+      <c r="AY38" s="177">
+        <v>7</v>
+      </c>
+      <c r="AZ38" s="177">
+        <v>8</v>
+      </c>
+      <c r="BA38" s="177">
+        <v>9</v>
+      </c>
+      <c r="BB38" s="177">
+        <v>10</v>
+      </c>
+      <c r="BC38" s="177">
+        <v>11</v>
+      </c>
+      <c r="BD38" s="177">
+        <v>12</v>
+      </c>
+      <c r="BE38" s="177">
+        <v>13</v>
+      </c>
+      <c r="BF38" s="177">
+        <v>14</v>
+      </c>
+      <c r="BG38" s="177">
+        <v>15</v>
+      </c>
+      <c r="BH38" s="177">
+        <v>16</v>
+      </c>
+      <c r="BI38" s="177">
+        <v>17</v>
+      </c>
+      <c r="BJ38" s="177">
+        <v>18</v>
+      </c>
+      <c r="BK38" s="177">
+        <v>19</v>
+      </c>
+      <c r="BL38" s="177">
+        <v>20</v>
+      </c>
+      <c r="BM38" s="177">
+        <v>21</v>
+      </c>
+      <c r="BN38" s="177">
+        <v>22</v>
+      </c>
+      <c r="BO38" s="177">
+        <v>23</v>
+      </c>
+      <c r="BP38" s="177">
+        <v>24</v>
+      </c>
+      <c r="BQ38" s="177">
+        <v>25</v>
+      </c>
+      <c r="BR38" s="177">
+        <v>26</v>
+      </c>
+      <c r="BS38" s="177">
+        <v>27</v>
+      </c>
+      <c r="BT38" s="177">
+        <v>28</v>
+      </c>
+      <c r="BU38" s="177">
+        <v>29</v>
+      </c>
+      <c r="BV38" s="177">
+        <v>30</v>
+      </c>
+      <c r="BW38" s="177">
+        <v>31</v>
+      </c>
+      <c r="BX38" s="177">
+        <v>32</v>
+      </c>
+      <c r="BY38" s="177">
+        <v>33</v>
+      </c>
+      <c r="BZ38" s="177">
+        <v>34</v>
+      </c>
+      <c r="CA38" s="177">
+        <v>35</v>
+      </c>
+      <c r="CB38" s="177">
+        <v>36</v>
+      </c>
+      <c r="CC38" s="177">
+        <v>37</v>
+      </c>
+      <c r="CD38" s="177">
+        <v>38</v>
+      </c>
+      <c r="CE38" s="177">
+        <v>39</v>
+      </c>
+      <c r="CF38" s="177">
+        <v>40</v>
+      </c>
+      <c r="CG38" s="177">
+        <v>41</v>
+      </c>
+      <c r="CH38" s="177">
+        <v>42</v>
+      </c>
+      <c r="CI38" s="7"/>
+      <c r="CJ38" s="7"/>
+      <c r="CK38" s="7"/>
+      <c r="CL38" s="7"/>
+      <c r="CM38" s="7"/>
+      <c r="CN38" s="7"/>
+      <c r="CO38" s="7"/>
+      <c r="CP38" s="7"/>
+      <c r="CQ38" s="7"/>
+      <c r="CR38" s="7"/>
+      <c r="CS38" s="7"/>
+      <c r="CT38" s="7"/>
+      <c r="CU38" s="7"/>
+      <c r="CV38" s="7"/>
+      <c r="CW38" s="7"/>
+      <c r="CX38" s="7"/>
+      <c r="CY38" s="7"/>
+      <c r="CZ38" s="7"/>
+      <c r="DA38" s="7"/>
+      <c r="DB38" s="7"/>
+      <c r="DC38" s="7"/>
+      <c r="DD38" s="7"/>
+      <c r="DE38" s="7"/>
+      <c r="DF38" s="7"/>
+    </row>
+    <row r="39" spans="1:110" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
-    </row>
-    <row r="39" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="175"/>
     </row>
     <row r="40" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -7371,7 +8429,7 @@
       <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
@@ -7416,7 +8474,7 @@
       <c r="A58" s="5"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="5"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
@@ -7847,10 +8905,11 @@
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
     </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="G32:BF32"/>
-    <mergeCell ref="G15:BF15"/>
+  <mergeCells count="44">
     <mergeCell ref="CA4:CD4"/>
     <mergeCell ref="CE4:CH4"/>
     <mergeCell ref="G20:BF20"/>
@@ -7862,9 +8921,8 @@
     <mergeCell ref="BO4:BR4"/>
     <mergeCell ref="BS4:BV4"/>
     <mergeCell ref="BW4:BZ4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="BG8:BZ8"/>
+    <mergeCell ref="A39:F39"/>
     <mergeCell ref="BG1:DF1"/>
     <mergeCell ref="BG2:DF2"/>
     <mergeCell ref="BG3:DF3"/>
@@ -7878,11 +8936,15 @@
     <mergeCell ref="AI4:AL4"/>
     <mergeCell ref="AM4:AP4"/>
     <mergeCell ref="F8:F14"/>
+    <mergeCell ref="G32:BF32"/>
+    <mergeCell ref="G15:BF15"/>
     <mergeCell ref="F15:F19"/>
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="F26:F31"/>
     <mergeCell ref="F20:F25"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="G3:BF3"/>
     <mergeCell ref="G1:BF1"/>
     <mergeCell ref="A4:F4"/>
@@ -7902,12 +8964,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
@@ -7917,196 +8980,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="160"/>
+      <c r="B2" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="38"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="41"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="168"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="41"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="168"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="41"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="168"/>
     </row>
     <row r="6" spans="1:16" ht="2.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="41"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="168"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="168"/>
     </row>
     <row r="8" spans="1:16" ht="36" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="41"/>
-    </row>
-    <row r="9" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="160"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="167"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="168"/>
+    </row>
+    <row r="9" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="41"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="167"/>
+      <c r="O9" s="167"/>
+      <c r="P9" s="168"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="47"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="44"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="171"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="50"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
@@ -8114,10 +9177,10 @@
       <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
@@ -8125,10 +9188,10 @@
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
@@ -8136,18 +9199,18 @@
       <c r="A15" s="2">
         <v>5</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="50"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>6</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="7"/>
@@ -8352,17 +9415,17 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -8412,12 +9475,12 @@
     <row r="46" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="C2:E8"/>
     <mergeCell ref="J2:P10"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8426,14 +9489,197 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="106.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="159" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="160"/>
+      <c r="B2" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="163"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
+    </row>
+    <row r="3" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="160"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="168"/>
+    </row>
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="160"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="168"/>
+    </row>
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="160"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="168"/>
+    </row>
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="160"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="168"/>
+    </row>
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="160"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="168"/>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="160"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="167"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="168"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="167"/>
+      <c r="O9" s="167"/>
+      <c r="P9" s="168"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="171"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:E8"/>
+    <mergeCell ref="J2:P10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/SCADA_DOC/План_разработки_SCADA_Квинта8.xlsx
+++ b/SCADA_DOC/План_разработки_SCADA_Квинта8.xlsx
@@ -8,18 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Общий план разработки SCADA" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Подсистема архивирования." sheetId="2" r:id="rId2"/>
-    <sheet name="2. Подсистема представления инф" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Математическое ядро" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Подсистема обмена" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Подсистема разработки граф. " sheetId="6" r:id="rId6"/>
+    <sheet name="Группы разработчиков" sheetId="7" r:id="rId2"/>
+    <sheet name="1. Подсистема архивирования." sheetId="2" r:id="rId3"/>
+    <sheet name="2. Подсистема представления инф" sheetId="3" r:id="rId4"/>
+    <sheet name="3. Математическое ядро" sheetId="4" r:id="rId5"/>
+    <sheet name="4. Подсистема обмена" sheetId="5" r:id="rId6"/>
+    <sheet name="5. Подсистема разработки граф. " sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="144">
   <si>
     <r>
       <t>1.1.</t>
@@ -963,22 +964,10 @@
     </r>
   </si>
   <si>
-    <t>3 программсита (2 программиста - 1 ведущий программист) Группа1.</t>
-  </si>
-  <si>
-    <t>3 программсита (2 ведущих программиста - 1 программист) Группа 3.</t>
-  </si>
-  <si>
     <t>SCADA V1.0</t>
   </si>
   <si>
     <t>SCADA v2.0</t>
-  </si>
-  <si>
-    <t>4 программиста (1 ведущий программист -3 программиста графического "движкка") Группа 4</t>
-  </si>
-  <si>
-    <t>4 программсита (3 программиста - 1 ведущий программист) Группа2.</t>
   </si>
   <si>
     <t>Разработка рабочей документации</t>
@@ -1022,6 +1011,57 @@
       </rPr>
       <t>Подсистема архивирования. (Базовый состав+ предполагаемые зависимости)*</t>
     </r>
+  </si>
+  <si>
+    <t>Группа 2</t>
+  </si>
+  <si>
+    <t>Группа 3</t>
+  </si>
+  <si>
+    <t>Группа 4</t>
+  </si>
+  <si>
+    <t>Группа 1 (Подсистема архивирования)</t>
+  </si>
+  <si>
+    <t>Группа 2 (Подсистемы взаимодействия и предоставления информации)</t>
+  </si>
+  <si>
+    <t>Группа 3 (Математическое ядро)</t>
+  </si>
+  <si>
+    <t>Группа 4 (Среда разр-ки граф. Части</t>
+  </si>
+  <si>
+    <t>Итого/Недель</t>
+  </si>
+  <si>
+    <t>Руководитель (старший программист)</t>
+  </si>
+  <si>
+    <t>Программист</t>
+  </si>
+  <si>
+    <t>Итого струдников</t>
+  </si>
+  <si>
+    <t>5 сотрудников (4 программиста - 1 ведущий программист) Группа2.</t>
+  </si>
+  <si>
+    <t>4 сотрудника (1 ведущий программист -3 программиста графического "движкка") Группа 4</t>
+  </si>
+  <si>
+    <t>2 сотрудников (1программист - 1 ведущий программист) Группа1.</t>
+  </si>
+  <si>
+    <t>4 сотрудника (3 ведущих программиста - 1 программист) Группа 3.</t>
+  </si>
+  <si>
+    <t>Итого недель по группам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа 1 </t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1251,6 +1291,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,7 +1522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1764,213 +1810,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1980,6 +1819,264 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2286,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DF203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,126 +2408,126 @@
       <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="155"/>
       <c r="F1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="111"/>
-      <c r="AC1" s="111"/>
-      <c r="AD1" s="111"/>
-      <c r="AE1" s="111"/>
-      <c r="AF1" s="111"/>
-      <c r="AG1" s="111"/>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111"/>
-      <c r="AM1" s="111"/>
-      <c r="AN1" s="111"/>
-      <c r="AO1" s="111"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="111"/>
-      <c r="AR1" s="111"/>
-      <c r="AS1" s="111"/>
-      <c r="AT1" s="111"/>
-      <c r="AU1" s="111"/>
-      <c r="AV1" s="111"/>
-      <c r="AW1" s="111"/>
-      <c r="AX1" s="111"/>
-      <c r="AY1" s="111"/>
-      <c r="AZ1" s="111"/>
-      <c r="BA1" s="111"/>
-      <c r="BB1" s="111"/>
-      <c r="BC1" s="111"/>
-      <c r="BD1" s="111"/>
-      <c r="BE1" s="111"/>
-      <c r="BF1" s="111"/>
-      <c r="BG1" s="134" t="s">
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="165"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="165"/>
+      <c r="AJ1" s="165"/>
+      <c r="AK1" s="165"/>
+      <c r="AL1" s="165"/>
+      <c r="AM1" s="165"/>
+      <c r="AN1" s="165"/>
+      <c r="AO1" s="165"/>
+      <c r="AP1" s="165"/>
+      <c r="AQ1" s="165"/>
+      <c r="AR1" s="165"/>
+      <c r="AS1" s="165"/>
+      <c r="AT1" s="165"/>
+      <c r="AU1" s="165"/>
+      <c r="AV1" s="165"/>
+      <c r="AW1" s="165"/>
+      <c r="AX1" s="165"/>
+      <c r="AY1" s="165"/>
+      <c r="AZ1" s="165"/>
+      <c r="BA1" s="165"/>
+      <c r="BB1" s="165"/>
+      <c r="BC1" s="165"/>
+      <c r="BD1" s="165"/>
+      <c r="BE1" s="165"/>
+      <c r="BF1" s="165"/>
+      <c r="BG1" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="BH1" s="134"/>
-      <c r="BI1" s="134"/>
-      <c r="BJ1" s="134"/>
-      <c r="BK1" s="134"/>
-      <c r="BL1" s="134"/>
-      <c r="BM1" s="134"/>
-      <c r="BN1" s="134"/>
-      <c r="BO1" s="134"/>
-      <c r="BP1" s="134"/>
-      <c r="BQ1" s="134"/>
-      <c r="BR1" s="134"/>
-      <c r="BS1" s="134"/>
-      <c r="BT1" s="134"/>
-      <c r="BU1" s="134"/>
-      <c r="BV1" s="134"/>
-      <c r="BW1" s="134"/>
-      <c r="BX1" s="134"/>
-      <c r="BY1" s="134"/>
-      <c r="BZ1" s="134"/>
-      <c r="CA1" s="134"/>
-      <c r="CB1" s="134"/>
-      <c r="CC1" s="134"/>
-      <c r="CD1" s="134"/>
-      <c r="CE1" s="134"/>
-      <c r="CF1" s="134"/>
-      <c r="CG1" s="134"/>
-      <c r="CH1" s="134"/>
-      <c r="CI1" s="134"/>
-      <c r="CJ1" s="134"/>
-      <c r="CK1" s="134"/>
-      <c r="CL1" s="134"/>
-      <c r="CM1" s="134"/>
-      <c r="CN1" s="134"/>
-      <c r="CO1" s="134"/>
-      <c r="CP1" s="134"/>
-      <c r="CQ1" s="134"/>
-      <c r="CR1" s="134"/>
-      <c r="CS1" s="134"/>
-      <c r="CT1" s="134"/>
-      <c r="CU1" s="134"/>
-      <c r="CV1" s="134"/>
-      <c r="CW1" s="134"/>
-      <c r="CX1" s="134"/>
-      <c r="CY1" s="134"/>
-      <c r="CZ1" s="134"/>
-      <c r="DA1" s="134"/>
-      <c r="DB1" s="134"/>
-      <c r="DC1" s="134"/>
-      <c r="DD1" s="134"/>
-      <c r="DE1" s="134"/>
-      <c r="DF1" s="134"/>
+      <c r="BH1" s="128"/>
+      <c r="BI1" s="128"/>
+      <c r="BJ1" s="128"/>
+      <c r="BK1" s="128"/>
+      <c r="BL1" s="128"/>
+      <c r="BM1" s="128"/>
+      <c r="BN1" s="128"/>
+      <c r="BO1" s="128"/>
+      <c r="BP1" s="128"/>
+      <c r="BQ1" s="128"/>
+      <c r="BR1" s="128"/>
+      <c r="BS1" s="128"/>
+      <c r="BT1" s="128"/>
+      <c r="BU1" s="128"/>
+      <c r="BV1" s="128"/>
+      <c r="BW1" s="128"/>
+      <c r="BX1" s="128"/>
+      <c r="BY1" s="128"/>
+      <c r="BZ1" s="128"/>
+      <c r="CA1" s="128"/>
+      <c r="CB1" s="128"/>
+      <c r="CC1" s="128"/>
+      <c r="CD1" s="128"/>
+      <c r="CE1" s="128"/>
+      <c r="CF1" s="128"/>
+      <c r="CG1" s="128"/>
+      <c r="CH1" s="128"/>
+      <c r="CI1" s="128"/>
+      <c r="CJ1" s="128"/>
+      <c r="CK1" s="128"/>
+      <c r="CL1" s="128"/>
+      <c r="CM1" s="128"/>
+      <c r="CN1" s="128"/>
+      <c r="CO1" s="128"/>
+      <c r="CP1" s="128"/>
+      <c r="CQ1" s="128"/>
+      <c r="CR1" s="128"/>
+      <c r="CS1" s="128"/>
+      <c r="CT1" s="128"/>
+      <c r="CU1" s="128"/>
+      <c r="CV1" s="128"/>
+      <c r="CW1" s="128"/>
+      <c r="CX1" s="128"/>
+      <c r="CY1" s="128"/>
+      <c r="CZ1" s="128"/>
+      <c r="DA1" s="128"/>
+      <c r="DB1" s="128"/>
+      <c r="DC1" s="128"/>
+      <c r="DD1" s="128"/>
+      <c r="DE1" s="128"/>
+      <c r="DF1" s="128"/>
     </row>
     <row r="2" spans="1:110" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112"/>
-      <c r="B2" s="114"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
@@ -2441,354 +2538,354 @@
         <v>22</v>
       </c>
       <c r="F2" s="17"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="113"/>
-      <c r="AK2" s="113"/>
-      <c r="AL2" s="113"/>
-      <c r="AM2" s="113"/>
-      <c r="AN2" s="113"/>
-      <c r="AO2" s="113"/>
-      <c r="AP2" s="113"/>
-      <c r="AQ2" s="113"/>
-      <c r="AR2" s="113"/>
-      <c r="AS2" s="113"/>
-      <c r="AT2" s="113"/>
-      <c r="AU2" s="113"/>
-      <c r="AV2" s="113"/>
-      <c r="AW2" s="113"/>
-      <c r="AX2" s="113"/>
-      <c r="AY2" s="113"/>
-      <c r="AZ2" s="113"/>
-      <c r="BA2" s="113"/>
-      <c r="BB2" s="113"/>
-      <c r="BC2" s="113"/>
-      <c r="BD2" s="113"/>
-      <c r="BE2" s="113"/>
-      <c r="BF2" s="113"/>
-      <c r="BG2" s="135"/>
-      <c r="BH2" s="135"/>
-      <c r="BI2" s="135"/>
-      <c r="BJ2" s="135"/>
-      <c r="BK2" s="135"/>
-      <c r="BL2" s="135"/>
-      <c r="BM2" s="135"/>
-      <c r="BN2" s="135"/>
-      <c r="BO2" s="135"/>
-      <c r="BP2" s="135"/>
-      <c r="BQ2" s="135"/>
-      <c r="BR2" s="135"/>
-      <c r="BS2" s="135"/>
-      <c r="BT2" s="135"/>
-      <c r="BU2" s="135"/>
-      <c r="BV2" s="135"/>
-      <c r="BW2" s="135"/>
-      <c r="BX2" s="135"/>
-      <c r="BY2" s="135"/>
-      <c r="BZ2" s="135"/>
-      <c r="CA2" s="135"/>
-      <c r="CB2" s="135"/>
-      <c r="CC2" s="135"/>
-      <c r="CD2" s="135"/>
-      <c r="CE2" s="135"/>
-      <c r="CF2" s="135"/>
-      <c r="CG2" s="135"/>
-      <c r="CH2" s="135"/>
-      <c r="CI2" s="135"/>
-      <c r="CJ2" s="135"/>
-      <c r="CK2" s="135"/>
-      <c r="CL2" s="135"/>
-      <c r="CM2" s="135"/>
-      <c r="CN2" s="135"/>
-      <c r="CO2" s="135"/>
-      <c r="CP2" s="135"/>
-      <c r="CQ2" s="135"/>
-      <c r="CR2" s="135"/>
-      <c r="CS2" s="135"/>
-      <c r="CT2" s="135"/>
-      <c r="CU2" s="135"/>
-      <c r="CV2" s="135"/>
-      <c r="CW2" s="135"/>
-      <c r="CX2" s="135"/>
-      <c r="CY2" s="135"/>
-      <c r="CZ2" s="135"/>
-      <c r="DA2" s="135"/>
-      <c r="DB2" s="135"/>
-      <c r="DC2" s="135"/>
-      <c r="DD2" s="135"/>
-      <c r="DE2" s="135"/>
-      <c r="DF2" s="135"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="166"/>
+      <c r="AJ2" s="166"/>
+      <c r="AK2" s="166"/>
+      <c r="AL2" s="166"/>
+      <c r="AM2" s="166"/>
+      <c r="AN2" s="166"/>
+      <c r="AO2" s="166"/>
+      <c r="AP2" s="166"/>
+      <c r="AQ2" s="166"/>
+      <c r="AR2" s="166"/>
+      <c r="AS2" s="166"/>
+      <c r="AT2" s="166"/>
+      <c r="AU2" s="166"/>
+      <c r="AV2" s="166"/>
+      <c r="AW2" s="166"/>
+      <c r="AX2" s="166"/>
+      <c r="AY2" s="166"/>
+      <c r="AZ2" s="166"/>
+      <c r="BA2" s="166"/>
+      <c r="BB2" s="166"/>
+      <c r="BC2" s="166"/>
+      <c r="BD2" s="166"/>
+      <c r="BE2" s="166"/>
+      <c r="BF2" s="166"/>
+      <c r="BG2" s="129"/>
+      <c r="BH2" s="129"/>
+      <c r="BI2" s="129"/>
+      <c r="BJ2" s="129"/>
+      <c r="BK2" s="129"/>
+      <c r="BL2" s="129"/>
+      <c r="BM2" s="129"/>
+      <c r="BN2" s="129"/>
+      <c r="BO2" s="129"/>
+      <c r="BP2" s="129"/>
+      <c r="BQ2" s="129"/>
+      <c r="BR2" s="129"/>
+      <c r="BS2" s="129"/>
+      <c r="BT2" s="129"/>
+      <c r="BU2" s="129"/>
+      <c r="BV2" s="129"/>
+      <c r="BW2" s="129"/>
+      <c r="BX2" s="129"/>
+      <c r="BY2" s="129"/>
+      <c r="BZ2" s="129"/>
+      <c r="CA2" s="129"/>
+      <c r="CB2" s="129"/>
+      <c r="CC2" s="129"/>
+      <c r="CD2" s="129"/>
+      <c r="CE2" s="129"/>
+      <c r="CF2" s="129"/>
+      <c r="CG2" s="129"/>
+      <c r="CH2" s="129"/>
+      <c r="CI2" s="129"/>
+      <c r="CJ2" s="129"/>
+      <c r="CK2" s="129"/>
+      <c r="CL2" s="129"/>
+      <c r="CM2" s="129"/>
+      <c r="CN2" s="129"/>
+      <c r="CO2" s="129"/>
+      <c r="CP2" s="129"/>
+      <c r="CQ2" s="129"/>
+      <c r="CR2" s="129"/>
+      <c r="CS2" s="129"/>
+      <c r="CT2" s="129"/>
+      <c r="CU2" s="129"/>
+      <c r="CV2" s="129"/>
+      <c r="CW2" s="129"/>
+      <c r="CX2" s="129"/>
+      <c r="CY2" s="129"/>
+      <c r="CZ2" s="129"/>
+      <c r="DA2" s="129"/>
+      <c r="DB2" s="129"/>
+      <c r="DC2" s="129"/>
+      <c r="DD2" s="129"/>
+      <c r="DE2" s="129"/>
+      <c r="DF2" s="129"/>
     </row>
     <row r="3" spans="1:110" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="107" t="s">
+      <c r="A3" s="159"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108"/>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108"/>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="108"/>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="108"/>
-      <c r="AW3" s="108"/>
-      <c r="AX3" s="108"/>
-      <c r="AY3" s="108"/>
-      <c r="AZ3" s="108"/>
-      <c r="BA3" s="108"/>
-      <c r="BB3" s="108"/>
-      <c r="BC3" s="108"/>
-      <c r="BD3" s="108"/>
-      <c r="BE3" s="108"/>
-      <c r="BF3" s="109"/>
-      <c r="BG3" s="136" t="s">
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="162"/>
+      <c r="U3" s="162"/>
+      <c r="V3" s="162"/>
+      <c r="W3" s="162"/>
+      <c r="X3" s="162"/>
+      <c r="Y3" s="162"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="162"/>
+      <c r="AD3" s="162"/>
+      <c r="AE3" s="162"/>
+      <c r="AF3" s="162"/>
+      <c r="AG3" s="162"/>
+      <c r="AH3" s="162"/>
+      <c r="AI3" s="162"/>
+      <c r="AJ3" s="162"/>
+      <c r="AK3" s="162"/>
+      <c r="AL3" s="162"/>
+      <c r="AM3" s="162"/>
+      <c r="AN3" s="162"/>
+      <c r="AO3" s="162"/>
+      <c r="AP3" s="162"/>
+      <c r="AQ3" s="162"/>
+      <c r="AR3" s="162"/>
+      <c r="AS3" s="162"/>
+      <c r="AT3" s="162"/>
+      <c r="AU3" s="162"/>
+      <c r="AV3" s="162"/>
+      <c r="AW3" s="162"/>
+      <c r="AX3" s="162"/>
+      <c r="AY3" s="162"/>
+      <c r="AZ3" s="162"/>
+      <c r="BA3" s="162"/>
+      <c r="BB3" s="162"/>
+      <c r="BC3" s="162"/>
+      <c r="BD3" s="162"/>
+      <c r="BE3" s="162"/>
+      <c r="BF3" s="163"/>
+      <c r="BG3" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="BH3" s="137"/>
-      <c r="BI3" s="137"/>
-      <c r="BJ3" s="137"/>
-      <c r="BK3" s="137"/>
-      <c r="BL3" s="137"/>
-      <c r="BM3" s="137"/>
-      <c r="BN3" s="137"/>
-      <c r="BO3" s="137"/>
-      <c r="BP3" s="137"/>
-      <c r="BQ3" s="137"/>
-      <c r="BR3" s="137"/>
-      <c r="BS3" s="137"/>
-      <c r="BT3" s="137"/>
-      <c r="BU3" s="137"/>
-      <c r="BV3" s="137"/>
-      <c r="BW3" s="137"/>
-      <c r="BX3" s="137"/>
-      <c r="BY3" s="137"/>
-      <c r="BZ3" s="137"/>
-      <c r="CA3" s="137"/>
-      <c r="CB3" s="137"/>
-      <c r="CC3" s="137"/>
-      <c r="CD3" s="137"/>
-      <c r="CE3" s="137"/>
-      <c r="CF3" s="137"/>
-      <c r="CG3" s="137"/>
-      <c r="CH3" s="137"/>
-      <c r="CI3" s="137"/>
-      <c r="CJ3" s="137"/>
-      <c r="CK3" s="137"/>
-      <c r="CL3" s="137"/>
-      <c r="CM3" s="137"/>
-      <c r="CN3" s="137"/>
-      <c r="CO3" s="137"/>
-      <c r="CP3" s="137"/>
-      <c r="CQ3" s="137"/>
-      <c r="CR3" s="137"/>
-      <c r="CS3" s="137"/>
-      <c r="CT3" s="137"/>
-      <c r="CU3" s="137"/>
-      <c r="CV3" s="137"/>
-      <c r="CW3" s="137"/>
-      <c r="CX3" s="137"/>
-      <c r="CY3" s="137"/>
-      <c r="CZ3" s="137"/>
-      <c r="DA3" s="137"/>
-      <c r="DB3" s="137"/>
-      <c r="DC3" s="137"/>
-      <c r="DD3" s="137"/>
-      <c r="DE3" s="137"/>
-      <c r="DF3" s="137"/>
+      <c r="BH3" s="131"/>
+      <c r="BI3" s="131"/>
+      <c r="BJ3" s="131"/>
+      <c r="BK3" s="131"/>
+      <c r="BL3" s="131"/>
+      <c r="BM3" s="131"/>
+      <c r="BN3" s="131"/>
+      <c r="BO3" s="131"/>
+      <c r="BP3" s="131"/>
+      <c r="BQ3" s="131"/>
+      <c r="BR3" s="131"/>
+      <c r="BS3" s="131"/>
+      <c r="BT3" s="131"/>
+      <c r="BU3" s="131"/>
+      <c r="BV3" s="131"/>
+      <c r="BW3" s="131"/>
+      <c r="BX3" s="131"/>
+      <c r="BY3" s="131"/>
+      <c r="BZ3" s="131"/>
+      <c r="CA3" s="131"/>
+      <c r="CB3" s="131"/>
+      <c r="CC3" s="131"/>
+      <c r="CD3" s="131"/>
+      <c r="CE3" s="131"/>
+      <c r="CF3" s="131"/>
+      <c r="CG3" s="131"/>
+      <c r="CH3" s="131"/>
+      <c r="CI3" s="131"/>
+      <c r="CJ3" s="131"/>
+      <c r="CK3" s="131"/>
+      <c r="CL3" s="131"/>
+      <c r="CM3" s="131"/>
+      <c r="CN3" s="131"/>
+      <c r="CO3" s="131"/>
+      <c r="CP3" s="131"/>
+      <c r="CQ3" s="131"/>
+      <c r="CR3" s="131"/>
+      <c r="CS3" s="131"/>
+      <c r="CT3" s="131"/>
+      <c r="CU3" s="131"/>
+      <c r="CV3" s="131"/>
+      <c r="CW3" s="131"/>
+      <c r="CX3" s="131"/>
+      <c r="CY3" s="131"/>
+      <c r="CZ3" s="131"/>
+      <c r="DA3" s="131"/>
+      <c r="DB3" s="131"/>
+      <c r="DC3" s="131"/>
+      <c r="DD3" s="131"/>
+      <c r="DE3" s="131"/>
+      <c r="DF3" s="131"/>
     </row>
     <row r="4" spans="1:110" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115" t="s">
+      <c r="A4" s="159"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115" t="s">
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115" t="s">
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115" t="s">
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115" t="s">
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115" t="s">
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="112"/>
+      <c r="AA4" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="115" t="s">
+      <c r="AB4" s="112"/>
+      <c r="AC4" s="112"/>
+      <c r="AD4" s="112"/>
+      <c r="AE4" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="AF4" s="115"/>
-      <c r="AG4" s="115"/>
-      <c r="AH4" s="115"/>
-      <c r="AI4" s="115" t="s">
+      <c r="AF4" s="112"/>
+      <c r="AG4" s="112"/>
+      <c r="AH4" s="112"/>
+      <c r="AI4" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="AJ4" s="115"/>
-      <c r="AK4" s="115"/>
-      <c r="AL4" s="115"/>
-      <c r="AM4" s="115" t="s">
+      <c r="AJ4" s="112"/>
+      <c r="AK4" s="112"/>
+      <c r="AL4" s="112"/>
+      <c r="AM4" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="AN4" s="115"/>
-      <c r="AO4" s="115"/>
-      <c r="AP4" s="115"/>
-      <c r="AQ4" s="115" t="s">
+      <c r="AN4" s="112"/>
+      <c r="AO4" s="112"/>
+      <c r="AP4" s="112"/>
+      <c r="AQ4" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="AR4" s="115"/>
-      <c r="AS4" s="115"/>
-      <c r="AT4" s="115"/>
-      <c r="AU4" s="115" t="s">
+      <c r="AR4" s="112"/>
+      <c r="AS4" s="112"/>
+      <c r="AT4" s="112"/>
+      <c r="AU4" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="AV4" s="115"/>
-      <c r="AW4" s="115"/>
-      <c r="AX4" s="115"/>
-      <c r="AY4" s="115" t="s">
+      <c r="AV4" s="112"/>
+      <c r="AW4" s="112"/>
+      <c r="AX4" s="112"/>
+      <c r="AY4" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="AZ4" s="115"/>
-      <c r="BA4" s="115"/>
-      <c r="BB4" s="115"/>
-      <c r="BC4" s="115" t="s">
+      <c r="AZ4" s="112"/>
+      <c r="BA4" s="112"/>
+      <c r="BB4" s="112"/>
+      <c r="BC4" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="BD4" s="115"/>
-      <c r="BE4" s="115"/>
-      <c r="BF4" s="115"/>
-      <c r="BG4" s="115" t="s">
+      <c r="BD4" s="112"/>
+      <c r="BE4" s="112"/>
+      <c r="BF4" s="112"/>
+      <c r="BG4" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="BH4" s="115"/>
-      <c r="BI4" s="115"/>
-      <c r="BJ4" s="115"/>
-      <c r="BK4" s="115" t="s">
+      <c r="BH4" s="112"/>
+      <c r="BI4" s="112"/>
+      <c r="BJ4" s="112"/>
+      <c r="BK4" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="BL4" s="115"/>
-      <c r="BM4" s="115"/>
-      <c r="BN4" s="115"/>
-      <c r="BO4" s="115" t="s">
+      <c r="BL4" s="112"/>
+      <c r="BM4" s="112"/>
+      <c r="BN4" s="112"/>
+      <c r="BO4" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="BP4" s="115"/>
-      <c r="BQ4" s="115"/>
-      <c r="BR4" s="115"/>
-      <c r="BS4" s="115" t="s">
+      <c r="BP4" s="112"/>
+      <c r="BQ4" s="112"/>
+      <c r="BR4" s="112"/>
+      <c r="BS4" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="BT4" s="115"/>
-      <c r="BU4" s="115"/>
-      <c r="BV4" s="115"/>
-      <c r="BW4" s="115" t="s">
+      <c r="BT4" s="112"/>
+      <c r="BU4" s="112"/>
+      <c r="BV4" s="112"/>
+      <c r="BW4" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="BX4" s="115"/>
-      <c r="BY4" s="115"/>
-      <c r="BZ4" s="115"/>
-      <c r="CA4" s="115" t="s">
+      <c r="BX4" s="112"/>
+      <c r="BY4" s="112"/>
+      <c r="BZ4" s="112"/>
+      <c r="CA4" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="CB4" s="115"/>
-      <c r="CC4" s="115"/>
-      <c r="CD4" s="115"/>
-      <c r="CE4" s="115" t="s">
+      <c r="CB4" s="112"/>
+      <c r="CC4" s="112"/>
+      <c r="CD4" s="112"/>
+      <c r="CE4" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="CF4" s="115"/>
-      <c r="CG4" s="115"/>
-      <c r="CH4" s="115"/>
+      <c r="CF4" s="112"/>
+      <c r="CG4" s="112"/>
+      <c r="CH4" s="112"/>
       <c r="CI4" s="27"/>
       <c r="CJ4" s="27"/>
       <c r="CK4" s="27"/>
@@ -2815,12 +2912,12 @@
       <c r="DF4" s="27"/>
     </row>
     <row r="5" spans="1:110" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="158"/>
       <c r="G5" s="25">
         <v>1</v>
       </c>
@@ -3133,22 +3230,22 @@
       <c r="AP6" s="28"/>
       <c r="AQ6" s="28"/>
       <c r="AR6" s="28"/>
-      <c r="AS6" s="150" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT6" s="151"/>
-      <c r="AU6" s="151"/>
-      <c r="AV6" s="151"/>
-      <c r="AW6" s="151"/>
-      <c r="AX6" s="151"/>
-      <c r="AY6" s="151"/>
-      <c r="AZ6" s="151"/>
-      <c r="BA6" s="151"/>
-      <c r="BB6" s="151"/>
-      <c r="BC6" s="151"/>
-      <c r="BD6" s="151"/>
-      <c r="BE6" s="151"/>
-      <c r="BF6" s="152"/>
+      <c r="AS6" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT6" s="117"/>
+      <c r="AU6" s="117"/>
+      <c r="AV6" s="117"/>
+      <c r="AW6" s="117"/>
+      <c r="AX6" s="117"/>
+      <c r="AY6" s="117"/>
+      <c r="AZ6" s="117"/>
+      <c r="BA6" s="117"/>
+      <c r="BB6" s="117"/>
+      <c r="BC6" s="117"/>
+      <c r="BD6" s="117"/>
+      <c r="BE6" s="117"/>
+      <c r="BF6" s="118"/>
       <c r="BG6" s="28"/>
       <c r="BH6" s="28"/>
       <c r="BI6" s="28"/>
@@ -3169,16 +3266,16 @@
       <c r="BX6" s="28"/>
       <c r="BY6" s="28"/>
       <c r="BZ6" s="28"/>
-      <c r="CA6" s="150" t="s">
-        <v>122</v>
-      </c>
-      <c r="CB6" s="151"/>
-      <c r="CC6" s="151"/>
-      <c r="CD6" s="151"/>
-      <c r="CE6" s="151"/>
-      <c r="CF6" s="151"/>
-      <c r="CG6" s="151"/>
-      <c r="CH6" s="152"/>
+      <c r="CA6" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="CB6" s="117"/>
+      <c r="CC6" s="117"/>
+      <c r="CD6" s="117"/>
+      <c r="CE6" s="117"/>
+      <c r="CF6" s="117"/>
+      <c r="CG6" s="117"/>
+      <c r="CH6" s="118"/>
       <c r="CI6" s="28"/>
       <c r="CJ6" s="28"/>
       <c r="CK6" s="28"/>
@@ -3336,81 +3433,81 @@
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="44"/>
-      <c r="F8" s="138" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="153"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="154"/>
-      <c r="Q8" s="154"/>
-      <c r="R8" s="154"/>
-      <c r="S8" s="154"/>
-      <c r="T8" s="154"/>
-      <c r="U8" s="154"/>
-      <c r="V8" s="154"/>
-      <c r="W8" s="154"/>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="154"/>
-      <c r="Z8" s="154"/>
-      <c r="AA8" s="154"/>
-      <c r="AB8" s="154"/>
-      <c r="AC8" s="154"/>
-      <c r="AD8" s="154"/>
-      <c r="AE8" s="154"/>
-      <c r="AF8" s="154"/>
-      <c r="AG8" s="154"/>
-      <c r="AH8" s="154"/>
-      <c r="AI8" s="154"/>
-      <c r="AJ8" s="154"/>
-      <c r="AK8" s="154"/>
-      <c r="AL8" s="154"/>
-      <c r="AM8" s="154"/>
-      <c r="AN8" s="154"/>
-      <c r="AO8" s="154"/>
-      <c r="AP8" s="154"/>
-      <c r="AQ8" s="154"/>
-      <c r="AR8" s="154"/>
-      <c r="AS8" s="154"/>
-      <c r="AT8" s="154"/>
-      <c r="AU8" s="154"/>
-      <c r="AV8" s="154"/>
-      <c r="AW8" s="154"/>
-      <c r="AX8" s="154"/>
-      <c r="AY8" s="154"/>
-      <c r="AZ8" s="154"/>
-      <c r="BA8" s="154"/>
-      <c r="BB8" s="154"/>
-      <c r="BC8" s="154"/>
-      <c r="BD8" s="154"/>
-      <c r="BE8" s="154"/>
-      <c r="BF8" s="155"/>
-      <c r="BG8" s="156"/>
-      <c r="BH8" s="157"/>
-      <c r="BI8" s="157"/>
-      <c r="BJ8" s="157"/>
-      <c r="BK8" s="157"/>
-      <c r="BL8" s="157"/>
-      <c r="BM8" s="157"/>
-      <c r="BN8" s="157"/>
-      <c r="BO8" s="157"/>
-      <c r="BP8" s="157"/>
-      <c r="BQ8" s="157"/>
-      <c r="BR8" s="157"/>
-      <c r="BS8" s="157"/>
-      <c r="BT8" s="157"/>
-      <c r="BU8" s="157"/>
-      <c r="BV8" s="157"/>
-      <c r="BW8" s="157"/>
-      <c r="BX8" s="157"/>
-      <c r="BY8" s="157"/>
-      <c r="BZ8" s="158"/>
+      <c r="F8" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="120"/>
+      <c r="Z8" s="120"/>
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="120"/>
+      <c r="AC8" s="120"/>
+      <c r="AD8" s="120"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="120"/>
+      <c r="AG8" s="120"/>
+      <c r="AH8" s="120"/>
+      <c r="AI8" s="120"/>
+      <c r="AJ8" s="120"/>
+      <c r="AK8" s="120"/>
+      <c r="AL8" s="120"/>
+      <c r="AM8" s="120"/>
+      <c r="AN8" s="120"/>
+      <c r="AO8" s="120"/>
+      <c r="AP8" s="120"/>
+      <c r="AQ8" s="120"/>
+      <c r="AR8" s="120"/>
+      <c r="AS8" s="120"/>
+      <c r="AT8" s="120"/>
+      <c r="AU8" s="120"/>
+      <c r="AV8" s="120"/>
+      <c r="AW8" s="120"/>
+      <c r="AX8" s="120"/>
+      <c r="AY8" s="120"/>
+      <c r="AZ8" s="120"/>
+      <c r="BA8" s="120"/>
+      <c r="BB8" s="120"/>
+      <c r="BC8" s="120"/>
+      <c r="BD8" s="120"/>
+      <c r="BE8" s="120"/>
+      <c r="BF8" s="121"/>
+      <c r="BG8" s="122"/>
+      <c r="BH8" s="123"/>
+      <c r="BI8" s="123"/>
+      <c r="BJ8" s="123"/>
+      <c r="BK8" s="123"/>
+      <c r="BL8" s="123"/>
+      <c r="BM8" s="123"/>
+      <c r="BN8" s="123"/>
+      <c r="BO8" s="123"/>
+      <c r="BP8" s="123"/>
+      <c r="BQ8" s="123"/>
+      <c r="BR8" s="123"/>
+      <c r="BS8" s="123"/>
+      <c r="BT8" s="123"/>
+      <c r="BU8" s="123"/>
+      <c r="BV8" s="123"/>
+      <c r="BW8" s="123"/>
+      <c r="BX8" s="123"/>
+      <c r="BY8" s="123"/>
+      <c r="BZ8" s="124"/>
       <c r="CA8" s="103"/>
       <c r="CB8" s="103"/>
       <c r="CC8" s="103"/>
@@ -3460,7 +3557,7 @@
       <c r="E9" s="44">
         <v>0.4</v>
       </c>
-      <c r="F9" s="139"/>
+      <c r="F9" s="133"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -3618,7 +3715,7 @@
       <c r="E10" s="44">
         <v>0.4</v>
       </c>
-      <c r="F10" s="139"/>
+      <c r="F10" s="133"/>
       <c r="G10" s="29">
         <v>1</v>
       </c>
@@ -3808,7 +3905,7 @@
       <c r="E11" s="44">
         <v>0.2</v>
       </c>
-      <c r="F11" s="139"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -3966,7 +4063,7 @@
       <c r="E12" s="44">
         <v>0.2</v>
       </c>
-      <c r="F12" s="139"/>
+      <c r="F12" s="133"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -4124,7 +4221,7 @@
       <c r="E13" s="54">
         <v>0.05</v>
       </c>
-      <c r="F13" s="139"/>
+      <c r="F13" s="133"/>
       <c r="G13" s="29">
         <v>1</v>
       </c>
@@ -4294,7 +4391,7 @@
       <c r="E14" s="44">
         <v>0.2</v>
       </c>
-      <c r="F14" s="140"/>
+      <c r="F14" s="134"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -4440,61 +4537,61 @@
       <c r="C15" s="95"/>
       <c r="D15" s="95"/>
       <c r="E15" s="96"/>
-      <c r="F15" s="116" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="144"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="145"/>
-      <c r="S15" s="145"/>
-      <c r="T15" s="145"/>
-      <c r="U15" s="145"/>
-      <c r="V15" s="145"/>
-      <c r="W15" s="145"/>
-      <c r="X15" s="145"/>
-      <c r="Y15" s="145"/>
-      <c r="Z15" s="145"/>
-      <c r="AA15" s="145"/>
-      <c r="AB15" s="145"/>
-      <c r="AC15" s="145"/>
-      <c r="AD15" s="145"/>
-      <c r="AE15" s="145"/>
-      <c r="AF15" s="145"/>
-      <c r="AG15" s="145"/>
-      <c r="AH15" s="145"/>
-      <c r="AI15" s="145"/>
-      <c r="AJ15" s="145"/>
-      <c r="AK15" s="145"/>
-      <c r="AL15" s="145"/>
-      <c r="AM15" s="145"/>
-      <c r="AN15" s="145"/>
-      <c r="AO15" s="145"/>
-      <c r="AP15" s="145"/>
-      <c r="AQ15" s="145"/>
-      <c r="AR15" s="145"/>
-      <c r="AS15" s="145"/>
-      <c r="AT15" s="145"/>
-      <c r="AU15" s="145"/>
-      <c r="AV15" s="145"/>
-      <c r="AW15" s="145"/>
-      <c r="AX15" s="145"/>
-      <c r="AY15" s="145"/>
-      <c r="AZ15" s="145"/>
-      <c r="BA15" s="145"/>
-      <c r="BB15" s="145"/>
-      <c r="BC15" s="145"/>
-      <c r="BD15" s="145"/>
-      <c r="BE15" s="145"/>
-      <c r="BF15" s="146"/>
+      <c r="F15" s="141" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="138"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="139"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="139"/>
+      <c r="X15" s="139"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="139"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="139"/>
+      <c r="AD15" s="139"/>
+      <c r="AE15" s="139"/>
+      <c r="AF15" s="139"/>
+      <c r="AG15" s="139"/>
+      <c r="AH15" s="139"/>
+      <c r="AI15" s="139"/>
+      <c r="AJ15" s="139"/>
+      <c r="AK15" s="139"/>
+      <c r="AL15" s="139"/>
+      <c r="AM15" s="139"/>
+      <c r="AN15" s="139"/>
+      <c r="AO15" s="139"/>
+      <c r="AP15" s="139"/>
+      <c r="AQ15" s="139"/>
+      <c r="AR15" s="139"/>
+      <c r="AS15" s="139"/>
+      <c r="AT15" s="139"/>
+      <c r="AU15" s="139"/>
+      <c r="AV15" s="139"/>
+      <c r="AW15" s="139"/>
+      <c r="AX15" s="139"/>
+      <c r="AY15" s="139"/>
+      <c r="AZ15" s="139"/>
+      <c r="BA15" s="139"/>
+      <c r="BB15" s="139"/>
+      <c r="BC15" s="139"/>
+      <c r="BD15" s="139"/>
+      <c r="BE15" s="139"/>
+      <c r="BF15" s="140"/>
       <c r="BG15" s="2"/>
       <c r="BH15" s="2"/>
       <c r="BI15" s="2"/>
@@ -4564,7 +4661,7 @@
       <c r="E16" s="97">
         <v>0.4</v>
       </c>
-      <c r="F16" s="117"/>
+      <c r="F16" s="142"/>
       <c r="G16" s="71">
         <v>1</v>
       </c>
@@ -4810,7 +4907,7 @@
       <c r="E17" s="76">
         <v>0.7</v>
       </c>
-      <c r="F17" s="117"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -4960,7 +5057,7 @@
       <c r="E18" s="76">
         <v>0.7</v>
       </c>
-      <c r="F18" s="117"/>
+      <c r="F18" s="142"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -5114,7 +5211,7 @@
       <c r="E19" s="98">
         <v>0.2</v>
       </c>
-      <c r="F19" s="118"/>
+      <c r="F19" s="143"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -5272,61 +5369,61 @@
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
-      <c r="F20" s="125" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="147"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="148"/>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="148"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="148"/>
-      <c r="AB20" s="148"/>
-      <c r="AC20" s="148"/>
-      <c r="AD20" s="148"/>
-      <c r="AE20" s="148"/>
-      <c r="AF20" s="148"/>
-      <c r="AG20" s="148"/>
-      <c r="AH20" s="148"/>
-      <c r="AI20" s="148"/>
-      <c r="AJ20" s="148"/>
-      <c r="AK20" s="148"/>
-      <c r="AL20" s="148"/>
-      <c r="AM20" s="148"/>
-      <c r="AN20" s="148"/>
-      <c r="AO20" s="148"/>
-      <c r="AP20" s="148"/>
-      <c r="AQ20" s="148"/>
-      <c r="AR20" s="148"/>
-      <c r="AS20" s="148"/>
-      <c r="AT20" s="148"/>
-      <c r="AU20" s="148"/>
-      <c r="AV20" s="148"/>
-      <c r="AW20" s="148"/>
-      <c r="AX20" s="148"/>
-      <c r="AY20" s="148"/>
-      <c r="AZ20" s="148"/>
-      <c r="BA20" s="148"/>
-      <c r="BB20" s="148"/>
-      <c r="BC20" s="148"/>
-      <c r="BD20" s="148"/>
-      <c r="BE20" s="148"/>
-      <c r="BF20" s="149"/>
+      <c r="F20" s="150" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="113"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="114"/>
+      <c r="AB20" s="114"/>
+      <c r="AC20" s="114"/>
+      <c r="AD20" s="114"/>
+      <c r="AE20" s="114"/>
+      <c r="AF20" s="114"/>
+      <c r="AG20" s="114"/>
+      <c r="AH20" s="114"/>
+      <c r="AI20" s="114"/>
+      <c r="AJ20" s="114"/>
+      <c r="AK20" s="114"/>
+      <c r="AL20" s="114"/>
+      <c r="AM20" s="114"/>
+      <c r="AN20" s="114"/>
+      <c r="AO20" s="114"/>
+      <c r="AP20" s="114"/>
+      <c r="AQ20" s="114"/>
+      <c r="AR20" s="114"/>
+      <c r="AS20" s="114"/>
+      <c r="AT20" s="114"/>
+      <c r="AU20" s="114"/>
+      <c r="AV20" s="114"/>
+      <c r="AW20" s="114"/>
+      <c r="AX20" s="114"/>
+      <c r="AY20" s="114"/>
+      <c r="AZ20" s="114"/>
+      <c r="BA20" s="114"/>
+      <c r="BB20" s="114"/>
+      <c r="BC20" s="114"/>
+      <c r="BD20" s="114"/>
+      <c r="BE20" s="114"/>
+      <c r="BF20" s="115"/>
       <c r="BG20" s="2"/>
       <c r="BH20" s="2"/>
       <c r="BI20" s="2"/>
@@ -5380,7 +5477,7 @@
       <c r="DE20" s="2"/>
       <c r="DF20" s="2"/>
     </row>
-    <row r="21" spans="1:110" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:110" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>93</v>
       </c>
@@ -5396,7 +5493,7 @@
       <c r="E21" s="57">
         <v>0.25</v>
       </c>
-      <c r="F21" s="126"/>
+      <c r="F21" s="151"/>
       <c r="G21" s="10">
         <v>1</v>
       </c>
@@ -5614,7 +5711,7 @@
       <c r="E22" s="58">
         <v>0.25</v>
       </c>
-      <c r="F22" s="126"/>
+      <c r="F22" s="151"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -5740,7 +5837,7 @@
       <c r="DE22" s="2"/>
       <c r="DF22" s="2"/>
     </row>
-    <row r="23" spans="1:110" ht="126" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:110" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>94</v>
       </c>
@@ -5756,7 +5853,7 @@
       <c r="E23" s="56">
         <v>0.4</v>
       </c>
-      <c r="F23" s="126"/>
+      <c r="F23" s="151"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -5930,7 +6027,7 @@
       <c r="E24" s="34">
         <v>0.2</v>
       </c>
-      <c r="F24" s="126"/>
+      <c r="F24" s="151"/>
       <c r="G24" s="10">
         <v>1</v>
       </c>
@@ -6080,7 +6177,7 @@
       <c r="DE24" s="2"/>
       <c r="DF24" s="2"/>
     </row>
-    <row r="25" spans="1:110" ht="126" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:110" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>11</v>
       </c>
@@ -6096,7 +6193,7 @@
       <c r="E25" s="40">
         <v>0.4</v>
       </c>
-      <c r="F25" s="127"/>
+      <c r="F25" s="152"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -6248,8 +6345,8 @@
       <c r="C26" s="61"/>
       <c r="D26" s="61"/>
       <c r="E26" s="62"/>
-      <c r="F26" s="122" t="s">
-        <v>124</v>
+      <c r="F26" s="147" t="s">
+        <v>138</v>
       </c>
       <c r="G26" s="99"/>
       <c r="H26" s="100"/>
@@ -6372,7 +6469,7 @@
       <c r="E27" s="65">
         <v>0.2</v>
       </c>
-      <c r="F27" s="123"/>
+      <c r="F27" s="148"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -6453,36 +6550,36 @@
       <c r="BH27" s="2"/>
       <c r="BI27" s="2"/>
       <c r="BJ27" s="2"/>
-      <c r="BK27" s="179">
+      <c r="BK27" s="110">
         <v>1</v>
       </c>
-      <c r="BL27" s="179">
+      <c r="BL27" s="110">
         <v>2</v>
       </c>
-      <c r="BM27" s="179">
+      <c r="BM27" s="110">
         <v>3</v>
       </c>
-      <c r="BN27" s="179">
+      <c r="BN27" s="110">
         <v>4</v>
       </c>
       <c r="BO27" s="2"/>
       <c r="BP27" s="2"/>
-      <c r="BQ27" s="179">
+      <c r="BQ27" s="110">
         <v>1</v>
       </c>
-      <c r="BR27" s="179">
+      <c r="BR27" s="110">
         <v>2</v>
       </c>
-      <c r="BS27" s="179">
+      <c r="BS27" s="110">
         <v>3</v>
       </c>
-      <c r="BT27" s="179">
+      <c r="BT27" s="110">
         <v>4</v>
       </c>
-      <c r="BU27" s="179">
+      <c r="BU27" s="110">
         <v>5</v>
       </c>
-      <c r="BV27" s="179">
+      <c r="BV27" s="110">
         <v>6</v>
       </c>
       <c r="BW27" s="2"/>
@@ -6538,7 +6635,7 @@
       <c r="E28" s="65">
         <v>0.2</v>
       </c>
-      <c r="F28" s="123"/>
+      <c r="F28" s="148"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -6619,36 +6716,36 @@
       <c r="BH28" s="2"/>
       <c r="BI28" s="2"/>
       <c r="BJ28" s="2"/>
-      <c r="BK28" s="179">
+      <c r="BK28" s="110">
         <v>1</v>
       </c>
-      <c r="BL28" s="179">
+      <c r="BL28" s="110">
         <v>2</v>
       </c>
-      <c r="BM28" s="179">
+      <c r="BM28" s="110">
         <v>3</v>
       </c>
-      <c r="BN28" s="179">
+      <c r="BN28" s="110">
         <v>4</v>
       </c>
       <c r="BO28" s="2"/>
       <c r="BP28" s="2"/>
-      <c r="BQ28" s="179">
+      <c r="BQ28" s="110">
         <v>1</v>
       </c>
-      <c r="BR28" s="179">
+      <c r="BR28" s="110">
         <v>2</v>
       </c>
-      <c r="BS28" s="179">
+      <c r="BS28" s="110">
         <v>3</v>
       </c>
-      <c r="BT28" s="179">
+      <c r="BT28" s="110">
         <v>4</v>
       </c>
-      <c r="BU28" s="179">
+      <c r="BU28" s="110">
         <v>5</v>
       </c>
-      <c r="BV28" s="179">
+      <c r="BV28" s="110">
         <v>6</v>
       </c>
       <c r="BW28" s="2"/>
@@ -6704,7 +6801,7 @@
       <c r="E29" s="65">
         <v>0.2</v>
       </c>
-      <c r="F29" s="123"/>
+      <c r="F29" s="148"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -6769,36 +6866,36 @@
       <c r="BH29" s="2"/>
       <c r="BI29" s="2"/>
       <c r="BJ29" s="2"/>
-      <c r="BK29" s="179">
+      <c r="BK29" s="110">
         <v>1</v>
       </c>
-      <c r="BL29" s="179">
+      <c r="BL29" s="110">
         <v>2</v>
       </c>
-      <c r="BM29" s="179">
+      <c r="BM29" s="110">
         <v>3</v>
       </c>
-      <c r="BN29" s="179">
+      <c r="BN29" s="110">
         <v>4</v>
       </c>
       <c r="BO29" s="2"/>
       <c r="BP29" s="2"/>
-      <c r="BQ29" s="179">
+      <c r="BQ29" s="110">
         <v>1</v>
       </c>
-      <c r="BR29" s="179">
+      <c r="BR29" s="110">
         <v>2</v>
       </c>
-      <c r="BS29" s="179">
+      <c r="BS29" s="110">
         <v>3</v>
       </c>
-      <c r="BT29" s="179">
+      <c r="BT29" s="110">
         <v>4</v>
       </c>
-      <c r="BU29" s="179">
+      <c r="BU29" s="110">
         <v>5</v>
       </c>
-      <c r="BV29" s="179">
+      <c r="BV29" s="110">
         <v>6</v>
       </c>
       <c r="BW29" s="2"/>
@@ -6838,7 +6935,7 @@
       <c r="DE29" s="2"/>
       <c r="DF29" s="2"/>
     </row>
-    <row r="30" spans="1:110" ht="63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:110" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="68" t="s">
         <v>118</v>
       </c>
@@ -6854,7 +6951,7 @@
       <c r="E30" s="70">
         <v>0.2</v>
       </c>
-      <c r="F30" s="123"/>
+      <c r="F30" s="148"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -6935,36 +7032,36 @@
       <c r="BH30" s="2"/>
       <c r="BI30" s="2"/>
       <c r="BJ30" s="2"/>
-      <c r="BK30" s="179">
+      <c r="BK30" s="110">
         <v>1</v>
       </c>
-      <c r="BL30" s="179">
+      <c r="BL30" s="110">
         <v>2</v>
       </c>
-      <c r="BM30" s="179">
+      <c r="BM30" s="110">
         <v>3</v>
       </c>
-      <c r="BN30" s="179">
+      <c r="BN30" s="110">
         <v>4</v>
       </c>
       <c r="BO30" s="2"/>
       <c r="BP30" s="2"/>
-      <c r="BQ30" s="179">
+      <c r="BQ30" s="110">
         <v>1</v>
       </c>
-      <c r="BR30" s="179">
+      <c r="BR30" s="110">
         <v>2</v>
       </c>
-      <c r="BS30" s="179">
+      <c r="BS30" s="110">
         <v>3</v>
       </c>
-      <c r="BT30" s="179">
+      <c r="BT30" s="110">
         <v>4</v>
       </c>
-      <c r="BU30" s="179">
+      <c r="BU30" s="110">
         <v>5</v>
       </c>
-      <c r="BV30" s="179">
+      <c r="BV30" s="110">
         <v>6</v>
       </c>
       <c r="BW30" s="2"/>
@@ -7020,7 +7117,7 @@
       <c r="E31" s="65">
         <v>0.2</v>
       </c>
-      <c r="F31" s="124"/>
+      <c r="F31" s="149"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -7049,28 +7146,28 @@
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
-      <c r="AI31" s="180">
+      <c r="AI31" s="111">
         <v>1</v>
       </c>
-      <c r="AJ31" s="180">
+      <c r="AJ31" s="111">
         <v>2</v>
       </c>
-      <c r="AK31" s="180">
+      <c r="AK31" s="111">
         <v>3</v>
       </c>
-      <c r="AL31" s="180">
+      <c r="AL31" s="111">
         <v>4</v>
       </c>
-      <c r="AM31" s="180">
+      <c r="AM31" s="111">
         <v>5</v>
       </c>
-      <c r="AN31" s="180">
+      <c r="AN31" s="111">
         <v>6</v>
       </c>
-      <c r="AO31" s="180">
+      <c r="AO31" s="111">
         <v>7</v>
       </c>
-      <c r="AP31" s="180">
+      <c r="AP31" s="111">
         <v>8</v>
       </c>
       <c r="AQ31" s="32"/>
@@ -7093,36 +7190,36 @@
       <c r="BH31" s="2"/>
       <c r="BI31" s="2"/>
       <c r="BJ31" s="2"/>
-      <c r="BK31" s="179">
+      <c r="BK31" s="110">
         <v>1</v>
       </c>
-      <c r="BL31" s="179">
+      <c r="BL31" s="110">
         <v>2</v>
       </c>
-      <c r="BM31" s="179">
+      <c r="BM31" s="110">
         <v>3</v>
       </c>
-      <c r="BN31" s="179">
+      <c r="BN31" s="110">
         <v>4</v>
       </c>
       <c r="BO31" s="2"/>
       <c r="BP31" s="2"/>
-      <c r="BQ31" s="179">
+      <c r="BQ31" s="110">
         <v>1</v>
       </c>
-      <c r="BR31" s="179">
+      <c r="BR31" s="110">
         <v>2</v>
       </c>
-      <c r="BS31" s="179">
+      <c r="BS31" s="110">
         <v>3</v>
       </c>
-      <c r="BT31" s="179">
+      <c r="BT31" s="110">
         <v>4</v>
       </c>
-      <c r="BU31" s="179">
+      <c r="BU31" s="110">
         <v>5</v>
       </c>
-      <c r="BV31" s="179">
+      <c r="BV31" s="110">
         <v>6</v>
       </c>
       <c r="BW31" s="2"/>
@@ -7172,61 +7269,61 @@
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
       <c r="E32" s="81"/>
-      <c r="F32" s="119" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="141"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="142"/>
-      <c r="L32" s="142"/>
-      <c r="M32" s="142"/>
-      <c r="N32" s="142"/>
-      <c r="O32" s="142"/>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="142"/>
-      <c r="R32" s="142"/>
-      <c r="S32" s="142"/>
-      <c r="T32" s="142"/>
-      <c r="U32" s="142"/>
-      <c r="V32" s="142"/>
-      <c r="W32" s="142"/>
-      <c r="X32" s="142"/>
-      <c r="Y32" s="142"/>
-      <c r="Z32" s="142"/>
-      <c r="AA32" s="142"/>
-      <c r="AB32" s="142"/>
-      <c r="AC32" s="142"/>
-      <c r="AD32" s="142"/>
-      <c r="AE32" s="142"/>
-      <c r="AF32" s="142"/>
-      <c r="AG32" s="142"/>
-      <c r="AH32" s="142"/>
-      <c r="AI32" s="142"/>
-      <c r="AJ32" s="142"/>
-      <c r="AK32" s="142"/>
-      <c r="AL32" s="142"/>
-      <c r="AM32" s="142"/>
-      <c r="AN32" s="142"/>
-      <c r="AO32" s="142"/>
-      <c r="AP32" s="142"/>
-      <c r="AQ32" s="142"/>
-      <c r="AR32" s="142"/>
-      <c r="AS32" s="142"/>
-      <c r="AT32" s="142"/>
-      <c r="AU32" s="142"/>
-      <c r="AV32" s="142"/>
-      <c r="AW32" s="142"/>
-      <c r="AX32" s="142"/>
-      <c r="AY32" s="142"/>
-      <c r="AZ32" s="142"/>
-      <c r="BA32" s="142"/>
-      <c r="BB32" s="142"/>
-      <c r="BC32" s="142"/>
-      <c r="BD32" s="142"/>
-      <c r="BE32" s="142"/>
-      <c r="BF32" s="143"/>
+      <c r="F32" s="144" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="135"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="136"/>
+      <c r="Q32" s="136"/>
+      <c r="R32" s="136"/>
+      <c r="S32" s="136"/>
+      <c r="T32" s="136"/>
+      <c r="U32" s="136"/>
+      <c r="V32" s="136"/>
+      <c r="W32" s="136"/>
+      <c r="X32" s="136"/>
+      <c r="Y32" s="136"/>
+      <c r="Z32" s="136"/>
+      <c r="AA32" s="136"/>
+      <c r="AB32" s="136"/>
+      <c r="AC32" s="136"/>
+      <c r="AD32" s="136"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="136"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="136"/>
+      <c r="AJ32" s="136"/>
+      <c r="AK32" s="136"/>
+      <c r="AL32" s="136"/>
+      <c r="AM32" s="136"/>
+      <c r="AN32" s="136"/>
+      <c r="AO32" s="136"/>
+      <c r="AP32" s="136"/>
+      <c r="AQ32" s="136"/>
+      <c r="AR32" s="136"/>
+      <c r="AS32" s="136"/>
+      <c r="AT32" s="136"/>
+      <c r="AU32" s="136"/>
+      <c r="AV32" s="136"/>
+      <c r="AW32" s="136"/>
+      <c r="AX32" s="136"/>
+      <c r="AY32" s="136"/>
+      <c r="AZ32" s="136"/>
+      <c r="BA32" s="136"/>
+      <c r="BB32" s="136"/>
+      <c r="BC32" s="136"/>
+      <c r="BD32" s="136"/>
+      <c r="BE32" s="136"/>
+      <c r="BF32" s="137"/>
       <c r="BG32" s="2"/>
       <c r="BH32" s="2"/>
       <c r="BI32" s="2"/>
@@ -7296,7 +7393,7 @@
       <c r="E33" s="84">
         <v>0.4</v>
       </c>
-      <c r="F33" s="120"/>
+      <c r="F33" s="145"/>
       <c r="G33" s="81">
         <v>1</v>
       </c>
@@ -7526,7 +7623,7 @@
       <c r="E34" s="87">
         <v>0.4</v>
       </c>
-      <c r="F34" s="120"/>
+      <c r="F34" s="145"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -7660,7 +7757,7 @@
       <c r="DE34" s="2"/>
       <c r="DF34" s="2"/>
     </row>
-    <row r="35" spans="1:110" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:110" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="88" t="s">
         <v>15</v>
       </c>
@@ -7676,7 +7773,7 @@
       <c r="E35" s="87">
         <v>0.2</v>
       </c>
-      <c r="F35" s="121"/>
+      <c r="F35" s="146"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -7811,16 +7908,16 @@
       <c r="DF35" s="2"/>
     </row>
     <row r="36" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A36" s="176" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="177" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="177"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="178"/>
+      <c r="A36" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="109"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -7859,130 +7956,130 @@
       <c r="AP36" s="2"/>
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
-      <c r="AS36" s="177">
+      <c r="AS36" s="108">
         <v>1</v>
       </c>
-      <c r="AT36" s="177">
+      <c r="AT36" s="108">
         <v>2</v>
       </c>
-      <c r="AU36" s="177">
+      <c r="AU36" s="108">
         <v>3</v>
       </c>
-      <c r="AV36" s="177">
+      <c r="AV36" s="108">
         <v>4</v>
       </c>
-      <c r="AW36" s="177">
+      <c r="AW36" s="108">
         <v>5</v>
       </c>
-      <c r="AX36" s="177">
+      <c r="AX36" s="108">
         <v>6</v>
       </c>
-      <c r="AY36" s="177">
+      <c r="AY36" s="108">
         <v>7</v>
       </c>
-      <c r="AZ36" s="177">
+      <c r="AZ36" s="108">
         <v>8</v>
       </c>
-      <c r="BA36" s="177">
+      <c r="BA36" s="108">
         <v>9</v>
       </c>
-      <c r="BB36" s="177">
+      <c r="BB36" s="108">
         <v>10</v>
       </c>
-      <c r="BC36" s="177">
+      <c r="BC36" s="108">
         <v>11</v>
       </c>
-      <c r="BD36" s="177">
+      <c r="BD36" s="108">
         <v>12</v>
       </c>
-      <c r="BE36" s="177">
+      <c r="BE36" s="108">
         <v>13</v>
       </c>
-      <c r="BF36" s="177">
+      <c r="BF36" s="108">
         <v>14</v>
       </c>
-      <c r="BG36" s="177">
+      <c r="BG36" s="108">
         <v>15</v>
       </c>
-      <c r="BH36" s="177">
+      <c r="BH36" s="108">
         <v>16</v>
       </c>
-      <c r="BI36" s="177">
+      <c r="BI36" s="108">
         <v>17</v>
       </c>
-      <c r="BJ36" s="177">
+      <c r="BJ36" s="108">
         <v>18</v>
       </c>
-      <c r="BK36" s="177">
+      <c r="BK36" s="108">
         <v>19</v>
       </c>
-      <c r="BL36" s="177">
+      <c r="BL36" s="108">
         <v>20</v>
       </c>
-      <c r="BM36" s="177">
+      <c r="BM36" s="108">
         <v>21</v>
       </c>
-      <c r="BN36" s="177">
+      <c r="BN36" s="108">
         <v>22</v>
       </c>
-      <c r="BO36" s="177">
+      <c r="BO36" s="108">
         <v>23</v>
       </c>
-      <c r="BP36" s="177">
+      <c r="BP36" s="108">
         <v>24</v>
       </c>
-      <c r="BQ36" s="177">
+      <c r="BQ36" s="108">
         <v>25</v>
       </c>
-      <c r="BR36" s="177">
+      <c r="BR36" s="108">
         <v>26</v>
       </c>
-      <c r="BS36" s="177">
+      <c r="BS36" s="108">
         <v>27</v>
       </c>
-      <c r="BT36" s="177">
+      <c r="BT36" s="108">
         <v>28</v>
       </c>
-      <c r="BU36" s="177">
+      <c r="BU36" s="108">
         <v>29</v>
       </c>
-      <c r="BV36" s="177">
+      <c r="BV36" s="108">
         <v>30</v>
       </c>
-      <c r="BW36" s="177">
+      <c r="BW36" s="108">
         <v>31</v>
       </c>
-      <c r="BX36" s="177">
+      <c r="BX36" s="108">
         <v>32</v>
       </c>
-      <c r="BY36" s="177">
+      <c r="BY36" s="108">
         <v>33</v>
       </c>
-      <c r="BZ36" s="177">
+      <c r="BZ36" s="108">
         <v>34</v>
       </c>
-      <c r="CA36" s="177">
+      <c r="CA36" s="108">
         <v>35</v>
       </c>
-      <c r="CB36" s="177">
+      <c r="CB36" s="108">
         <v>36</v>
       </c>
-      <c r="CC36" s="177">
+      <c r="CC36" s="108">
         <v>37</v>
       </c>
-      <c r="CD36" s="177">
+      <c r="CD36" s="108">
         <v>38</v>
       </c>
-      <c r="CE36" s="177">
+      <c r="CE36" s="108">
         <v>39</v>
       </c>
-      <c r="CF36" s="177">
+      <c r="CF36" s="108">
         <v>40</v>
       </c>
-      <c r="CG36" s="177">
+      <c r="CG36" s="108">
         <v>41</v>
       </c>
-      <c r="CH36" s="177">
+      <c r="CH36" s="108">
         <v>42</v>
       </c>
       <c r="CI36" s="2"/>
@@ -8011,14 +8108,14 @@
       <c r="DF36" s="2"/>
     </row>
     <row r="37" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A37" s="176" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="177"/>
-      <c r="F37" s="178"/>
+      <c r="A37" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="109"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -8057,130 +8154,130 @@
       <c r="AP37" s="2"/>
       <c r="AQ37" s="2"/>
       <c r="AR37" s="2"/>
-      <c r="AS37" s="177">
+      <c r="AS37" s="108">
         <v>1</v>
       </c>
-      <c r="AT37" s="177">
+      <c r="AT37" s="108">
         <v>2</v>
       </c>
-      <c r="AU37" s="177">
+      <c r="AU37" s="108">
         <v>3</v>
       </c>
-      <c r="AV37" s="177">
+      <c r="AV37" s="108">
         <v>4</v>
       </c>
-      <c r="AW37" s="177">
+      <c r="AW37" s="108">
         <v>5</v>
       </c>
-      <c r="AX37" s="177">
+      <c r="AX37" s="108">
         <v>6</v>
       </c>
-      <c r="AY37" s="177">
+      <c r="AY37" s="108">
         <v>7</v>
       </c>
-      <c r="AZ37" s="177">
+      <c r="AZ37" s="108">
         <v>8</v>
       </c>
-      <c r="BA37" s="177">
+      <c r="BA37" s="108">
         <v>9</v>
       </c>
-      <c r="BB37" s="177">
+      <c r="BB37" s="108">
         <v>10</v>
       </c>
-      <c r="BC37" s="177">
+      <c r="BC37" s="108">
         <v>11</v>
       </c>
-      <c r="BD37" s="177">
+      <c r="BD37" s="108">
         <v>12</v>
       </c>
-      <c r="BE37" s="177">
+      <c r="BE37" s="108">
         <v>13</v>
       </c>
-      <c r="BF37" s="177">
+      <c r="BF37" s="108">
         <v>14</v>
       </c>
-      <c r="BG37" s="177">
+      <c r="BG37" s="108">
         <v>15</v>
       </c>
-      <c r="BH37" s="177">
+      <c r="BH37" s="108">
         <v>16</v>
       </c>
-      <c r="BI37" s="177">
+      <c r="BI37" s="108">
         <v>17</v>
       </c>
-      <c r="BJ37" s="177">
+      <c r="BJ37" s="108">
         <v>18</v>
       </c>
-      <c r="BK37" s="177">
+      <c r="BK37" s="108">
         <v>19</v>
       </c>
-      <c r="BL37" s="177">
+      <c r="BL37" s="108">
         <v>20</v>
       </c>
-      <c r="BM37" s="177">
+      <c r="BM37" s="108">
         <v>21</v>
       </c>
-      <c r="BN37" s="177">
+      <c r="BN37" s="108">
         <v>22</v>
       </c>
-      <c r="BO37" s="177">
+      <c r="BO37" s="108">
         <v>23</v>
       </c>
-      <c r="BP37" s="177">
+      <c r="BP37" s="108">
         <v>24</v>
       </c>
-      <c r="BQ37" s="177">
+      <c r="BQ37" s="108">
         <v>25</v>
       </c>
-      <c r="BR37" s="177">
+      <c r="BR37" s="108">
         <v>26</v>
       </c>
-      <c r="BS37" s="177">
+      <c r="BS37" s="108">
         <v>27</v>
       </c>
-      <c r="BT37" s="177">
+      <c r="BT37" s="108">
         <v>28</v>
       </c>
-      <c r="BU37" s="177">
+      <c r="BU37" s="108">
         <v>29</v>
       </c>
-      <c r="BV37" s="177">
+      <c r="BV37" s="108">
         <v>30</v>
       </c>
-      <c r="BW37" s="177">
+      <c r="BW37" s="108">
         <v>31</v>
       </c>
-      <c r="BX37" s="177">
+      <c r="BX37" s="108">
         <v>32</v>
       </c>
-      <c r="BY37" s="177">
+      <c r="BY37" s="108">
         <v>33</v>
       </c>
-      <c r="BZ37" s="177">
+      <c r="BZ37" s="108">
         <v>34</v>
       </c>
-      <c r="CA37" s="177">
+      <c r="CA37" s="108">
         <v>35</v>
       </c>
-      <c r="CB37" s="177">
+      <c r="CB37" s="108">
         <v>36</v>
       </c>
-      <c r="CC37" s="177">
+      <c r="CC37" s="108">
         <v>37</v>
       </c>
-      <c r="CD37" s="177">
+      <c r="CD37" s="108">
         <v>38</v>
       </c>
-      <c r="CE37" s="177">
+      <c r="CE37" s="108">
         <v>39</v>
       </c>
-      <c r="CF37" s="177">
+      <c r="CF37" s="108">
         <v>40</v>
       </c>
-      <c r="CG37" s="177">
+      <c r="CG37" s="108">
         <v>41</v>
       </c>
-      <c r="CH37" s="177">
+      <c r="CH37" s="108">
         <v>42</v>
       </c>
       <c r="CI37" s="2"/>
@@ -8209,14 +8306,14 @@
       <c r="DF37" s="2"/>
     </row>
     <row r="38" spans="1:110" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="176" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="177"/>
-      <c r="C38" s="177"/>
-      <c r="D38" s="177"/>
-      <c r="E38" s="177"/>
-      <c r="F38" s="178"/>
+      <c r="A38" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="109"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -8255,130 +8352,130 @@
       <c r="AP38" s="2"/>
       <c r="AQ38" s="2"/>
       <c r="AR38" s="2"/>
-      <c r="AS38" s="177">
+      <c r="AS38" s="108">
         <v>1</v>
       </c>
-      <c r="AT38" s="177">
+      <c r="AT38" s="108">
         <v>2</v>
       </c>
-      <c r="AU38" s="177">
+      <c r="AU38" s="108">
         <v>3</v>
       </c>
-      <c r="AV38" s="177">
+      <c r="AV38" s="108">
         <v>4</v>
       </c>
-      <c r="AW38" s="177">
+      <c r="AW38" s="108">
         <v>5</v>
       </c>
-      <c r="AX38" s="177">
+      <c r="AX38" s="108">
         <v>6</v>
       </c>
-      <c r="AY38" s="177">
+      <c r="AY38" s="108">
         <v>7</v>
       </c>
-      <c r="AZ38" s="177">
+      <c r="AZ38" s="108">
         <v>8</v>
       </c>
-      <c r="BA38" s="177">
+      <c r="BA38" s="108">
         <v>9</v>
       </c>
-      <c r="BB38" s="177">
+      <c r="BB38" s="108">
         <v>10</v>
       </c>
-      <c r="BC38" s="177">
+      <c r="BC38" s="108">
         <v>11</v>
       </c>
-      <c r="BD38" s="177">
+      <c r="BD38" s="108">
         <v>12</v>
       </c>
-      <c r="BE38" s="177">
+      <c r="BE38" s="108">
         <v>13</v>
       </c>
-      <c r="BF38" s="177">
+      <c r="BF38" s="108">
         <v>14</v>
       </c>
-      <c r="BG38" s="177">
+      <c r="BG38" s="108">
         <v>15</v>
       </c>
-      <c r="BH38" s="177">
+      <c r="BH38" s="108">
         <v>16</v>
       </c>
-      <c r="BI38" s="177">
+      <c r="BI38" s="108">
         <v>17</v>
       </c>
-      <c r="BJ38" s="177">
+      <c r="BJ38" s="108">
         <v>18</v>
       </c>
-      <c r="BK38" s="177">
+      <c r="BK38" s="108">
         <v>19</v>
       </c>
-      <c r="BL38" s="177">
+      <c r="BL38" s="108">
         <v>20</v>
       </c>
-      <c r="BM38" s="177">
+      <c r="BM38" s="108">
         <v>21</v>
       </c>
-      <c r="BN38" s="177">
+      <c r="BN38" s="108">
         <v>22</v>
       </c>
-      <c r="BO38" s="177">
+      <c r="BO38" s="108">
         <v>23</v>
       </c>
-      <c r="BP38" s="177">
+      <c r="BP38" s="108">
         <v>24</v>
       </c>
-      <c r="BQ38" s="177">
+      <c r="BQ38" s="108">
         <v>25</v>
       </c>
-      <c r="BR38" s="177">
+      <c r="BR38" s="108">
         <v>26</v>
       </c>
-      <c r="BS38" s="177">
+      <c r="BS38" s="108">
         <v>27</v>
       </c>
-      <c r="BT38" s="177">
+      <c r="BT38" s="108">
         <v>28</v>
       </c>
-      <c r="BU38" s="177">
+      <c r="BU38" s="108">
         <v>29</v>
       </c>
-      <c r="BV38" s="177">
+      <c r="BV38" s="108">
         <v>30</v>
       </c>
-      <c r="BW38" s="177">
+      <c r="BW38" s="108">
         <v>31</v>
       </c>
-      <c r="BX38" s="177">
+      <c r="BX38" s="108">
         <v>32</v>
       </c>
-      <c r="BY38" s="177">
+      <c r="BY38" s="108">
         <v>33</v>
       </c>
-      <c r="BZ38" s="177">
+      <c r="BZ38" s="108">
         <v>34</v>
       </c>
-      <c r="CA38" s="177">
+      <c r="CA38" s="108">
         <v>35</v>
       </c>
-      <c r="CB38" s="177">
+      <c r="CB38" s="108">
         <v>36</v>
       </c>
-      <c r="CC38" s="177">
+      <c r="CC38" s="108">
         <v>37</v>
       </c>
-      <c r="CD38" s="177">
+      <c r="CD38" s="108">
         <v>38</v>
       </c>
-      <c r="CE38" s="177">
+      <c r="CE38" s="108">
         <v>39</v>
       </c>
-      <c r="CF38" s="177">
+      <c r="CF38" s="108">
         <v>40</v>
       </c>
-      <c r="CG38" s="177">
+      <c r="CG38" s="108">
         <v>41</v>
       </c>
-      <c r="CH38" s="177">
+      <c r="CH38" s="108">
         <v>42</v>
       </c>
       <c r="CI38" s="7"/>
@@ -8407,14 +8504,14 @@
       <c r="DF38" s="7"/>
     </row>
     <row r="39" spans="1:110" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="173" t="s">
+      <c r="A39" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="174"/>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
-      <c r="E39" s="174"/>
-      <c r="F39" s="175"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="127"/>
     </row>
     <row r="40" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -8423,25 +8520,111 @@
       <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="181"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="182"/>
     </row>
     <row r="43" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="183"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="182"/>
+      <c r="I43" s="186" t="s">
+        <v>142</v>
+      </c>
+      <c r="J43" s="186"/>
+      <c r="K43" s="186"/>
+      <c r="L43" s="186"/>
+      <c r="M43" s="186"/>
+      <c r="N43" s="186"/>
+      <c r="O43" s="186"/>
+      <c r="P43" s="186"/>
+      <c r="Q43" s="186"/>
     </row>
     <row r="44" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="183"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="182"/>
+      <c r="J44" s="189" t="s">
+        <v>143</v>
+      </c>
+      <c r="K44" s="190"/>
+      <c r="L44" s="190"/>
+      <c r="M44" s="190"/>
+      <c r="N44" s="190"/>
+      <c r="O44" s="191"/>
+      <c r="P44" s="187"/>
+      <c r="Q44" s="188"/>
     </row>
     <row r="45" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="182"/>
+      <c r="J45" s="195" t="s">
+        <v>127</v>
+      </c>
+      <c r="K45" s="196"/>
+      <c r="L45" s="196"/>
+      <c r="M45" s="196"/>
+      <c r="N45" s="196"/>
+      <c r="O45" s="197"/>
+      <c r="P45" s="187"/>
+      <c r="Q45" s="188"/>
     </row>
     <row r="46" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="A46" s="183"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="182"/>
+      <c r="J46" s="138" t="s">
+        <v>128</v>
+      </c>
+      <c r="K46" s="139"/>
+      <c r="L46" s="139"/>
+      <c r="M46" s="139"/>
+      <c r="N46" s="139"/>
+      <c r="O46" s="140"/>
+      <c r="P46" s="187"/>
+      <c r="Q46" s="188"/>
     </row>
     <row r="47" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="182"/>
+      <c r="J47" s="192" t="s">
+        <v>129</v>
+      </c>
+      <c r="K47" s="193"/>
+      <c r="L47" s="193"/>
+      <c r="M47" s="193"/>
+      <c r="N47" s="193"/>
+      <c r="O47" s="194"/>
+      <c r="P47" s="187"/>
+      <c r="Q47" s="188"/>
     </row>
     <row r="48" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A48" s="183"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="182"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
@@ -8909,19 +9092,32 @@
       <c r="A203" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="CA4:CD4"/>
-    <mergeCell ref="CE4:CH4"/>
-    <mergeCell ref="G20:BF20"/>
-    <mergeCell ref="CA6:CH6"/>
-    <mergeCell ref="AS6:BF6"/>
-    <mergeCell ref="G8:BF8"/>
-    <mergeCell ref="BG4:BJ4"/>
-    <mergeCell ref="BK4:BN4"/>
-    <mergeCell ref="BO4:BR4"/>
-    <mergeCell ref="BS4:BV4"/>
-    <mergeCell ref="BW4:BZ4"/>
-    <mergeCell ref="BG8:BZ8"/>
+  <mergeCells count="53">
+    <mergeCell ref="I43:Q43"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="J45:O45"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="G3:BF3"/>
+    <mergeCell ref="G1:BF1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G2:BF2"/>
+    <mergeCell ref="AQ4:AT4"/>
+    <mergeCell ref="AU4:AX4"/>
+    <mergeCell ref="AY4:BB4"/>
+    <mergeCell ref="BC4:BF4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A39:F39"/>
     <mergeCell ref="BG1:DF1"/>
     <mergeCell ref="BG2:DF2"/>
@@ -8938,22 +9134,18 @@
     <mergeCell ref="F8:F14"/>
     <mergeCell ref="G32:BF32"/>
     <mergeCell ref="G15:BF15"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G3:BF3"/>
-    <mergeCell ref="G1:BF1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G2:BF2"/>
-    <mergeCell ref="AQ4:AT4"/>
-    <mergeCell ref="AU4:AX4"/>
-    <mergeCell ref="AY4:BB4"/>
-    <mergeCell ref="BC4:BF4"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="CA4:CD4"/>
+    <mergeCell ref="CE4:CH4"/>
+    <mergeCell ref="G20:BF20"/>
+    <mergeCell ref="CA6:CH6"/>
+    <mergeCell ref="AS6:BF6"/>
+    <mergeCell ref="G8:BF8"/>
+    <mergeCell ref="BG4:BJ4"/>
+    <mergeCell ref="BK4:BN4"/>
+    <mergeCell ref="BO4:BR4"/>
+    <mergeCell ref="BS4:BV4"/>
+    <mergeCell ref="BW4:BZ4"/>
+    <mergeCell ref="BG8:BZ8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8962,9 +9154,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="184">
+        <v>1</v>
+      </c>
+      <c r="B2" s="184" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="184" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="184" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="184" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="184">
+        <v>2</v>
+      </c>
+      <c r="B3" s="185" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="185" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="185" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="185" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="184">
+        <v>3</v>
+      </c>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="185" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="185" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="184">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="185" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="185" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="185" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="184">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="185" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="184" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -8980,148 +9313,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160"/>
-      <c r="B2" s="161" t="s">
+      <c r="A2" s="169"/>
+      <c r="B2" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="163" t="s">
+      <c r="J2" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="174"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="160"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="177"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="160"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
+      <c r="A4" s="169"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="168"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="176"/>
+      <c r="L4" s="176"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="176"/>
+      <c r="O4" s="176"/>
+      <c r="P4" s="177"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
+      <c r="A5" s="169"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="168"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="176"/>
+      <c r="L5" s="176"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="177"/>
     </row>
     <row r="6" spans="1:16" ht="2.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
+      <c r="A6" s="169"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="168"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="177"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="168"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="176"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="177"/>
     </row>
     <row r="8" spans="1:16" ht="36" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="160"/>
-      <c r="B8" s="161"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="167"/>
-      <c r="P8" s="168"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="176"/>
+      <c r="M8" s="176"/>
+      <c r="N8" s="176"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="177"/>
     </row>
     <row r="9" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>50</v>
@@ -9129,13 +9462,13 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="167"/>
-      <c r="P9" s="168"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="176"/>
+      <c r="L9" s="176"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="177"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
@@ -9143,13 +9476,13 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="171"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="179"/>
+      <c r="P10" s="180"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -9421,11 +9754,11 @@
       <c r="B37" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="172" t="s">
+      <c r="C37" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -9475,19 +9808,19 @@
     <row r="46" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J2:P10"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="C2:E8"/>
-    <mergeCell ref="J2:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
@@ -9503,146 +9836,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="160"/>
-      <c r="B2" s="161" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="170" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
       <c r="F2" s="102"/>
       <c r="G2" s="102"/>
       <c r="H2" s="102"/>
       <c r="I2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="163"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="174"/>
     </row>
     <row r="3" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="160"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
       <c r="F3" s="102"/>
       <c r="G3" s="102"/>
       <c r="H3" s="102"/>
       <c r="I3" s="102"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="177"/>
     </row>
     <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="160"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
+      <c r="A4" s="169"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
       <c r="F4" s="102"/>
       <c r="G4" s="102"/>
       <c r="H4" s="102"/>
       <c r="I4" s="102"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="168"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="176"/>
+      <c r="L4" s="176"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="176"/>
+      <c r="O4" s="176"/>
+      <c r="P4" s="177"/>
     </row>
     <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
+      <c r="A5" s="169"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
       <c r="F5" s="102"/>
       <c r="G5" s="102"/>
       <c r="H5" s="102"/>
       <c r="I5" s="102"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="168"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="176"/>
+      <c r="L5" s="176"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="177"/>
     </row>
     <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
+      <c r="A6" s="169"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
       <c r="F6" s="102"/>
       <c r="G6" s="102"/>
       <c r="H6" s="102"/>
       <c r="I6" s="102"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="168"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="177"/>
     </row>
     <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
       <c r="F7" s="102"/>
       <c r="G7" s="102"/>
       <c r="H7" s="102"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="168"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="176"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="177"/>
     </row>
     <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
-      <c r="B8" s="161"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="167"/>
-      <c r="P8" s="168"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="176"/>
+      <c r="M8" s="176"/>
+      <c r="N8" s="176"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="177"/>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>50</v>
@@ -9650,13 +9983,13 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="167"/>
-      <c r="P9" s="168"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="176"/>
+      <c r="L9" s="176"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="177"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
@@ -9664,13 +9997,13 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="171"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="179"/>
+      <c r="P10" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9684,7 +10017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9698,7 +10031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9710,7 +10043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
